--- a/Kode/Server2/Logs/lora_node1/2020-05-24.xlsx
+++ b/Kode/Server2/Logs/lora_node1/2020-05-24.xlsx
@@ -4523,7 +4523,7 @@
         <v>0.015</v>
       </c>
       <c r="F208" t="n">
-        <v>3.342e-05</v>
+        <v>0.03342000000000001</v>
       </c>
     </row>
     <row r="209">
@@ -4543,7 +4543,7 @@
         <v>0.015</v>
       </c>
       <c r="F209" t="n">
-        <v>3.426000000000001e-05</v>
+        <v>0.03426000000000001</v>
       </c>
     </row>
     <row r="210">
@@ -4583,7 +4583,7 @@
         <v>0.015</v>
       </c>
       <c r="F211" t="n">
-        <v>3.594e-05</v>
+        <v>0.03594</v>
       </c>
     </row>
     <row r="212">
@@ -4623,7 +4623,7 @@
         <v>0.015</v>
       </c>
       <c r="F213" t="n">
-        <v>3.701999999999999e-05</v>
+        <v>0.03701999999999999</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4643,7 @@
         <v>0.015</v>
       </c>
       <c r="F214" t="n">
-        <v>3.786e-05</v>
+        <v>0.03786</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4663,7 @@
         <v>0.015</v>
       </c>
       <c r="F215" t="n">
-        <v>3.87e-05</v>
+        <v>0.0387</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4683,7 @@
         <v>0.03</v>
       </c>
       <c r="F216" t="n">
-        <v>7.607999999999999e-05</v>
+        <v>0.07607999999999999</v>
       </c>
     </row>
     <row r="217">
@@ -4703,7 +4703,7 @@
         <v>0.075</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0001782</v>
+        <v>0.1782</v>
       </c>
     </row>
     <row r="218">
@@ -4723,7 +4723,7 @@
         <v>0.09</v>
       </c>
       <c r="F218" t="n">
-        <v>0.00021312</v>
+        <v>0.21312</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4743,7 @@
         <v>0.105</v>
       </c>
       <c r="F219" t="n">
-        <v>0.00024192</v>
+        <v>0.24192</v>
       </c>
     </row>
     <row r="220">
@@ -4763,7 +4763,7 @@
         <v>0.105</v>
       </c>
       <c r="F220" t="n">
-        <v>0.00024402</v>
+        <v>0.24402</v>
       </c>
     </row>
     <row r="221">
@@ -4783,7 +4783,7 @@
         <v>0.135</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0003061800000000001</v>
+        <v>0.3061800000000001</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4803,7 @@
         <v>0.135</v>
       </c>
       <c r="F222" t="n">
-        <v>0.00031158</v>
+        <v>0.31158</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4823,7 @@
         <v>0.15</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0003486</v>
+        <v>0.3486</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4843,7 @@
         <v>0.18</v>
       </c>
       <c r="F224" t="n">
-        <v>0.00040896</v>
+        <v>0.40896</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4863,7 @@
         <v>0.195</v>
       </c>
       <c r="F225" t="n">
-        <v>0.00044538</v>
+        <v>0.44538</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4883,7 @@
         <v>0.21</v>
       </c>
       <c r="F226" t="n">
-        <v>0.00047628</v>
+        <v>0.47628</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4903,7 @@
         <v>0.225</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0004995000000000001</v>
+        <v>0.4995000000000001</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4923,7 @@
         <v>0.255</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0005712</v>
+        <v>0.5712</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4943,7 @@
         <v>0.255</v>
       </c>
       <c r="F229" t="n">
-        <v>0.0005814</v>
+        <v>0.5814</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4963,7 @@
         <v>0.285</v>
       </c>
       <c r="F230" t="n">
-        <v>0.0006441</v>
+        <v>0.6441</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4983,7 @@
         <v>0.3</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0006828000000000001</v>
+        <v>0.6828000000000001</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5003,7 @@
         <v>0.315</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0007257600000000001</v>
+        <v>0.7257600000000001</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5023,7 @@
         <v>0.345</v>
       </c>
       <c r="F233" t="n">
-        <v>0.00076728</v>
+        <v>0.76728</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5043,7 @@
         <v>0.36</v>
       </c>
       <c r="F234" t="n">
-        <v>0.00081072</v>
+        <v>0.81072</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5063,7 @@
         <v>0.39</v>
       </c>
       <c r="F235" t="n">
-        <v>0.0008798400000000001</v>
+        <v>0.8798400000000001</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5083,7 @@
         <v>0.405</v>
       </c>
       <c r="F236" t="n">
-        <v>0.00091044</v>
+        <v>0.91044</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5103,7 @@
         <v>0.435</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0009657000000000001</v>
+        <v>0.9657000000000001</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5123,7 @@
         <v>0.465</v>
       </c>
       <c r="F238" t="n">
-        <v>0.00103416</v>
+        <v>1.03416</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5143,7 @@
         <v>0.465</v>
       </c>
       <c r="F239" t="n">
-        <v>0.00103044</v>
+        <v>1.03044</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5163,7 @@
         <v>0.495</v>
       </c>
       <c r="F240" t="n">
-        <v>0.00109098</v>
+        <v>1.09098</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5183,7 @@
         <v>0.525</v>
       </c>
       <c r="F241" t="n">
-        <v>0.0011508</v>
+        <v>1.1508</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5203,7 @@
         <v>0.54</v>
       </c>
       <c r="F242" t="n">
-        <v>0.00118368</v>
+        <v>1.18368</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5223,7 @@
         <v>0.57</v>
       </c>
       <c r="F243" t="n">
-        <v>0.00125172</v>
+        <v>1.25172</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5243,7 @@
         <v>0.6</v>
       </c>
       <c r="F244" t="n">
-        <v>0.001308</v>
+        <v>1.308</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5263,7 @@
         <v>0.63</v>
       </c>
       <c r="F245" t="n">
-        <v>0.00135828</v>
+        <v>1.35828</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5283,7 @@
         <v>0.63</v>
       </c>
       <c r="F246" t="n">
-        <v>0.00143388</v>
+        <v>1.43388</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5303,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0014796</v>
+        <v>1.4796</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5323,7 @@
         <v>0.72</v>
       </c>
       <c r="F248" t="n">
-        <v>0.00157536</v>
+        <v>1.57536</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5343,7 @@
         <v>0.72</v>
       </c>
       <c r="F249" t="n">
-        <v>0.00155232</v>
+        <v>1.55232</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5363,7 @@
         <v>0.75</v>
       </c>
       <c r="F250" t="n">
-        <v>0.001656</v>
+        <v>1.656</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5383,7 @@
         <v>0.75</v>
       </c>
       <c r="F251" t="n">
-        <v>0.00165</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5403,7 @@
         <v>0.78</v>
       </c>
       <c r="F252" t="n">
-        <v>0.00172536</v>
+        <v>1.72536</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5423,7 @@
         <v>0.8099999999999999</v>
       </c>
       <c r="F253" t="n">
-        <v>0.00177552</v>
+        <v>1.77552</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5443,7 @@
         <v>0.84</v>
       </c>
       <c r="F254" t="n">
-        <v>0.0017976</v>
+        <v>1.7976</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5463,7 @@
         <v>0.87</v>
       </c>
       <c r="F255" t="n">
-        <v>0.001914</v>
+        <v>1.914</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5483,7 @@
         <v>0.87</v>
       </c>
       <c r="F256" t="n">
-        <v>0.001914</v>
+        <v>1.914</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5503,7 @@
         <v>0.9149999999999999</v>
       </c>
       <c r="F257" t="n">
-        <v>0.00194346</v>
+        <v>1.94346</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5523,7 @@
         <v>0.945</v>
       </c>
       <c r="F258" t="n">
-        <v>0.00206388</v>
+        <v>2.06388</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5543,7 @@
         <v>0.975</v>
       </c>
       <c r="F259" t="n">
-        <v>0.0021801</v>
+        <v>2.1801</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5563,7 @@
         <v>1.005</v>
       </c>
       <c r="F260" t="n">
-        <v>0.0021306</v>
+        <v>2.1306</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5583,7 @@
         <v>1.02</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0022644</v>
+        <v>2.2644</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5603,7 @@
         <v>1.05</v>
       </c>
       <c r="F262" t="n">
-        <v>0.0022974</v>
+        <v>2.2974</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5623,7 @@
         <v>1.095</v>
       </c>
       <c r="F263" t="n">
-        <v>0.00240024</v>
+        <v>2.40024</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5643,7 @@
         <v>1.125</v>
       </c>
       <c r="F264" t="n">
-        <v>0.002457</v>
+        <v>2.457</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5663,7 @@
         <v>1.14</v>
       </c>
       <c r="F265" t="n">
-        <v>0.00254904</v>
+        <v>2.54904</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>1.17</v>
       </c>
       <c r="F266" t="n">
-        <v>0.00252252</v>
+        <v>2.52252</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5703,7 @@
         <v>1.215</v>
       </c>
       <c r="F267" t="n">
-        <v>0.00263412</v>
+        <v>2.63412</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5723,7 @@
         <v>1.245</v>
       </c>
       <c r="F268" t="n">
-        <v>0.00270912</v>
+        <v>2.70912</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5743,7 @@
         <v>1.29</v>
       </c>
       <c r="F269" t="n">
-        <v>0.00280704</v>
+        <v>2.80704</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5763,7 @@
         <v>1.35</v>
       </c>
       <c r="F270" t="n">
-        <v>0.0029214</v>
+        <v>2.9214</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>1.365</v>
       </c>
       <c r="F271" t="n">
-        <v>0.00303576</v>
+        <v>3.03576</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>1.41</v>
       </c>
       <c r="F272" t="n">
-        <v>0.00311892</v>
+        <v>3.11892</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5823,7 @@
         <v>1.44</v>
       </c>
       <c r="F273" t="n">
-        <v>0.0032256</v>
+        <v>3.2256</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5843,7 @@
         <v>1.47</v>
       </c>
       <c r="F274" t="n">
-        <v>0.00299292</v>
+        <v>2.99292</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5863,7 @@
         <v>1.53</v>
       </c>
       <c r="F275" t="n">
-        <v>0.00277236</v>
+        <v>2.77236</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5883,7 @@
         <v>1.56</v>
       </c>
       <c r="F276" t="n">
-        <v>0.00284544</v>
+        <v>2.84544</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5903,7 @@
         <v>1.575</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0028854</v>
+        <v>2.8854</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5923,7 @@
         <v>1.62</v>
       </c>
       <c r="F278" t="n">
-        <v>0.00298728</v>
+        <v>2.98728</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5943,7 @@
         <v>1.65</v>
       </c>
       <c r="F279" t="n">
-        <v>0.0030624</v>
+        <v>3.0624</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5963,7 @@
         <v>1.68</v>
       </c>
       <c r="F280" t="n">
-        <v>0.00313824</v>
+        <v>3.13824</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5983,7 @@
         <v>1.725</v>
       </c>
       <c r="F281" t="n">
-        <v>0.0032361</v>
+        <v>3.2361</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6003,7 @@
         <v>1.815</v>
       </c>
       <c r="F282" t="n">
-        <v>0.00346302</v>
+        <v>3.46302</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6023,7 @@
         <v>1.83</v>
       </c>
       <c r="F283" t="n">
-        <v>0.0035136</v>
+        <v>3.5136</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6043,7 @@
         <v>1.86</v>
       </c>
       <c r="F284" t="n">
-        <v>0.00359352</v>
+        <v>3.59352</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6063,7 @@
         <v>1.89</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0036666</v>
+        <v>3.6666</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6083,7 @@
         <v>1.935</v>
       </c>
       <c r="F286" t="n">
-        <v>0.00377712</v>
+        <v>3.77712</v>
       </c>
     </row>
     <row r="287">
@@ -6103,7 +6103,7 @@
         <v>1.98</v>
       </c>
       <c r="F287" t="n">
-        <v>0.00388872</v>
+        <v>3.88872</v>
       </c>
     </row>
     <row r="288">
@@ -6123,7 +6123,7 @@
         <v>2.01</v>
       </c>
       <c r="F288" t="n">
-        <v>0.00396372</v>
+        <v>3.963719999999999</v>
       </c>
     </row>
     <row r="289">
@@ -6143,7 +6143,7 @@
         <v>2.025</v>
       </c>
       <c r="F289" t="n">
-        <v>0.0040176</v>
+        <v>4.0176</v>
       </c>
     </row>
     <row r="290">
@@ -6163,7 +6163,7 @@
         <v>2.055</v>
       </c>
       <c r="F290" t="n">
-        <v>0.00409356</v>
+        <v>4.09356</v>
       </c>
     </row>
     <row r="291">
@@ -6183,7 +6183,7 @@
         <v>2.085</v>
       </c>
       <c r="F291" t="n">
-        <v>0.004178339999999999</v>
+        <v>4.178339999999999</v>
       </c>
     </row>
     <row r="292">
@@ -6203,7 +6203,7 @@
         <v>2.115</v>
       </c>
       <c r="F292" t="n">
-        <v>0.00425538</v>
+        <v>4.25538</v>
       </c>
     </row>
     <row r="293">
@@ -6223,7 +6223,7 @@
         <v>2.13</v>
       </c>
       <c r="F293" t="n">
-        <v>0.00431112</v>
+        <v>4.31112</v>
       </c>
     </row>
     <row r="294">
@@ -6243,7 +6243,7 @@
         <v>2.16</v>
       </c>
       <c r="F294" t="n">
-        <v>0.00438048</v>
+        <v>4.38048</v>
       </c>
     </row>
     <row r="295">
@@ -6263,7 +6263,7 @@
         <v>2.205</v>
       </c>
       <c r="F295" t="n">
-        <v>0.00448938</v>
+        <v>4.489380000000001</v>
       </c>
     </row>
     <row r="296">
@@ -6283,7 +6283,7 @@
         <v>2.22</v>
       </c>
       <c r="F296" t="n">
-        <v>0.004528799999999999</v>
+        <v>4.528799999999999</v>
       </c>
     </row>
     <row r="297">
@@ -6303,7 +6303,7 @@
         <v>2.28</v>
       </c>
       <c r="F297" t="n">
-        <v>0.004614719999999999</v>
+        <v>4.614719999999999</v>
       </c>
     </row>
     <row r="298">
@@ -6323,7 +6323,7 @@
         <v>2.31</v>
       </c>
       <c r="F298" t="n">
-        <v>0.00473088</v>
+        <v>4.73088</v>
       </c>
     </row>
     <row r="299">
@@ -6343,7 +6343,7 @@
         <v>2.325</v>
       </c>
       <c r="F299" t="n">
-        <v>0.004770899999999999</v>
+        <v>4.770899999999999</v>
       </c>
     </row>
     <row r="300">
@@ -6363,7 +6363,7 @@
         <v>2.385</v>
       </c>
       <c r="F300" t="n">
-        <v>0.00485586</v>
+        <v>4.85586</v>
       </c>
     </row>
     <row r="301">
@@ -6383,7 +6383,7 @@
         <v>2.4</v>
       </c>
       <c r="F301" t="n">
-        <v>0.0049152</v>
+        <v>4.9152</v>
       </c>
     </row>
     <row r="302">
@@ -6403,7 +6403,7 @@
         <v>2.415</v>
       </c>
       <c r="F302" t="n">
-        <v>0.004994220000000001</v>
+        <v>4.99422</v>
       </c>
     </row>
     <row r="303">
@@ -6423,7 +6423,7 @@
         <v>2.46</v>
       </c>
       <c r="F303" t="n">
-        <v>0.00507744</v>
+        <v>5.07744</v>
       </c>
     </row>
     <row r="304">
@@ -6443,7 +6443,7 @@
         <v>2.49</v>
       </c>
       <c r="F304" t="n">
-        <v>0.00515928</v>
+        <v>5.15928</v>
       </c>
     </row>
     <row r="305">
@@ -6463,7 +6463,7 @@
         <v>2.505</v>
       </c>
       <c r="F305" t="n">
-        <v>0.0051603</v>
+        <v>5.160299999999999</v>
       </c>
     </row>
     <row r="306">
@@ -6483,7 +6483,7 @@
         <v>2.55</v>
       </c>
       <c r="F306" t="n">
-        <v>0.0052836</v>
+        <v>5.2836</v>
       </c>
     </row>
     <row r="307">
@@ -6503,7 +6503,7 @@
         <v>2.595</v>
       </c>
       <c r="F307" t="n">
-        <v>0.00540798</v>
+        <v>5.407979999999999</v>
       </c>
     </row>
     <row r="308">
@@ -6523,7 +6523,7 @@
         <v>2.64</v>
       </c>
       <c r="F308" t="n">
-        <v>0.00553344</v>
+        <v>5.53344</v>
       </c>
     </row>
     <row r="309">
@@ -6543,7 +6543,7 @@
         <v>2.67</v>
       </c>
       <c r="F309" t="n">
-        <v>0.005585639999999999</v>
+        <v>5.58564</v>
       </c>
     </row>
     <row r="310">
@@ -6563,7 +6563,7 @@
         <v>2.685</v>
       </c>
       <c r="F310" t="n">
-        <v>0.00560628</v>
+        <v>5.60628</v>
       </c>
     </row>
     <row r="311">
@@ -6583,7 +6583,7 @@
         <v>2.715</v>
       </c>
       <c r="F311" t="n">
-        <v>0.00566892</v>
+        <v>5.66892</v>
       </c>
     </row>
     <row r="312">
@@ -6603,7 +6603,7 @@
         <v>2.76</v>
       </c>
       <c r="F312" t="n">
-        <v>0.005751839999999999</v>
+        <v>5.75184</v>
       </c>
     </row>
     <row r="313">
@@ -6623,7 +6623,7 @@
         <v>2.79</v>
       </c>
       <c r="F313" t="n">
-        <v>0.005859</v>
+        <v>5.859</v>
       </c>
     </row>
     <row r="314">
@@ -6643,7 +6643,7 @@
         <v>2.805</v>
       </c>
       <c r="F314" t="n">
-        <v>0.00586806</v>
+        <v>5.86806</v>
       </c>
     </row>
     <row r="315">
@@ -6663,7 +6663,7 @@
         <v>2.85</v>
       </c>
       <c r="F315" t="n">
-        <v>0.005985000000000001</v>
+        <v>5.985</v>
       </c>
     </row>
     <row r="316">
@@ -6683,7 +6683,7 @@
         <v>2.88</v>
       </c>
       <c r="F316" t="n">
-        <v>0.006048</v>
+        <v>6.048</v>
       </c>
     </row>
     <row r="317">
@@ -6703,7 +6703,7 @@
         <v>2.91</v>
       </c>
       <c r="F317" t="n">
-        <v>0.00612264</v>
+        <v>6.122640000000001</v>
       </c>
     </row>
     <row r="318">
@@ -6723,7 +6723,7 @@
         <v>2.925</v>
       </c>
       <c r="F318" t="n">
-        <v>0.0061542</v>
+        <v>6.1542</v>
       </c>
     </row>
     <row r="319">
@@ -6743,7 +6743,7 @@
         <v>2.97</v>
       </c>
       <c r="F319" t="n">
-        <v>0.006296400000000001</v>
+        <v>6.2964</v>
       </c>
     </row>
     <row r="320">
@@ -6763,7 +6763,7 @@
         <v>2.985</v>
       </c>
       <c r="F320" t="n">
-        <v>0.00628044</v>
+        <v>6.28044</v>
       </c>
     </row>
     <row r="321">
@@ -6783,7 +6783,7 @@
         <v>3.015</v>
       </c>
       <c r="F321" t="n">
-        <v>0.00642798</v>
+        <v>6.42798</v>
       </c>
     </row>
     <row r="322">
@@ -6803,7 +6803,7 @@
         <v>3.045</v>
       </c>
       <c r="F322" t="n">
-        <v>0.00644322</v>
+        <v>6.44322</v>
       </c>
     </row>
     <row r="323">
@@ -6823,7 +6823,7 @@
         <v>3.09</v>
       </c>
       <c r="F323" t="n">
-        <v>0.00650136</v>
+        <v>6.50136</v>
       </c>
     </row>
     <row r="324">
@@ -6843,7 +6843,7 @@
         <v>3.105</v>
       </c>
       <c r="F324" t="n">
-        <v>0.0065826</v>
+        <v>6.5826</v>
       </c>
     </row>
     <row r="325">
@@ -6863,7 +6863,7 @@
         <v>3.135</v>
       </c>
       <c r="F325" t="n">
-        <v>0.00663366</v>
+        <v>6.633660000000001</v>
       </c>
     </row>
     <row r="326">
@@ -6883,7 +6883,7 @@
         <v>3.165</v>
       </c>
       <c r="F326" t="n">
-        <v>0.00669714</v>
+        <v>6.69714</v>
       </c>
     </row>
     <row r="327">
@@ -6903,7 +6903,7 @@
         <v>3.18</v>
       </c>
       <c r="F327" t="n">
-        <v>0.006767039999999999</v>
+        <v>6.76704</v>
       </c>
     </row>
     <row r="328">
@@ -6923,7 +6923,7 @@
         <v>3.21</v>
       </c>
       <c r="F328" t="n">
-        <v>0.00684372</v>
+        <v>6.84372</v>
       </c>
     </row>
     <row r="329">
@@ -6943,7 +6943,7 @@
         <v>3.24</v>
       </c>
       <c r="F329" t="n">
-        <v>0.0069336</v>
+        <v>6.9336</v>
       </c>
     </row>
     <row r="330">
@@ -6963,7 +6963,7 @@
         <v>3.27</v>
       </c>
       <c r="F330" t="n">
-        <v>0.00689316</v>
+        <v>6.89316</v>
       </c>
     </row>
     <row r="331">
@@ -6983,7 +6983,7 @@
         <v>3.285</v>
       </c>
       <c r="F331" t="n">
-        <v>0.006898499999999999</v>
+        <v>6.898499999999999</v>
       </c>
     </row>
     <row r="332">
@@ -7003,7 +7003,7 @@
         <v>3.3</v>
       </c>
       <c r="F332" t="n">
-        <v>0.0070224</v>
+        <v>7.0224</v>
       </c>
     </row>
     <row r="333">
@@ -7023,7 +7023,7 @@
         <v>3.345</v>
       </c>
       <c r="F333" t="n">
-        <v>0.0070914</v>
+        <v>7.0914</v>
       </c>
     </row>
     <row r="334">
@@ -7043,7 +7043,7 @@
         <v>3.375</v>
       </c>
       <c r="F334" t="n">
-        <v>0.0072225</v>
+        <v>7.2225</v>
       </c>
     </row>
     <row r="335">
@@ -7063,7 +7063,7 @@
         <v>3.39</v>
       </c>
       <c r="F335" t="n">
-        <v>0.00721392</v>
+        <v>7.213920000000001</v>
       </c>
     </row>
     <row r="336">
@@ -7083,7 +7083,7 @@
         <v>3.405</v>
       </c>
       <c r="F336" t="n">
-        <v>0.00724584</v>
+        <v>7.24584</v>
       </c>
     </row>
     <row r="337">
@@ -7103,7 +7103,7 @@
         <v>3.45</v>
       </c>
       <c r="F337" t="n">
-        <v>0.007314</v>
+        <v>7.314</v>
       </c>
     </row>
     <row r="338">
@@ -7123,7 +7123,7 @@
         <v>3.465</v>
       </c>
       <c r="F338" t="n">
-        <v>0.00735966</v>
+        <v>7.35966</v>
       </c>
     </row>
     <row r="339">
@@ -7143,7 +7143,7 @@
         <v>3.51</v>
       </c>
       <c r="F339" t="n">
-        <v>0.0074412</v>
+        <v>7.4412</v>
       </c>
     </row>
     <row r="340">
@@ -7163,7 +7163,7 @@
         <v>3.525</v>
       </c>
       <c r="F340" t="n">
-        <v>0.0075153</v>
+        <v>7.5153</v>
       </c>
     </row>
     <row r="341">
@@ -7183,7 +7183,7 @@
         <v>3.555</v>
       </c>
       <c r="F341" t="n">
-        <v>0.00747972</v>
+        <v>7.479719999999999</v>
       </c>
     </row>
     <row r="342">
@@ -7203,7 +7203,7 @@
         <v>3.57</v>
       </c>
       <c r="F342" t="n">
-        <v>0.0075684</v>
+        <v>7.5684</v>
       </c>
     </row>
     <row r="343">
@@ -7223,7 +7223,7 @@
         <v>3.615</v>
       </c>
       <c r="F343" t="n">
-        <v>0.00770718</v>
+        <v>7.70718</v>
       </c>
     </row>
     <row r="344">
@@ -7243,7 +7243,7 @@
         <v>3.63</v>
       </c>
       <c r="F344" t="n">
-        <v>0.007681080000000001</v>
+        <v>7.681080000000001</v>
       </c>
     </row>
     <row r="345">
@@ -7263,7 +7263,7 @@
         <v>3.66</v>
       </c>
       <c r="F345" t="n">
-        <v>0.00778848</v>
+        <v>7.788480000000001</v>
       </c>
     </row>
     <row r="346">
@@ -7283,7 +7283,7 @@
         <v>3.675</v>
       </c>
       <c r="F346" t="n">
-        <v>0.007791</v>
+        <v>7.791</v>
       </c>
     </row>
     <row r="347">
@@ -7303,7 +7303,7 @@
         <v>3.705</v>
       </c>
       <c r="F347" t="n">
-        <v>0.007899060000000001</v>
+        <v>7.899060000000001</v>
       </c>
     </row>
     <row r="348">
@@ -7323,7 +7323,7 @@
         <v>3.75</v>
       </c>
       <c r="F348" t="n">
-        <v>0.00801</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="349">
@@ -7343,7 +7343,7 @@
         <v>3.765</v>
       </c>
       <c r="F349" t="n">
-        <v>0.00807216</v>
+        <v>8.07216</v>
       </c>
     </row>
     <row r="350">
@@ -7363,7 +7363,7 @@
         <v>3.765</v>
       </c>
       <c r="F350" t="n">
-        <v>0.00814746</v>
+        <v>8.147460000000001</v>
       </c>
     </row>
     <row r="351">
@@ -7383,7 +7383,7 @@
         <v>3.81</v>
       </c>
       <c r="F351" t="n">
-        <v>0.008061960000000002</v>
+        <v>8.061960000000001</v>
       </c>
     </row>
     <row r="352">
@@ -7403,7 +7403,7 @@
         <v>3.855</v>
       </c>
       <c r="F352" t="n">
-        <v>0.008049240000000001</v>
+        <v>8.049240000000001</v>
       </c>
     </row>
     <row r="353">
@@ -7423,7 +7423,7 @@
         <v>3.855</v>
       </c>
       <c r="F353" t="n">
-        <v>0.008265119999999999</v>
+        <v>8.26512</v>
       </c>
     </row>
     <row r="354">
@@ -7443,7 +7443,7 @@
         <v>3.885</v>
       </c>
       <c r="F354" t="n">
-        <v>0.008376060000000001</v>
+        <v>8.376060000000001</v>
       </c>
     </row>
     <row r="355">
@@ -7463,7 +7463,7 @@
         <v>3.93</v>
       </c>
       <c r="F355" t="n">
-        <v>0.008221560000000001</v>
+        <v>8.22156</v>
       </c>
     </row>
     <row r="356">
@@ -7483,7 +7483,7 @@
         <v>3.945</v>
       </c>
       <c r="F356" t="n">
-        <v>0.00837918</v>
+        <v>8.37918</v>
       </c>
     </row>
     <row r="357">
@@ -7503,7 +7503,7 @@
         <v>3.96</v>
       </c>
       <c r="F357" t="n">
-        <v>0.008521920000000001</v>
+        <v>8.52192</v>
       </c>
     </row>
     <row r="358">
@@ -7523,7 +7523,7 @@
         <v>3.99</v>
       </c>
       <c r="F358" t="n">
-        <v>0.008506679999999999</v>
+        <v>8.506679999999999</v>
       </c>
     </row>
     <row r="359">
@@ -7543,7 +7543,7 @@
         <v>4.035</v>
       </c>
       <c r="F359" t="n">
-        <v>0.008699460000000001</v>
+        <v>8.69946</v>
       </c>
     </row>
     <row r="360">
@@ -7563,7 +7563,7 @@
         <v>4.05</v>
       </c>
       <c r="F360" t="n">
-        <v>0.0087156</v>
+        <v>8.7156</v>
       </c>
     </row>
     <row r="361">
@@ -7583,7 +7583,7 @@
         <v>4.065</v>
       </c>
       <c r="F361" t="n">
-        <v>0.00866658</v>
+        <v>8.66658</v>
       </c>
     </row>
     <row r="362">
@@ -7603,7 +7603,7 @@
         <v>4.109999999999999</v>
       </c>
       <c r="F362" t="n">
-        <v>0.00872964</v>
+        <v>8.72964</v>
       </c>
     </row>
     <row r="363">
@@ -7623,7 +7623,7 @@
         <v>4.125</v>
       </c>
       <c r="F363" t="n">
-        <v>0.0089265</v>
+        <v>8.926500000000001</v>
       </c>
     </row>
     <row r="364">
@@ -7643,7 +7643,7 @@
         <v>4.14</v>
       </c>
       <c r="F364" t="n">
-        <v>0.00889272</v>
+        <v>8.892720000000001</v>
       </c>
     </row>
     <row r="365">
@@ -7663,7 +7663,7 @@
         <v>4.17</v>
       </c>
       <c r="F365" t="n">
-        <v>0.009007200000000002</v>
+        <v>9.007200000000001</v>
       </c>
     </row>
     <row r="366">
@@ -7683,7 +7683,7 @@
         <v>4.215</v>
       </c>
       <c r="F366" t="n">
-        <v>0.008952659999999999</v>
+        <v>8.95266</v>
       </c>
     </row>
     <row r="367">
@@ -7703,7 +7703,7 @@
         <v>4.245</v>
       </c>
       <c r="F367" t="n">
-        <v>0.009101280000000002</v>
+        <v>9.101280000000001</v>
       </c>
     </row>
     <row r="368">
@@ -7723,7 +7723,7 @@
         <v>4.26</v>
       </c>
       <c r="F368" t="n">
-        <v>0.00916752</v>
+        <v>9.16752</v>
       </c>
     </row>
     <row r="369">
@@ -7743,7 +7743,7 @@
         <v>4.29</v>
       </c>
       <c r="F369" t="n">
-        <v>0.009094800000000002</v>
+        <v>9.094800000000001</v>
       </c>
     </row>
     <row r="370">
@@ -7763,7 +7763,7 @@
         <v>4.335</v>
       </c>
       <c r="F370" t="n">
-        <v>0.00925956</v>
+        <v>9.25956</v>
       </c>
     </row>
     <row r="371">
@@ -7783,7 +7783,7 @@
         <v>4.35</v>
       </c>
       <c r="F371" t="n">
-        <v>0.0091524</v>
+        <v>9.1524</v>
       </c>
     </row>
     <row r="372">
@@ -7803,7 +7803,7 @@
         <v>4.38</v>
       </c>
       <c r="F372" t="n">
-        <v>0.009408240000000002</v>
+        <v>9.408240000000001</v>
       </c>
     </row>
     <row r="373">
@@ -7823,7 +7823,7 @@
         <v>4.395</v>
       </c>
       <c r="F373" t="n">
-        <v>0.0093174</v>
+        <v>9.317399999999999</v>
       </c>
     </row>
     <row r="374">
@@ -7843,7 +7843,7 @@
         <v>4.44</v>
       </c>
       <c r="F374" t="n">
-        <v>0.00944832</v>
+        <v>9.448319999999999</v>
       </c>
     </row>
     <row r="375">
@@ -7863,7 +7863,7 @@
         <v>4.44</v>
       </c>
       <c r="F375" t="n">
-        <v>0.00953712</v>
+        <v>9.53712</v>
       </c>
     </row>
     <row r="376">
@@ -7883,7 +7883,7 @@
         <v>4.484999999999999</v>
       </c>
       <c r="F376" t="n">
-        <v>0.00957996</v>
+        <v>9.57996</v>
       </c>
     </row>
     <row r="377">
@@ -7903,7 +7903,7 @@
         <v>4.515</v>
       </c>
       <c r="F377" t="n">
-        <v>0.009698219999999999</v>
+        <v>9.698219999999999</v>
       </c>
     </row>
     <row r="378">
@@ -7923,7 +7923,7 @@
         <v>4.545</v>
       </c>
       <c r="F378" t="n">
-        <v>0.009780840000000001</v>
+        <v>9.780840000000001</v>
       </c>
     </row>
     <row r="379">
@@ -7943,7 +7943,7 @@
         <v>4.59</v>
       </c>
       <c r="F379" t="n">
-        <v>0.009767520000000002</v>
+        <v>9.767520000000001</v>
       </c>
     </row>
     <row r="380">
@@ -7963,7 +7963,7 @@
         <v>4.62</v>
       </c>
       <c r="F380" t="n">
-        <v>0.00972048</v>
+        <v>9.72048</v>
       </c>
     </row>
     <row r="381">
@@ -7983,7 +7983,7 @@
         <v>4.649999999999999</v>
       </c>
       <c r="F381" t="n">
-        <v>0.0099696</v>
+        <v>9.9696</v>
       </c>
     </row>
     <row r="382">
@@ -8003,7 +8003,7 @@
         <v>4.694999999999999</v>
       </c>
       <c r="F382" t="n">
-        <v>0.00999096</v>
+        <v>9.990959999999999</v>
       </c>
     </row>
     <row r="383">
@@ -8023,7 +8023,7 @@
         <v>4.725</v>
       </c>
       <c r="F383" t="n">
-        <v>0.0101493</v>
+        <v>10.1493</v>
       </c>
     </row>
     <row r="384">
@@ -8043,7 +8043,7 @@
         <v>4.755</v>
       </c>
       <c r="F384" t="n">
-        <v>0.0101757</v>
+        <v>10.1757</v>
       </c>
     </row>
     <row r="385">
@@ -8063,7 +8063,7 @@
         <v>4.815</v>
       </c>
       <c r="F385" t="n">
-        <v>0.01018854</v>
+        <v>10.18854</v>
       </c>
     </row>
     <row r="386">
@@ -8083,7 +8083,7 @@
         <v>4.859999999999999</v>
       </c>
       <c r="F386" t="n">
-        <v>0.01055592</v>
+        <v>10.55592</v>
       </c>
     </row>
     <row r="387">
@@ -8103,7 +8103,7 @@
         <v>4.89</v>
       </c>
       <c r="F387" t="n">
-        <v>0.01042548</v>
+        <v>10.42548</v>
       </c>
     </row>
     <row r="388">
@@ -8123,7 +8123,7 @@
         <v>4.935</v>
       </c>
       <c r="F388" t="n">
-        <v>0.01034376</v>
+        <v>10.34376</v>
       </c>
     </row>
     <row r="389">
@@ -8143,7 +8143,7 @@
         <v>4.98</v>
       </c>
       <c r="F389" t="n">
-        <v>0.01063728</v>
+        <v>10.63728</v>
       </c>
     </row>
     <row r="390">
@@ -8163,7 +8163,7 @@
         <v>5.024999999999999</v>
       </c>
       <c r="F390" t="n">
-        <v>0.0109143</v>
+        <v>10.9143</v>
       </c>
     </row>
     <row r="391">
@@ -8183,7 +8183,7 @@
         <v>5.1</v>
       </c>
       <c r="F391" t="n">
-        <v>0.0108732</v>
+        <v>10.8732</v>
       </c>
     </row>
     <row r="392">
@@ -8203,7 +8203,7 @@
         <v>5.13</v>
       </c>
       <c r="F392" t="n">
-        <v>0.01085508</v>
+        <v>10.85508</v>
       </c>
     </row>
     <row r="393">
@@ -8223,7 +8223,7 @@
         <v>5.175</v>
       </c>
       <c r="F393" t="n">
-        <v>0.0111366</v>
+        <v>11.1366</v>
       </c>
     </row>
     <row r="394">
@@ -8243,7 +8243,7 @@
         <v>5.22</v>
       </c>
       <c r="F394" t="n">
-        <v>0.0111708</v>
+        <v>11.1708</v>
       </c>
     </row>
     <row r="395">
@@ -8263,7 +8263,7 @@
         <v>5.265</v>
       </c>
       <c r="F395" t="n">
-        <v>0.01124604</v>
+        <v>11.24604</v>
       </c>
     </row>
     <row r="396">
@@ -8283,7 +8283,7 @@
         <v>5.325</v>
       </c>
       <c r="F396" t="n">
-        <v>0.0115872</v>
+        <v>11.5872</v>
       </c>
     </row>
     <row r="397">
@@ -8303,7 +8303,7 @@
         <v>5.385</v>
       </c>
       <c r="F397" t="n">
-        <v>0.01156698</v>
+        <v>11.56698</v>
       </c>
     </row>
     <row r="398">
@@ -8323,7 +8323,7 @@
         <v>5.444999999999999</v>
       </c>
       <c r="F398" t="n">
-        <v>0.0114345</v>
+        <v>11.4345</v>
       </c>
     </row>
     <row r="399">
@@ -8343,7 +8343,7 @@
         <v>5.49</v>
       </c>
       <c r="F399" t="n">
-        <v>0.0116388</v>
+        <v>11.6388</v>
       </c>
     </row>
     <row r="400">
@@ -8363,7 +8363,7 @@
         <v>5.55</v>
       </c>
       <c r="F400" t="n">
-        <v>0.011877</v>
+        <v>11.877</v>
       </c>
     </row>
     <row r="401">
@@ -8383,7 +8383,7 @@
         <v>5.595</v>
       </c>
       <c r="F401" t="n">
-        <v>0.0119733</v>
+        <v>11.9733</v>
       </c>
     </row>
     <row r="402">
@@ -8403,7 +8403,7 @@
         <v>5.67</v>
       </c>
       <c r="F402" t="n">
-        <v>0.0121338</v>
+        <v>12.1338</v>
       </c>
     </row>
     <row r="403">
@@ -8423,7 +8423,7 @@
         <v>5.73</v>
       </c>
       <c r="F403" t="n">
-        <v>0.01221636</v>
+        <v>12.21636</v>
       </c>
     </row>
     <row r="404">
@@ -8443,7 +8443,7 @@
         <v>5.79</v>
       </c>
       <c r="F404" t="n">
-        <v>0.0123906</v>
+        <v>12.3906</v>
       </c>
     </row>
     <row r="405">
@@ -8463,7 +8463,7 @@
         <v>5.865</v>
       </c>
       <c r="F405" t="n">
-        <v>0.01236342</v>
+        <v>12.36342</v>
       </c>
     </row>
     <row r="406">
@@ -8483,7 +8483,7 @@
         <v>5.925</v>
       </c>
       <c r="F406" t="n">
-        <v>0.0127032</v>
+        <v>12.7032</v>
       </c>
     </row>
     <row r="407">
@@ -8503,7 +8503,7 @@
         <v>5.984999999999999</v>
       </c>
       <c r="F407" t="n">
-        <v>0.0126882</v>
+        <v>12.6882</v>
       </c>
     </row>
     <row r="408">
@@ -8523,7 +8523,7 @@
         <v>6.045</v>
       </c>
       <c r="F408" t="n">
-        <v>0.01288794</v>
+        <v>12.88794</v>
       </c>
     </row>
     <row r="409">
@@ -8543,7 +8543,7 @@
         <v>6.09</v>
       </c>
       <c r="F409" t="n">
-        <v>0.0130326</v>
+        <v>13.0326</v>
       </c>
     </row>
     <row r="410">
@@ -8563,7 +8563,7 @@
         <v>6.165</v>
       </c>
       <c r="F410" t="n">
-        <v>0.0129465</v>
+        <v>12.9465</v>
       </c>
     </row>
     <row r="411">
@@ -8583,7 +8583,7 @@
         <v>6.27</v>
       </c>
       <c r="F411" t="n">
-        <v>0.01331748</v>
+        <v>13.31748</v>
       </c>
     </row>
     <row r="412">
@@ -8603,7 +8603,7 @@
         <v>6.315</v>
       </c>
       <c r="F412" t="n">
-        <v>0.01346358</v>
+        <v>13.46358</v>
       </c>
     </row>
     <row r="413">
@@ -8623,7 +8623,7 @@
         <v>6.375</v>
       </c>
       <c r="F413" t="n">
-        <v>0.0134385</v>
+        <v>13.4385</v>
       </c>
     </row>
     <row r="414">
@@ -8643,7 +8643,7 @@
         <v>6.45</v>
       </c>
       <c r="F414" t="n">
-        <v>0.0138546</v>
+        <v>13.8546</v>
       </c>
     </row>
     <row r="415">
@@ -8663,7 +8663,7 @@
         <v>6.524999999999999</v>
       </c>
       <c r="F415" t="n">
-        <v>0.0140157</v>
+        <v>14.0157</v>
       </c>
     </row>
     <row r="416">
@@ -8683,7 +8683,7 @@
         <v>6.6</v>
       </c>
       <c r="F416" t="n">
-        <v>0.0142824</v>
+        <v>14.2824</v>
       </c>
     </row>
     <row r="417">
@@ -8703,7 +8703,7 @@
         <v>6.675</v>
       </c>
       <c r="F417" t="n">
-        <v>0.0141777</v>
+        <v>14.1777</v>
       </c>
     </row>
     <row r="418">
@@ -8723,7 +8723,7 @@
         <v>6.734999999999999</v>
       </c>
       <c r="F418" t="n">
-        <v>0.01443984</v>
+        <v>14.43984</v>
       </c>
     </row>
     <row r="419">
@@ -8743,7 +8743,7 @@
         <v>6.825</v>
       </c>
       <c r="F419" t="n">
-        <v>0.0146055</v>
+        <v>14.6055</v>
       </c>
     </row>
     <row r="420">
@@ -8763,7 +8763,7 @@
         <v>6.885</v>
       </c>
       <c r="F420" t="n">
-        <v>0.0147339</v>
+        <v>14.7339</v>
       </c>
     </row>
     <row r="421">
@@ -8783,7 +8783,7 @@
         <v>6.96</v>
       </c>
       <c r="F421" t="n">
-        <v>0.01469952</v>
+        <v>14.69952</v>
       </c>
     </row>
     <row r="422">
@@ -8803,7 +8803,7 @@
         <v>7.035</v>
       </c>
       <c r="F422" t="n">
-        <v>0.01499862</v>
+        <v>14.99862</v>
       </c>
     </row>
     <row r="423">
@@ -8823,7 +8823,7 @@
         <v>7.125</v>
       </c>
       <c r="F423" t="n">
-        <v>0.0151905</v>
+        <v>15.1905</v>
       </c>
     </row>
     <row r="424">
@@ -8843,7 +8843,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="F424" t="n">
-        <v>0.0153504</v>
+        <v>15.3504</v>
       </c>
     </row>
     <row r="425">
@@ -8863,7 +8863,7 @@
         <v>7.274999999999999</v>
       </c>
       <c r="F425" t="n">
-        <v>0.0155394</v>
+        <v>15.5394</v>
       </c>
     </row>
     <row r="426">
@@ -8883,7 +8883,7 @@
         <v>7.364999999999999</v>
       </c>
       <c r="F426" t="n">
-        <v>0.01570218</v>
+        <v>15.70218</v>
       </c>
     </row>
     <row r="427">
@@ -8903,7 +8903,7 @@
         <v>7.44</v>
       </c>
       <c r="F427" t="n">
-        <v>0.01580256</v>
+        <v>15.80256</v>
       </c>
     </row>
     <row r="428">
@@ -8923,7 +8923,7 @@
         <v>7.529999999999999</v>
       </c>
       <c r="F428" t="n">
-        <v>0.01602384</v>
+        <v>16.02384</v>
       </c>
     </row>
     <row r="429">
@@ -8943,7 +8943,7 @@
         <v>7.62</v>
       </c>
       <c r="F429" t="n">
-        <v>0.01606296</v>
+        <v>16.06296</v>
       </c>
     </row>
     <row r="430">
@@ -8963,7 +8963,7 @@
         <v>7.71</v>
       </c>
       <c r="F430" t="n">
-        <v>0.01625268</v>
+        <v>16.25268</v>
       </c>
     </row>
     <row r="431">
@@ -8983,7 +8983,7 @@
         <v>7.785</v>
       </c>
       <c r="F431" t="n">
-        <v>0.01637964</v>
+        <v>16.37964</v>
       </c>
     </row>
     <row r="432">
@@ -9003,7 +9003,7 @@
         <v>7.859999999999999</v>
       </c>
       <c r="F432" t="n">
-        <v>0.01669464</v>
+        <v>16.69464</v>
       </c>
     </row>
     <row r="433">
@@ -9023,7 +9023,7 @@
         <v>7.949999999999999</v>
       </c>
       <c r="F433" t="n">
-        <v>0.0167904</v>
+        <v>16.7904</v>
       </c>
     </row>
     <row r="434">
@@ -9043,7 +9043,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="F434" t="n">
-        <v>0.01701264</v>
+        <v>17.01264</v>
       </c>
     </row>
     <row r="435">
@@ -9063,7 +9063,7 @@
         <v>8.145</v>
       </c>
       <c r="F435" t="n">
-        <v>0.01703934</v>
+        <v>17.03934</v>
       </c>
     </row>
     <row r="436">
@@ -9083,7 +9083,7 @@
         <v>8.219999999999999</v>
       </c>
       <c r="F436" t="n">
-        <v>0.017262</v>
+        <v>17.262</v>
       </c>
     </row>
     <row r="437">
@@ -9103,7 +9103,7 @@
         <v>8.295</v>
       </c>
       <c r="F437" t="n">
-        <v>0.01768494</v>
+        <v>17.68494</v>
       </c>
     </row>
     <row r="438">
@@ -9123,7 +9123,7 @@
         <v>8.385</v>
       </c>
       <c r="F438" t="n">
-        <v>0.01764204</v>
+        <v>17.64204</v>
       </c>
     </row>
     <row r="439">
@@ -9143,7 +9143,7 @@
         <v>8.49</v>
       </c>
       <c r="F439" t="n">
-        <v>0.01786296</v>
+        <v>17.86296</v>
       </c>
     </row>
     <row r="440">
@@ -9163,7 +9163,7 @@
         <v>8.58</v>
       </c>
       <c r="F440" t="n">
-        <v>0.01791504</v>
+        <v>17.91504</v>
       </c>
     </row>
     <row r="441">
@@ -9183,7 +9183,7 @@
         <v>8.67</v>
       </c>
       <c r="F441" t="n">
-        <v>0.01806828</v>
+        <v>18.06828</v>
       </c>
     </row>
     <row r="442">
@@ -9203,7 +9203,7 @@
         <v>8.775</v>
       </c>
       <c r="F442" t="n">
-        <v>0.0181818</v>
+        <v>18.1818</v>
       </c>
     </row>
     <row r="443">
@@ -9223,7 +9223,7 @@
         <v>8.85</v>
       </c>
       <c r="F443" t="n">
-        <v>0.0181956</v>
+        <v>18.1956</v>
       </c>
     </row>
     <row r="444">
@@ -9243,7 +9243,7 @@
         <v>8.955</v>
       </c>
       <c r="F444" t="n">
-        <v>0.0180891</v>
+        <v>18.0891</v>
       </c>
     </row>
     <row r="445">
@@ -9263,7 +9263,7 @@
         <v>9.06</v>
       </c>
       <c r="F445" t="n">
-        <v>0.01797504</v>
+        <v>17.97504</v>
       </c>
     </row>
     <row r="446">
@@ -9283,7 +9283,7 @@
         <v>9.135</v>
       </c>
       <c r="F446" t="n">
-        <v>0.01816038</v>
+        <v>18.16038</v>
       </c>
     </row>
     <row r="447">
@@ -9303,7 +9303,7 @@
         <v>9.24</v>
       </c>
       <c r="F447" t="n">
-        <v>0.01840608</v>
+        <v>18.40608</v>
       </c>
     </row>
     <row r="448">
@@ -9323,7 +9323,7 @@
         <v>9.344999999999999</v>
       </c>
       <c r="F448" t="n">
-        <v>0.01865262</v>
+        <v>18.65262</v>
       </c>
     </row>
     <row r="449">
@@ -9343,7 +9343,7 @@
         <v>9.435</v>
       </c>
       <c r="F449" t="n">
-        <v>0.01890774</v>
+        <v>18.90774</v>
       </c>
     </row>
     <row r="450">
@@ -9363,7 +9363,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="F450" t="n">
-        <v>0.01915632</v>
+        <v>19.15632</v>
       </c>
     </row>
     <row r="451">
@@ -9383,7 +9383,7 @@
         <v>9.629999999999999</v>
       </c>
       <c r="F451" t="n">
-        <v>0.01937556</v>
+        <v>19.37556</v>
       </c>
     </row>
     <row r="452">
@@ -9403,7 +9403,7 @@
         <v>9.719999999999999</v>
       </c>
       <c r="F452" t="n">
-        <v>0.01959552</v>
+        <v>19.59552</v>
       </c>
     </row>
     <row r="453">
@@ -9423,7 +9423,7 @@
         <v>9.824999999999999</v>
       </c>
       <c r="F453" t="n">
-        <v>0.0198858</v>
+        <v>19.8858</v>
       </c>
     </row>
     <row r="454">
@@ -9443,7 +9443,7 @@
         <v>9.914999999999999</v>
       </c>
       <c r="F454" t="n">
-        <v>0.02010762</v>
+        <v>20.10762</v>
       </c>
     </row>
     <row r="455">
@@ -9463,7 +9463,7 @@
         <v>9.99</v>
       </c>
       <c r="F455" t="n">
-        <v>0.02029968</v>
+        <v>20.29968</v>
       </c>
     </row>
     <row r="456">
@@ -9483,7 +9483,7 @@
         <v>10.095</v>
       </c>
       <c r="F456" t="n">
-        <v>0.02051304</v>
+        <v>20.51304</v>
       </c>
     </row>
     <row r="457">
@@ -9503,7 +9503,7 @@
         <v>10.2</v>
       </c>
       <c r="F457" t="n">
-        <v>0.0207672</v>
+        <v>20.7672</v>
       </c>
     </row>
     <row r="458">
@@ -9523,7 +9523,7 @@
         <v>10.26</v>
       </c>
       <c r="F458" t="n">
-        <v>0.0209304</v>
+        <v>20.9304</v>
       </c>
     </row>
     <row r="459">
@@ -9543,7 +9543,7 @@
         <v>10.365</v>
       </c>
       <c r="F459" t="n">
-        <v>0.02118606</v>
+        <v>21.18606</v>
       </c>
     </row>
     <row r="460">
@@ -9563,7 +9563,7 @@
         <v>10.455</v>
       </c>
       <c r="F460" t="n">
-        <v>0.02137002</v>
+        <v>21.37002</v>
       </c>
     </row>
     <row r="461">
@@ -9583,7 +9583,7 @@
         <v>10.545</v>
       </c>
       <c r="F461" t="n">
-        <v>0.02159616</v>
+        <v>21.59616</v>
       </c>
     </row>
     <row r="462">
@@ -9603,7 +9603,7 @@
         <v>10.62</v>
       </c>
       <c r="F462" t="n">
-        <v>0.02179224</v>
+        <v>21.79224</v>
       </c>
     </row>
     <row r="463">
@@ -9623,7 +9623,7 @@
         <v>10.725</v>
       </c>
       <c r="F463" t="n">
-        <v>0.0220077</v>
+        <v>22.0077</v>
       </c>
     </row>
     <row r="464">
@@ -9643,7 +9643,7 @@
         <v>10.815</v>
       </c>
       <c r="F464" t="n">
-        <v>0.02223564</v>
+        <v>22.23564</v>
       </c>
     </row>
     <row r="465">
@@ -9663,7 +9663,7 @@
         <v>10.905</v>
       </c>
       <c r="F465" t="n">
-        <v>0.0224643</v>
+        <v>22.4643</v>
       </c>
     </row>
     <row r="466">
@@ -9683,7 +9683,7 @@
         <v>11.01</v>
       </c>
       <c r="F466" t="n">
-        <v>0.02272464</v>
+        <v>22.72464</v>
       </c>
     </row>
     <row r="467">
@@ -9703,7 +9703,7 @@
         <v>11.085</v>
       </c>
       <c r="F467" t="n">
-        <v>0.02287944</v>
+        <v>22.87944</v>
       </c>
     </row>
     <row r="468">
@@ -9723,7 +9723,7 @@
         <v>11.19</v>
       </c>
       <c r="F468" t="n">
-        <v>0.02314092</v>
+        <v>23.14092</v>
       </c>
     </row>
     <row r="469">
@@ -9743,7 +9743,7 @@
         <v>11.295</v>
       </c>
       <c r="F469" t="n">
-        <v>0.02340324</v>
+        <v>23.40324</v>
       </c>
     </row>
     <row r="470">
@@ -9763,7 +9763,7 @@
         <v>11.37</v>
       </c>
       <c r="F470" t="n">
-        <v>0.02360412</v>
+        <v>23.60412</v>
       </c>
     </row>
     <row r="471">
@@ -9783,7 +9783,7 @@
         <v>11.46</v>
       </c>
       <c r="F471" t="n">
-        <v>0.0238368</v>
+        <v>23.8368</v>
       </c>
     </row>
     <row r="472">
@@ -9803,7 +9803,7 @@
         <v>11.565</v>
       </c>
       <c r="F472" t="n">
-        <v>0.02410146</v>
+        <v>24.10146</v>
       </c>
     </row>
     <row r="473">
@@ -9823,7 +9823,7 @@
         <v>11.745</v>
       </c>
       <c r="F473" t="n">
-        <v>0.0246645</v>
+        <v>24.6645</v>
       </c>
     </row>
     <row r="474">
@@ -9843,7 +9843,7 @@
         <v>11.85</v>
       </c>
       <c r="F474" t="n">
-        <v>0.0252642</v>
+        <v>25.2642</v>
       </c>
     </row>
     <row r="475">
@@ -9863,7 +9863,7 @@
         <v>11.94</v>
       </c>
       <c r="F475" t="n">
-        <v>0.02550384</v>
+        <v>25.50384</v>
       </c>
     </row>
     <row r="476">
@@ -9883,7 +9883,7 @@
         <v>12.03</v>
       </c>
       <c r="F476" t="n">
-        <v>0.02569608</v>
+        <v>25.69608</v>
       </c>
     </row>
     <row r="477">
@@ -9903,7 +9903,7 @@
         <v>12.12</v>
       </c>
       <c r="F477" t="n">
-        <v>0.02583984</v>
+        <v>25.83984</v>
       </c>
     </row>
     <row r="478">
@@ -9923,7 +9923,7 @@
         <v>12.195</v>
       </c>
       <c r="F478" t="n">
-        <v>0.02599974</v>
+        <v>25.99974</v>
       </c>
     </row>
     <row r="479">
@@ -9943,7 +9943,7 @@
         <v>12.285</v>
       </c>
       <c r="F479" t="n">
-        <v>0.02619162</v>
+        <v>26.19162</v>
       </c>
     </row>
     <row r="480">
@@ -9963,7 +9963,7 @@
         <v>12.36</v>
       </c>
       <c r="F480" t="n">
-        <v>0.02640096</v>
+        <v>26.40096</v>
       </c>
     </row>
     <row r="481">
@@ -9983,7 +9983,7 @@
         <v>12.45</v>
       </c>
       <c r="F481" t="n">
-        <v>0.0265434</v>
+        <v>26.5434</v>
       </c>
     </row>
     <row r="482">
@@ -10003,7 +10003,7 @@
         <v>12.51</v>
       </c>
       <c r="F482" t="n">
-        <v>0.02667132</v>
+        <v>26.67132</v>
       </c>
     </row>
     <row r="483">
@@ -10023,7 +10023,7 @@
         <v>12.6</v>
       </c>
       <c r="F483" t="n">
-        <v>0.0268632</v>
+        <v>26.8632</v>
       </c>
     </row>
     <row r="484">
@@ -10043,7 +10043,7 @@
         <v>12.675</v>
       </c>
       <c r="F484" t="n">
-        <v>0.0270738</v>
+        <v>27.0738</v>
       </c>
     </row>
     <row r="485">
@@ -10063,7 +10063,7 @@
         <v>12.765</v>
       </c>
       <c r="F485" t="n">
-        <v>0.02711286</v>
+        <v>27.11286</v>
       </c>
     </row>
     <row r="486">
@@ -10083,7 +10083,7 @@
         <v>12.825</v>
       </c>
       <c r="F486" t="n">
-        <v>0.0272916</v>
+        <v>27.2916</v>
       </c>
     </row>
     <row r="487">
@@ -10103,7 +10103,7 @@
         <v>12.9</v>
       </c>
       <c r="F487" t="n">
-        <v>0.0275028</v>
+        <v>27.5028</v>
       </c>
     </row>
     <row r="488">
@@ -10123,7 +10123,7 @@
         <v>12.975</v>
       </c>
       <c r="F488" t="n">
-        <v>0.0276108</v>
+        <v>27.6108</v>
       </c>
     </row>
     <row r="489">
@@ -10143,7 +10143,7 @@
         <v>13.05</v>
       </c>
       <c r="F489" t="n">
-        <v>0.0278226</v>
+        <v>27.8226</v>
       </c>
     </row>
     <row r="490">
@@ -10163,7 +10163,7 @@
         <v>13.125</v>
       </c>
       <c r="F490" t="n">
-        <v>0.028035</v>
+        <v>28.035</v>
       </c>
     </row>
     <row r="491">
@@ -10183,7 +10183,7 @@
         <v>13.2</v>
       </c>
       <c r="F491" t="n">
-        <v>0.0281424</v>
+        <v>28.1424</v>
       </c>
     </row>
     <row r="492">
@@ -10203,7 +10203,7 @@
         <v>13.275</v>
       </c>
       <c r="F492" t="n">
-        <v>0.0281961</v>
+        <v>28.1961</v>
       </c>
     </row>
     <row r="493">
@@ -10223,7 +10223,7 @@
         <v>13.35</v>
       </c>
       <c r="F493" t="n">
-        <v>0.0284622</v>
+        <v>28.4622</v>
       </c>
     </row>
     <row r="494">
@@ -10243,7 +10243,7 @@
         <v>13.425</v>
       </c>
       <c r="F494" t="n">
-        <v>0.0286221</v>
+        <v>28.6221</v>
       </c>
     </row>
     <row r="495">
@@ -10263,7 +10263,7 @@
         <v>13.5</v>
       </c>
       <c r="F495" t="n">
-        <v>0.028782</v>
+        <v>28.782</v>
       </c>
     </row>
     <row r="496">
@@ -10283,7 +10283,7 @@
         <v>13.575</v>
       </c>
       <c r="F496" t="n">
-        <v>0.0289419</v>
+        <v>28.9419</v>
       </c>
     </row>
     <row r="497">
@@ -10303,7 +10303,7 @@
         <v>13.65</v>
       </c>
       <c r="F497" t="n">
-        <v>0.0291018</v>
+        <v>29.1018</v>
       </c>
     </row>
     <row r="498">
@@ -10323,7 +10323,7 @@
         <v>13.725</v>
       </c>
       <c r="F498" t="n">
-        <v>0.0292617</v>
+        <v>29.2617</v>
       </c>
     </row>
     <row r="499">
@@ -10343,7 +10343,7 @@
         <v>13.8</v>
       </c>
       <c r="F499" t="n">
-        <v>0.0294216</v>
+        <v>29.4216</v>
       </c>
     </row>
     <row r="500">
@@ -10363,7 +10363,7 @@
         <v>13.89</v>
       </c>
       <c r="F500" t="n">
-        <v>0.02955792</v>
+        <v>29.55792</v>
       </c>
     </row>
     <row r="501">
@@ -10383,7 +10383,7 @@
         <v>13.95</v>
       </c>
       <c r="F501" t="n">
-        <v>0.0296856</v>
+        <v>29.6856</v>
       </c>
     </row>
     <row r="502">
@@ -10403,7 +10403,7 @@
         <v>14.04</v>
       </c>
       <c r="F502" t="n">
-        <v>0.02993328</v>
+        <v>29.93328</v>
       </c>
     </row>
     <row r="503">
@@ -10423,7 +10423,7 @@
         <v>14.115</v>
       </c>
       <c r="F503" t="n">
-        <v>0.03003672</v>
+        <v>30.03672</v>
       </c>
     </row>
     <row r="504">
@@ -10443,7 +10443,7 @@
         <v>14.175</v>
       </c>
       <c r="F504" t="n">
-        <v>0.0301644</v>
+        <v>30.1644</v>
       </c>
     </row>
     <row r="505">
@@ -10463,7 +10463,7 @@
         <v>14.265</v>
       </c>
       <c r="F505" t="n">
-        <v>0.03029886</v>
+        <v>30.29886</v>
       </c>
     </row>
     <row r="506">
@@ -10483,7 +10483,7 @@
         <v>14.34</v>
       </c>
       <c r="F506" t="n">
-        <v>0.03045816</v>
+        <v>30.45816</v>
       </c>
     </row>
     <row r="507">
@@ -10503,7 +10503,7 @@
         <v>14.4</v>
       </c>
       <c r="F507" t="n">
-        <v>0.0306432</v>
+        <v>30.6432</v>
       </c>
     </row>
     <row r="508">
@@ -10523,7 +10523,7 @@
         <v>14.46</v>
       </c>
       <c r="F508" t="n">
-        <v>0.03071304</v>
+        <v>30.71304</v>
       </c>
     </row>
     <row r="509">
@@ -10543,7 +10543,7 @@
         <v>14.535</v>
       </c>
       <c r="F509" t="n">
-        <v>0.0308142</v>
+        <v>30.8142</v>
       </c>
     </row>
     <row r="510">
@@ -10563,7 +10563,7 @@
         <v>14.595</v>
       </c>
       <c r="F510" t="n">
-        <v>0.0309414</v>
+        <v>30.9414</v>
       </c>
     </row>
     <row r="511">
@@ -10583,7 +10583,7 @@
         <v>14.685</v>
       </c>
       <c r="F511" t="n">
-        <v>0.0311322</v>
+        <v>31.1322</v>
       </c>
     </row>
     <row r="512">
@@ -10603,7 +10603,7 @@
         <v>14.76</v>
       </c>
       <c r="F512" t="n">
-        <v>0.03199968</v>
+        <v>31.99968</v>
       </c>
     </row>
     <row r="513">
@@ -10623,7 +10623,7 @@
         <v>14.835</v>
       </c>
       <c r="F513" t="n">
-        <v>0.03198426</v>
+        <v>31.98426</v>
       </c>
     </row>
     <row r="514">
@@ -10643,7 +10643,7 @@
         <v>14.91</v>
       </c>
       <c r="F514" t="n">
-        <v>0.0322056</v>
+        <v>32.2056</v>
       </c>
     </row>
     <row r="515">
@@ -10663,7 +10663,7 @@
         <v>14.955</v>
       </c>
       <c r="F515" t="n">
-        <v>0.03212334</v>
+        <v>32.12334</v>
       </c>
     </row>
     <row r="516">
@@ -10683,7 +10683,7 @@
         <v>15.03</v>
       </c>
       <c r="F516" t="n">
-        <v>0.03282552</v>
+        <v>32.82552</v>
       </c>
     </row>
     <row r="517">
@@ -10703,7 +10703,7 @@
         <v>15.12</v>
       </c>
       <c r="F517" t="n">
-        <v>0.03211488</v>
+        <v>32.11488</v>
       </c>
     </row>
     <row r="518">
@@ -10723,7 +10723,7 @@
         <v>15.18</v>
       </c>
       <c r="F518" t="n">
-        <v>0.03309240000000001</v>
+        <v>33.0924</v>
       </c>
     </row>
     <row r="519">
@@ -10743,7 +10743,7 @@
         <v>15.255</v>
       </c>
       <c r="F519" t="n">
-        <v>0.03362202</v>
+        <v>33.62202</v>
       </c>
     </row>
     <row r="520">
@@ -10763,7 +10763,7 @@
         <v>15.33</v>
       </c>
       <c r="F520" t="n">
-        <v>0.0328062</v>
+        <v>32.8062</v>
       </c>
     </row>
     <row r="521">
@@ -10783,7 +10783,7 @@
         <v>15.375</v>
       </c>
       <c r="F521" t="n">
-        <v>0.034071</v>
+        <v>34.071</v>
       </c>
     </row>
     <row r="522">
@@ -10803,7 +10803,7 @@
         <v>15.495</v>
       </c>
       <c r="F522" t="n">
-        <v>0.03322128</v>
+        <v>33.22128</v>
       </c>
     </row>
     <row r="523">
@@ -10823,7 +10823,7 @@
         <v>15.54</v>
       </c>
       <c r="F523" t="n">
-        <v>0.03393936</v>
+        <v>33.93936</v>
       </c>
     </row>
     <row r="524">
@@ -10843,7 +10843,7 @@
         <v>15.6</v>
       </c>
       <c r="F524" t="n">
-        <v>0.034008</v>
+        <v>34.008</v>
       </c>
     </row>
     <row r="525">
@@ -10863,7 +10863,7 @@
         <v>15.675</v>
       </c>
       <c r="F525" t="n">
-        <v>0.0336072</v>
+        <v>33.6072</v>
       </c>
     </row>
     <row r="526">
@@ -10883,7 +10883,7 @@
         <v>15.75</v>
       </c>
       <c r="F526" t="n">
-        <v>0.03446100000000001</v>
+        <v>34.46100000000001</v>
       </c>
     </row>
     <row r="527">
@@ -10903,7 +10903,7 @@
         <v>15.825</v>
       </c>
       <c r="F527" t="n">
-        <v>0.03462510000000001</v>
+        <v>34.62510000000001</v>
       </c>
     </row>
     <row r="528">
@@ -10923,7 +10923,7 @@
         <v>15.885</v>
       </c>
       <c r="F528" t="n">
-        <v>0.03456576000000001</v>
+        <v>34.56576</v>
       </c>
     </row>
     <row r="529">
@@ -10943,7 +10943,7 @@
         <v>15.96</v>
       </c>
       <c r="F529" t="n">
-        <v>0.03466512</v>
+        <v>34.66512</v>
       </c>
     </row>
     <row r="530">
@@ -10963,7 +10963,7 @@
         <v>16.035</v>
       </c>
       <c r="F530" t="n">
-        <v>0.03546942000000001</v>
+        <v>35.46942000000001</v>
       </c>
     </row>
     <row r="531">
@@ -10983,7 +10983,7 @@
         <v>16.125</v>
       </c>
       <c r="F531" t="n">
-        <v>0.0348945</v>
+        <v>34.8945</v>
       </c>
     </row>
     <row r="532">
@@ -11003,7 +11003,7 @@
         <v>16.23</v>
       </c>
       <c r="F532" t="n">
-        <v>0.03479712</v>
+        <v>34.79712</v>
       </c>
     </row>
     <row r="533">
@@ -11023,7 +11023,7 @@
         <v>16.335</v>
       </c>
       <c r="F533" t="n">
-        <v>0.0356103</v>
+        <v>35.6103</v>
       </c>
     </row>
     <row r="534">
@@ -11043,7 +11043,7 @@
         <v>16.38</v>
       </c>
       <c r="F534" t="n">
-        <v>0.03590496</v>
+        <v>35.90496</v>
       </c>
     </row>
     <row r="535">
@@ -11063,7 +11063,7 @@
         <v>16.44</v>
       </c>
       <c r="F535" t="n">
-        <v>0.03597072</v>
+        <v>35.97072</v>
       </c>
     </row>
     <row r="536">
@@ -11083,7 +11083,7 @@
         <v>16.56</v>
       </c>
       <c r="F536" t="n">
-        <v>0.0361008</v>
+        <v>36.1008</v>
       </c>
     </row>
     <row r="537">
@@ -11103,7 +11103,7 @@
         <v>16.605</v>
       </c>
       <c r="F537" t="n">
-        <v>0.03626532</v>
+        <v>36.26532</v>
       </c>
     </row>
     <row r="538">
@@ -11123,7 +11123,7 @@
         <v>16.71</v>
       </c>
       <c r="F538" t="n">
-        <v>0.03622728000000001</v>
+        <v>36.22728000000001</v>
       </c>
     </row>
     <row r="539">
@@ -11143,7 +11143,7 @@
         <v>16.755</v>
       </c>
       <c r="F539" t="n">
-        <v>0.03625782</v>
+        <v>36.25782</v>
       </c>
     </row>
     <row r="540">
@@ -11163,7 +11163,7 @@
         <v>16.83</v>
       </c>
       <c r="F540" t="n">
-        <v>0.03621816</v>
+        <v>36.21816</v>
       </c>
     </row>
     <row r="541">
@@ -11183,7 +11183,7 @@
         <v>16.905</v>
       </c>
       <c r="F541" t="n">
-        <v>0.03752910000000001</v>
+        <v>37.52910000000001</v>
       </c>
     </row>
     <row r="542">
@@ -11203,7 +11203,7 @@
         <v>16.995</v>
       </c>
       <c r="F542" t="n">
-        <v>0.03684516000000001</v>
+        <v>36.84516000000001</v>
       </c>
     </row>
     <row r="543">
@@ -11223,7 +11223,7 @@
         <v>17.25</v>
       </c>
       <c r="F543" t="n">
-        <v>0.037881</v>
+        <v>37.881</v>
       </c>
     </row>
     <row r="544">
@@ -11243,7 +11243,7 @@
         <v>17.595</v>
       </c>
       <c r="F544" t="n">
-        <v>0.03884976</v>
+        <v>38.84976</v>
       </c>
     </row>
     <row r="545">
@@ -11263,7 +11263,7 @@
         <v>18.225</v>
       </c>
       <c r="F545" t="n">
-        <v>0.0395847</v>
+        <v>39.5847</v>
       </c>
     </row>
     <row r="546">
@@ -11283,7 +11283,7 @@
         <v>19.11</v>
       </c>
       <c r="F546" t="n">
-        <v>0.04135404</v>
+        <v>41.35404</v>
       </c>
     </row>
     <row r="547">
@@ -11303,7 +11303,7 @@
         <v>20.205</v>
       </c>
       <c r="F547" t="n">
-        <v>0.04437018</v>
+        <v>44.37018</v>
       </c>
     </row>
     <row r="548">
@@ -11323,7 +11323,7 @@
         <v>21.63</v>
       </c>
       <c r="F548" t="n">
-        <v>0.04706688000000001</v>
+        <v>47.06688000000001</v>
       </c>
     </row>
     <row r="549">
@@ -11343,7 +11343,7 @@
         <v>23.265</v>
       </c>
       <c r="F549" t="n">
-        <v>0.05043852</v>
+        <v>50.43852</v>
       </c>
     </row>
     <row r="550">
@@ -11363,7 +11363,7 @@
         <v>25.26</v>
       </c>
       <c r="F550" t="n">
-        <v>0.05526888000000001</v>
+        <v>55.26888000000001</v>
       </c>
     </row>
     <row r="551">
@@ -11383,7 +11383,7 @@
         <v>27.465</v>
       </c>
       <c r="F551" t="n">
-        <v>0.05998356000000001</v>
+        <v>59.98356000000001</v>
       </c>
     </row>
     <row r="552">
@@ -11403,7 +11403,7 @@
         <v>30.045</v>
       </c>
       <c r="F552" t="n">
-        <v>0.06585864</v>
+        <v>65.85863999999999</v>
       </c>
     </row>
     <row r="553">
@@ -11423,7 +11423,7 @@
         <v>32.7</v>
       </c>
       <c r="F553" t="n">
-        <v>0.0715476</v>
+        <v>71.5476</v>
       </c>
     </row>
     <row r="554">
@@ -11443,7 +11443,7 @@
         <v>35.37</v>
       </c>
       <c r="F554" t="n">
-        <v>0.0771066</v>
+        <v>77.1066</v>
       </c>
     </row>
     <row r="555">
@@ -11463,7 +11463,7 @@
         <v>38.205</v>
       </c>
       <c r="F555" t="n">
-        <v>0.08374536</v>
+        <v>83.74536000000001</v>
       </c>
     </row>
     <row r="556">
@@ -11483,7 +11483,7 @@
         <v>40.95</v>
       </c>
       <c r="F556" t="n">
-        <v>0.08976240000000001</v>
+        <v>89.7624</v>
       </c>
     </row>
     <row r="557">
@@ -11503,7 +11503,7 @@
         <v>43.8</v>
       </c>
       <c r="F557" t="n">
-        <v>0.0960096</v>
+        <v>96.00960000000001</v>
       </c>
     </row>
     <row r="558">
@@ -11523,7 +11523,7 @@
         <v>46.695</v>
       </c>
       <c r="F558" t="n">
-        <v>0.10235544</v>
+        <v>102.35544</v>
       </c>
     </row>
     <row r="559">
@@ -11543,7 +11543,7 @@
         <v>49.605</v>
       </c>
       <c r="F559" t="n">
-        <v>0.10893258</v>
+        <v>108.93258</v>
       </c>
     </row>
     <row r="560">
@@ -11563,7 +11563,7 @@
         <v>52.5</v>
       </c>
       <c r="F560" t="n">
-        <v>0.11529</v>
+        <v>115.29</v>
       </c>
     </row>
     <row r="561">
@@ -11583,7 +11583,7 @@
         <v>55.29</v>
       </c>
       <c r="F561" t="n">
-        <v>0.12141684</v>
+        <v>121.41684</v>
       </c>
     </row>
     <row r="562">
@@ -11603,7 +11603,7 @@
         <v>57.855</v>
       </c>
       <c r="F562" t="n">
-        <v>0.12820668</v>
+        <v>128.20668</v>
       </c>
     </row>
     <row r="563">
@@ -11623,7 +11623,7 @@
         <v>60.285</v>
       </c>
       <c r="F563" t="n">
-        <v>0.13238586</v>
+        <v>132.38586</v>
       </c>
     </row>
     <row r="564">
@@ -11643,7 +11643,7 @@
         <v>62.565</v>
       </c>
       <c r="F564" t="n">
-        <v>0.13814352</v>
+        <v>138.14352</v>
       </c>
     </row>
     <row r="565">
@@ -11663,7 +11663,7 @@
         <v>64.845</v>
       </c>
       <c r="F565" t="n">
-        <v>0.14291838</v>
+        <v>142.91838</v>
       </c>
     </row>
     <row r="566">
@@ -11683,7 +11683,7 @@
         <v>67.08</v>
       </c>
       <c r="F566" t="n">
-        <v>0.14811264</v>
+        <v>148.11264</v>
       </c>
     </row>
     <row r="567">
@@ -11703,7 +11703,7 @@
         <v>69.33</v>
       </c>
       <c r="F567" t="n">
-        <v>0.15308064</v>
+        <v>153.08064</v>
       </c>
     </row>
     <row r="568">
@@ -11723,7 +11723,7 @@
         <v>71.55</v>
       </c>
       <c r="F568" t="n">
-        <v>0.1576962</v>
+        <v>157.6962</v>
       </c>
     </row>
     <row r="569">
@@ -11743,7 +11743,7 @@
         <v>73.755</v>
       </c>
       <c r="F569" t="n">
-        <v>0.16255602</v>
+        <v>162.55602</v>
       </c>
     </row>
     <row r="570">
@@ -11763,7 +11763,7 @@
         <v>76.035</v>
       </c>
       <c r="F570" t="n">
-        <v>0.16788528</v>
+        <v>167.88528</v>
       </c>
     </row>
     <row r="571">
@@ -11783,7 +11783,7 @@
         <v>78.48</v>
       </c>
       <c r="F571" t="n">
-        <v>0.17359776</v>
+        <v>173.59776</v>
       </c>
     </row>
     <row r="572">
@@ -11803,7 +11803,7 @@
         <v>81.23999999999999</v>
       </c>
       <c r="F572" t="n">
-        <v>0.1803528</v>
+        <v>180.3528</v>
       </c>
     </row>
     <row r="573">
@@ -11823,7 +11823,7 @@
         <v>84.075</v>
       </c>
       <c r="F573" t="n">
-        <v>0.1863102</v>
+        <v>186.3102</v>
       </c>
     </row>
     <row r="574">
@@ -11843,7 +11843,7 @@
         <v>87</v>
       </c>
       <c r="F574" t="n">
-        <v>0.19314</v>
+        <v>193.14</v>
       </c>
     </row>
     <row r="575">
@@ -11863,7 +11863,7 @@
         <v>89.925</v>
       </c>
       <c r="F575" t="n">
-        <v>0.2003529</v>
+        <v>200.3529</v>
       </c>
     </row>
     <row r="576">
@@ -11883,7 +11883,7 @@
         <v>92.84999999999999</v>
       </c>
       <c r="F576" t="n">
-        <v>0.2064984</v>
+        <v>206.4984</v>
       </c>
     </row>
     <row r="577">
@@ -11903,7 +11903,7 @@
         <v>95.80499999999999</v>
       </c>
       <c r="F577" t="n">
-        <v>0.21345354</v>
+        <v>213.45354</v>
       </c>
     </row>
     <row r="578">
@@ -11923,7 +11923,7 @@
         <v>98.83499999999999</v>
       </c>
       <c r="F578" t="n">
-        <v>0.22020438</v>
+        <v>220.20438</v>
       </c>
     </row>
     <row r="579">
@@ -11943,7 +11943,7 @@
         <v>101.955</v>
       </c>
       <c r="F579" t="n">
-        <v>0.22715574</v>
+        <v>227.15574</v>
       </c>
     </row>
     <row r="580">
@@ -11963,7 +11963,7 @@
         <v>105.015</v>
       </c>
       <c r="F580" t="n">
-        <v>0.23397342</v>
+        <v>233.97342</v>
       </c>
     </row>
     <row r="581">
@@ -11983,7 +11983,7 @@
         <v>108.105</v>
       </c>
       <c r="F581" t="n">
-        <v>0.24129036</v>
+        <v>241.29036</v>
       </c>
     </row>
     <row r="582">
@@ -12003,7 +12003,7 @@
         <v>111.135</v>
       </c>
       <c r="F582" t="n">
-        <v>0.2489424</v>
+        <v>248.9424</v>
       </c>
     </row>
     <row r="583">
@@ -12023,7 +12023,7 @@
         <v>114.225</v>
       </c>
       <c r="F583" t="n">
-        <v>0.255864</v>
+        <v>255.864</v>
       </c>
     </row>
     <row r="584">
@@ -12043,7 +12043,7 @@
         <v>117.405</v>
       </c>
       <c r="F584" t="n">
-        <v>0.2629872</v>
+        <v>262.9872</v>
       </c>
     </row>
     <row r="585">
@@ -12063,7 +12063,7 @@
         <v>120.465</v>
       </c>
       <c r="F585" t="n">
-        <v>0.26935974</v>
+        <v>269.35974</v>
       </c>
     </row>
     <row r="586">
@@ -12083,7 +12083,7 @@
         <v>123.24</v>
       </c>
       <c r="F586" t="n">
-        <v>0.27655056</v>
+        <v>276.55056</v>
       </c>
     </row>
     <row r="587">
@@ -12103,7 +12103,7 @@
         <v>125.88</v>
       </c>
       <c r="F587" t="n">
-        <v>0.28247472</v>
+        <v>282.47472</v>
       </c>
     </row>
     <row r="588">
@@ -12123,7 +12123,7 @@
         <v>128.325</v>
       </c>
       <c r="F588" t="n">
-        <v>0.2879613</v>
+        <v>287.9613</v>
       </c>
     </row>
     <row r="589">
@@ -12143,7 +12143,7 @@
         <v>130.44</v>
       </c>
       <c r="F589" t="n">
-        <v>0.29270736</v>
+        <v>292.7073600000001</v>
       </c>
     </row>
     <row r="590">
@@ -12163,7 +12163,7 @@
         <v>132.105</v>
       </c>
       <c r="F590" t="n">
-        <v>0.29697204</v>
+        <v>296.97204</v>
       </c>
     </row>
     <row r="591">
@@ -12183,7 +12183,7 @@
         <v>133.575</v>
       </c>
       <c r="F591" t="n">
-        <v>0.3008109</v>
+        <v>300.8109</v>
       </c>
     </row>
     <row r="592">
@@ -12203,7 +12203,7 @@
         <v>134.775</v>
       </c>
       <c r="F592" t="n">
-        <v>0.3040524000000001</v>
+        <v>304.0524000000001</v>
       </c>
     </row>
     <row r="593">
@@ -12223,7 +12223,7 @@
         <v>135.735</v>
       </c>
       <c r="F593" t="n">
-        <v>0.30567522</v>
+        <v>305.67522</v>
       </c>
     </row>
     <row r="594">
@@ -12243,7 +12243,7 @@
         <v>136.545</v>
       </c>
       <c r="F594" t="n">
-        <v>0.30749934</v>
+        <v>307.49934</v>
       </c>
     </row>
     <row r="595">
@@ -12263,7 +12263,7 @@
         <v>137.175</v>
       </c>
       <c r="F595" t="n">
-        <v>0.3083694</v>
+        <v>308.3694</v>
       </c>
     </row>
     <row r="596">
@@ -12283,7 +12283,7 @@
         <v>137.925</v>
       </c>
       <c r="F596" t="n">
-        <v>0.3100554</v>
+        <v>310.0554</v>
       </c>
     </row>
     <row r="597">
@@ -12303,7 +12303,7 @@
         <v>138.765</v>
       </c>
       <c r="F597" t="n">
-        <v>0.31249878</v>
+        <v>312.49878</v>
       </c>
     </row>
     <row r="598">
@@ -12323,7 +12323,7 @@
         <v>139.665</v>
       </c>
       <c r="F598" t="n">
-        <v>0.31508424</v>
+        <v>315.08424</v>
       </c>
     </row>
     <row r="599">
@@ -12343,7 +12343,7 @@
         <v>140.445</v>
       </c>
       <c r="F599" t="n">
-        <v>0.31628214</v>
+        <v>316.28214</v>
       </c>
     </row>
     <row r="600">
@@ -12363,7 +12363,7 @@
         <v>141.12</v>
       </c>
       <c r="F600" t="n">
-        <v>0.3189312</v>
+        <v>318.9312</v>
       </c>
     </row>
     <row r="601">
@@ -12383,7 +12383,7 @@
         <v>141.705</v>
       </c>
       <c r="F601" t="n">
-        <v>0.31968648</v>
+        <v>319.68648</v>
       </c>
     </row>
     <row r="602">
@@ -12403,7 +12403,7 @@
         <v>142.245</v>
       </c>
       <c r="F602" t="n">
-        <v>0.3214737000000001</v>
+        <v>321.4737000000001</v>
       </c>
     </row>
     <row r="603">
@@ -12423,7 +12423,7 @@
         <v>142.65</v>
       </c>
       <c r="F603" t="n">
-        <v>0.3218184000000001</v>
+        <v>321.8184000000001</v>
       </c>
     </row>
     <row r="604">
@@ -12443,7 +12443,7 @@
         <v>143.115</v>
       </c>
       <c r="F604" t="n">
-        <v>0.32286744</v>
+        <v>322.86744</v>
       </c>
     </row>
     <row r="605">
@@ -12463,7 +12463,7 @@
         <v>143.76</v>
       </c>
       <c r="F605" t="n">
-        <v>0.32317248</v>
+        <v>323.17248</v>
       </c>
     </row>
     <row r="606">
@@ -12483,7 +12483,7 @@
         <v>144.795</v>
       </c>
       <c r="F606" t="n">
-        <v>0.3272367</v>
+        <v>327.2367</v>
       </c>
     </row>
     <row r="607">
@@ -12503,7 +12503,7 @@
         <v>142.785</v>
       </c>
       <c r="F607" t="n">
-        <v>0.32155182</v>
+        <v>321.55182</v>
       </c>
     </row>
     <row r="608">
@@ -12523,7 +12523,7 @@
         <v>144.405</v>
       </c>
       <c r="F608" t="n">
-        <v>0.3263553000000001</v>
+        <v>326.3553000000001</v>
       </c>
     </row>
     <row r="609">
@@ -12543,7 +12543,7 @@
         <v>146.055</v>
       </c>
       <c r="F609" t="n">
-        <v>0.32950008</v>
+        <v>329.50008</v>
       </c>
     </row>
     <row r="610">
@@ -12563,7 +12563,7 @@
         <v>146.64</v>
       </c>
       <c r="F610" t="n">
-        <v>0.33023328</v>
+        <v>330.23328</v>
       </c>
     </row>
     <row r="611">
@@ -12583,7 +12583,7 @@
         <v>147.315</v>
       </c>
       <c r="F611" t="n">
-        <v>0.3329319000000001</v>
+        <v>332.9319000000001</v>
       </c>
     </row>
     <row r="612">
@@ -12603,7 +12603,7 @@
         <v>148.155</v>
       </c>
       <c r="F612" t="n">
-        <v>0.3348303</v>
+        <v>334.8303</v>
       </c>
     </row>
     <row r="613">
@@ -12623,7 +12623,7 @@
         <v>148.935</v>
       </c>
       <c r="F613" t="n">
-        <v>0.3377845800000001</v>
+        <v>337.7845800000001</v>
       </c>
     </row>
     <row r="614">
@@ -12643,7 +12643,7 @@
         <v>149.76</v>
       </c>
       <c r="F614" t="n">
-        <v>0.3384576</v>
+        <v>338.4576</v>
       </c>
     </row>
     <row r="615">
@@ -12663,7 +12663,7 @@
         <v>150.45</v>
       </c>
       <c r="F615" t="n">
-        <v>0.340017</v>
+        <v>340.017</v>
       </c>
     </row>
     <row r="616">
@@ -12683,7 +12683,7 @@
         <v>151.155</v>
       </c>
       <c r="F616" t="n">
-        <v>0.3422149200000001</v>
+        <v>342.2149200000001</v>
       </c>
     </row>
     <row r="617">
@@ -12703,7 +12703,7 @@
         <v>152.265</v>
       </c>
       <c r="F617" t="n">
-        <v>0.34472796</v>
+        <v>344.72796</v>
       </c>
     </row>
     <row r="618">
@@ -12723,7 +12723,7 @@
         <v>153.42</v>
       </c>
       <c r="F618" t="n">
-        <v>0.34734288</v>
+        <v>347.34288</v>
       </c>
     </row>
     <row r="619">
@@ -12743,7 +12743,7 @@
         <v>153.375</v>
       </c>
       <c r="F619" t="n">
-        <v>0.347241</v>
+        <v>347.241</v>
       </c>
     </row>
     <row r="620">
@@ -12763,7 +12763,7 @@
         <v>151.785</v>
       </c>
       <c r="F620" t="n">
-        <v>0.3430341</v>
+        <v>343.0341</v>
       </c>
     </row>
     <row r="621">
@@ -12783,7 +12783,7 @@
         <v>152.01</v>
       </c>
       <c r="F621" t="n">
-        <v>0.3435426</v>
+        <v>343.5426</v>
       </c>
     </row>
     <row r="622">
@@ -12803,7 +12803,7 @@
         <v>153.915</v>
       </c>
       <c r="F622" t="n">
-        <v>0.34723224</v>
+        <v>347.23224</v>
       </c>
     </row>
     <row r="623">
@@ -12823,7 +12823,7 @@
         <v>154.365</v>
       </c>
       <c r="F623" t="n">
-        <v>0.3488649</v>
+        <v>348.8649</v>
       </c>
     </row>
     <row r="624">
@@ -12843,7 +12843,7 @@
         <v>154.575</v>
       </c>
       <c r="F624" t="n">
-        <v>0.3493395</v>
+        <v>349.3395</v>
       </c>
     </row>
     <row r="625">
@@ -12863,7 +12863,7 @@
         <v>154.665</v>
       </c>
       <c r="F625" t="n">
-        <v>0.35078022</v>
+        <v>350.78022</v>
       </c>
     </row>
     <row r="626">
@@ -12883,7 +12883,7 @@
         <v>155.04</v>
       </c>
       <c r="F626" t="n">
-        <v>0.35163072</v>
+        <v>351.63072</v>
       </c>
     </row>
     <row r="627">
@@ -12903,7 +12903,7 @@
         <v>155.55</v>
       </c>
       <c r="F627" t="n">
-        <v>0.3527874</v>
+        <v>352.7874</v>
       </c>
     </row>
     <row r="628">
@@ -12923,7 +12923,7 @@
         <v>156.165</v>
       </c>
       <c r="F628" t="n">
-        <v>0.35480688</v>
+        <v>354.80688</v>
       </c>
     </row>
     <row r="629">
@@ -12943,7 +12943,7 @@
         <v>156.51</v>
       </c>
       <c r="F629" t="n">
-        <v>0.35433864</v>
+        <v>354.33864</v>
       </c>
     </row>
     <row r="630">
@@ -12963,7 +12963,7 @@
         <v>156.705</v>
       </c>
       <c r="F630" t="n">
-        <v>0.3541533</v>
+        <v>354.1533</v>
       </c>
     </row>
     <row r="631">
@@ -12983,7 +12983,7 @@
         <v>156.765</v>
       </c>
       <c r="F631" t="n">
-        <v>0.35554302</v>
+        <v>355.54302</v>
       </c>
     </row>
     <row r="632">
@@ -13003,7 +13003,7 @@
         <v>157.11</v>
       </c>
       <c r="F632" t="n">
-        <v>0.3550686</v>
+        <v>355.0686</v>
       </c>
     </row>
     <row r="633">
@@ -13023,7 +13023,7 @@
         <v>157.56</v>
       </c>
       <c r="F633" t="n">
-        <v>0.35734608</v>
+        <v>357.34608</v>
       </c>
     </row>
     <row r="634">
@@ -13043,7 +13043,7 @@
         <v>158.235</v>
       </c>
       <c r="F634" t="n">
-        <v>0.35887698</v>
+        <v>358.87698</v>
       </c>
     </row>
     <row r="635">
@@ -13063,7 +13063,7 @@
         <v>158.895</v>
       </c>
       <c r="F635" t="n">
-        <v>0.36100944</v>
+        <v>361.00944</v>
       </c>
     </row>
     <row r="636">
@@ -13083,7 +13083,7 @@
         <v>159.135</v>
       </c>
       <c r="F636" t="n">
-        <v>0.36028164</v>
+        <v>360.28164</v>
       </c>
     </row>
     <row r="637">
@@ -13103,7 +13103,7 @@
         <v>159.225</v>
       </c>
       <c r="F637" t="n">
-        <v>0.3611223000000001</v>
+        <v>361.1223000000001</v>
       </c>
     </row>
     <row r="638">
@@ -13123,7 +13123,7 @@
         <v>159.51</v>
       </c>
       <c r="F638" t="n">
-        <v>0.36176868</v>
+        <v>361.76868</v>
       </c>
     </row>
     <row r="639">
@@ -13143,7 +13143,7 @@
         <v>159.99</v>
       </c>
       <c r="F639" t="n">
-        <v>0.36349728</v>
+        <v>363.49728</v>
       </c>
     </row>
     <row r="640">
@@ -13163,7 +13163,7 @@
         <v>157.365</v>
       </c>
       <c r="F640" t="n">
-        <v>0.35690382</v>
+        <v>356.90382</v>
       </c>
     </row>
     <row r="641">
@@ -13183,7 +13183,7 @@
         <v>157.395</v>
       </c>
       <c r="F641" t="n">
-        <v>0.35634228</v>
+        <v>356.34228</v>
       </c>
     </row>
     <row r="642">
@@ -13203,7 +13203,7 @@
         <v>158.985</v>
       </c>
       <c r="F642" t="n">
-        <v>0.36057798</v>
+        <v>360.57798</v>
       </c>
     </row>
     <row r="643">
@@ -13223,7 +13223,7 @@
         <v>160.56</v>
       </c>
       <c r="F643" t="n">
-        <v>0.3628656</v>
+        <v>362.8656</v>
       </c>
     </row>
     <row r="644">
@@ -13243,7 +13243,7 @@
         <v>161.55</v>
       </c>
       <c r="F644" t="n">
-        <v>0.3670416</v>
+        <v>367.0416</v>
       </c>
     </row>
     <row r="645">
@@ -13263,7 +13263,7 @@
         <v>162.405</v>
       </c>
       <c r="F645" t="n">
-        <v>0.36898416</v>
+        <v>368.98416</v>
       </c>
     </row>
     <row r="646">
@@ -13283,7 +13283,7 @@
         <v>163.305</v>
       </c>
       <c r="F646" t="n">
-        <v>0.3703757400000001</v>
+        <v>370.3757400000001</v>
       </c>
     </row>
     <row r="647">
@@ -13303,7 +13303,7 @@
         <v>163.86</v>
       </c>
       <c r="F647" t="n">
-        <v>0.37228992</v>
+        <v>372.28992</v>
       </c>
     </row>
     <row r="648">
@@ -13323,7 +13323,7 @@
         <v>163.935</v>
       </c>
       <c r="F648" t="n">
-        <v>0.3731160600000001</v>
+        <v>373.1160600000001</v>
       </c>
     </row>
     <row r="649">
@@ -13343,7 +13343,7 @@
         <v>163.725</v>
       </c>
       <c r="F649" t="n">
-        <v>0.3719832</v>
+        <v>371.9832</v>
       </c>
     </row>
     <row r="650">
@@ -13363,7 +13363,7 @@
         <v>163.5</v>
       </c>
       <c r="F650" t="n">
-        <v>0.371472</v>
+        <v>371.472</v>
       </c>
     </row>
     <row r="651">
@@ -13383,7 +13383,7 @@
         <v>163.53</v>
       </c>
       <c r="F651" t="n">
-        <v>0.37154016</v>
+        <v>371.54016</v>
       </c>
     </row>
     <row r="652">
@@ -13403,7 +13403,7 @@
         <v>163.905</v>
       </c>
       <c r="F652" t="n">
-        <v>0.37239216</v>
+        <v>372.39216</v>
       </c>
     </row>
     <row r="653">
@@ -13423,7 +13423,7 @@
         <v>164.205</v>
       </c>
       <c r="F653" t="n">
-        <v>0.37307376</v>
+        <v>373.07376</v>
       </c>
     </row>
     <row r="654">
@@ -13443,7 +13443,7 @@
         <v>164.28</v>
       </c>
       <c r="F654" t="n">
-        <v>0.37258704</v>
+        <v>372.58704</v>
       </c>
     </row>
     <row r="655">
@@ -13463,7 +13463,7 @@
         <v>164.4</v>
       </c>
       <c r="F655" t="n">
-        <v>0.3728592000000001</v>
+        <v>372.8592000000001</v>
       </c>
     </row>
     <row r="656">
@@ -13483,7 +13483,7 @@
         <v>164.685</v>
       </c>
       <c r="F656" t="n">
-        <v>0.3741643200000001</v>
+        <v>374.1643200000001</v>
       </c>
     </row>
     <row r="657">
@@ -13503,7 +13503,7 @@
         <v>164.715</v>
       </c>
       <c r="F657" t="n">
-        <v>0.3742324800000001</v>
+        <v>374.2324800000001</v>
       </c>
     </row>
     <row r="658">
@@ -13523,7 +13523,7 @@
         <v>164.76</v>
       </c>
       <c r="F658" t="n">
-        <v>0.37367568</v>
+        <v>373.67568</v>
       </c>
     </row>
     <row r="659">
@@ -13543,7 +13543,7 @@
         <v>165.015</v>
       </c>
       <c r="F659" t="n">
-        <v>0.37425402</v>
+        <v>374.25402</v>
       </c>
     </row>
     <row r="660">
@@ -13563,7 +13563,7 @@
         <v>165.27</v>
       </c>
       <c r="F660" t="n">
-        <v>0.37549344</v>
+        <v>375.49344</v>
       </c>
     </row>
     <row r="661">
@@ -13583,7 +13583,7 @@
         <v>165.405</v>
       </c>
       <c r="F661" t="n">
-        <v>0.37580016</v>
+        <v>375.80016</v>
       </c>
     </row>
     <row r="662">
@@ -13603,7 +13603,7 @@
         <v>165.6</v>
       </c>
       <c r="F662" t="n">
-        <v>0.3762432</v>
+        <v>376.2432</v>
       </c>
     </row>
     <row r="663">
@@ -13623,7 +13623,7 @@
         <v>165.78</v>
       </c>
       <c r="F663" t="n">
-        <v>0.37665216</v>
+        <v>376.65216</v>
       </c>
     </row>
     <row r="664">
@@ -13643,7 +13643,7 @@
         <v>166.05</v>
       </c>
       <c r="F664" t="n">
-        <v>0.3772656</v>
+        <v>377.2656</v>
       </c>
     </row>
     <row r="665">
@@ -13663,7 +13663,7 @@
         <v>166.215</v>
       </c>
       <c r="F665" t="n">
-        <v>0.37830534</v>
+        <v>378.30534</v>
       </c>
     </row>
     <row r="666">
@@ -13683,7 +13683,7 @@
         <v>166.62</v>
       </c>
       <c r="F666" t="n">
-        <v>0.37789416</v>
+        <v>377.89416</v>
       </c>
     </row>
     <row r="667">
@@ -13703,7 +13703,7 @@
         <v>166.86</v>
       </c>
       <c r="F667" t="n">
-        <v>0.37910592</v>
+        <v>379.10592</v>
       </c>
     </row>
     <row r="668">
@@ -13723,7 +13723,7 @@
         <v>167.13</v>
       </c>
       <c r="F668" t="n">
-        <v>0.3797193600000001</v>
+        <v>379.7193600000001</v>
       </c>
     </row>
     <row r="669">
@@ -13743,7 +13743,7 @@
         <v>167.265</v>
       </c>
       <c r="F669" t="n">
-        <v>0.38002608</v>
+        <v>380.02608</v>
       </c>
     </row>
     <row r="670">
@@ -13763,7 +13763,7 @@
         <v>167.43</v>
       </c>
       <c r="F670" t="n">
-        <v>0.3804009600000001</v>
+        <v>380.4009600000001</v>
       </c>
     </row>
     <row r="671">
@@ -13783,7 +13783,7 @@
         <v>167.625</v>
       </c>
       <c r="F671" t="n">
-        <v>0.3808440000000001</v>
+        <v>380.8440000000001</v>
       </c>
     </row>
     <row r="672">
@@ -13803,7 +13803,7 @@
         <v>167.76</v>
       </c>
       <c r="F672" t="n">
-        <v>0.3811507200000001</v>
+        <v>381.1507200000001</v>
       </c>
     </row>
     <row r="673">
@@ -13823,7 +13823,7 @@
         <v>167.88</v>
       </c>
       <c r="F673" t="n">
-        <v>0.38142336</v>
+        <v>381.42336</v>
       </c>
     </row>
     <row r="674">
@@ -13843,7 +13843,7 @@
         <v>167.925</v>
       </c>
       <c r="F674" t="n">
-        <v>0.3815256</v>
+        <v>381.5256</v>
       </c>
     </row>
     <row r="675">
@@ -13863,7 +13863,7 @@
         <v>168.015</v>
       </c>
       <c r="F675" t="n">
-        <v>0.38173008</v>
+        <v>381.73008</v>
       </c>
     </row>
     <row r="676">
@@ -13883,7 +13883,7 @@
         <v>168.195</v>
       </c>
       <c r="F676" t="n">
-        <v>0.38213904</v>
+        <v>382.13904</v>
       </c>
     </row>
     <row r="677">
@@ -13903,7 +13903,7 @@
         <v>168.375</v>
       </c>
       <c r="F677" t="n">
-        <v>0.3825480000000001</v>
+        <v>382.5480000000001</v>
       </c>
     </row>
     <row r="678">
@@ -13923,7 +13923,7 @@
         <v>168.555</v>
       </c>
       <c r="F678" t="n">
-        <v>0.38295696</v>
+        <v>382.95696</v>
       </c>
     </row>
     <row r="679">
@@ -13943,7 +13943,7 @@
         <v>168.765</v>
       </c>
       <c r="F679" t="n">
-        <v>0.38343408</v>
+        <v>383.43408</v>
       </c>
     </row>
     <row r="680">
@@ -13963,7 +13963,7 @@
         <v>169.005</v>
       </c>
       <c r="F680" t="n">
-        <v>0.38397936</v>
+        <v>383.97936</v>
       </c>
     </row>
     <row r="681">
@@ -13983,7 +13983,7 @@
         <v>169.185</v>
       </c>
       <c r="F681" t="n">
-        <v>0.3850650600000001</v>
+        <v>385.0650600000001</v>
       </c>
     </row>
     <row r="682">
@@ -14003,7 +14003,7 @@
         <v>169.515</v>
       </c>
       <c r="F682" t="n">
-        <v>0.38513808</v>
+        <v>385.13808</v>
       </c>
     </row>
     <row r="683">
@@ -14023,7 +14023,7 @@
         <v>169.725</v>
       </c>
       <c r="F683" t="n">
-        <v>0.3856152</v>
+        <v>385.6152</v>
       </c>
     </row>
     <row r="684">
@@ -14043,7 +14043,7 @@
         <v>169.845</v>
       </c>
       <c r="F684" t="n">
-        <v>0.38588784</v>
+        <v>385.88784</v>
       </c>
     </row>
     <row r="685">
@@ -14063,7 +14063,7 @@
         <v>170.085</v>
       </c>
       <c r="F685" t="n">
-        <v>0.38711346</v>
+        <v>387.11346</v>
       </c>
     </row>
     <row r="686">
@@ -14083,7 +14083,7 @@
         <v>170.34</v>
       </c>
       <c r="F686" t="n">
-        <v>0.38701248</v>
+        <v>387.01248</v>
       </c>
     </row>
     <row r="687">
@@ -14103,7 +14103,7 @@
         <v>170.685</v>
       </c>
       <c r="F687" t="n">
-        <v>0.38847906</v>
+        <v>388.47906</v>
       </c>
     </row>
     <row r="688">
@@ -14123,7 +14123,7 @@
         <v>171.045</v>
       </c>
       <c r="F688" t="n">
-        <v>0.38929842</v>
+        <v>389.29842</v>
       </c>
     </row>
     <row r="689">
@@ -14143,7 +14143,7 @@
         <v>171.435</v>
       </c>
       <c r="F689" t="n">
-        <v>0.3901860600000001</v>
+        <v>390.1860600000001</v>
       </c>
     </row>
     <row r="690">
@@ -14163,7 +14163,7 @@
         <v>171.735</v>
       </c>
       <c r="F690" t="n">
-        <v>0.39086886</v>
+        <v>390.86886</v>
       </c>
     </row>
     <row r="691">
@@ -14183,7 +14183,7 @@
         <v>171.84</v>
       </c>
       <c r="F691" t="n">
-        <v>0.39110784</v>
+        <v>391.10784</v>
       </c>
     </row>
     <row r="692">
@@ -14203,7 +14203,7 @@
         <v>171.885</v>
       </c>
       <c r="F692" t="n">
-        <v>0.39121026</v>
+        <v>391.2102599999999</v>
       </c>
     </row>
     <row r="693">
@@ -14223,7 +14223,7 @@
         <v>171.915</v>
       </c>
       <c r="F693" t="n">
-        <v>0.39127854</v>
+        <v>391.27854</v>
       </c>
     </row>
     <row r="694">
@@ -14243,7 +14243,7 @@
         <v>172.125</v>
       </c>
       <c r="F694" t="n">
-        <v>0.3917565</v>
+        <v>391.7565</v>
       </c>
     </row>
     <row r="695">
@@ -14263,7 +14263,7 @@
         <v>172.335</v>
       </c>
       <c r="F695" t="n">
-        <v>0.39223446</v>
+        <v>392.23446</v>
       </c>
     </row>
     <row r="696">
@@ -14283,7 +14283,7 @@
         <v>172.545</v>
       </c>
       <c r="F696" t="n">
-        <v>0.39271242</v>
+        <v>392.71242</v>
       </c>
     </row>
     <row r="697">
@@ -14303,7 +14303,7 @@
         <v>172.695</v>
       </c>
       <c r="F697" t="n">
-        <v>0.3930538200000001</v>
+        <v>393.0538200000001</v>
       </c>
     </row>
     <row r="698">
@@ -14323,7 +14323,7 @@
         <v>172.905</v>
       </c>
       <c r="F698" t="n">
-        <v>0.3935317800000001</v>
+        <v>393.5317800000001</v>
       </c>
     </row>
     <row r="699">
@@ -14343,7 +14343,7 @@
         <v>172.905</v>
       </c>
       <c r="F699" t="n">
-        <v>0.3935317800000001</v>
+        <v>393.5317800000001</v>
       </c>
     </row>
     <row r="700">
@@ -14363,7 +14363,7 @@
         <v>172.89</v>
       </c>
       <c r="F700" t="n">
-        <v>0.39349764</v>
+        <v>393.49764</v>
       </c>
     </row>
     <row r="701">
@@ -14383,7 +14383,7 @@
         <v>172.92</v>
       </c>
       <c r="F701" t="n">
-        <v>0.39356592</v>
+        <v>393.56592</v>
       </c>
     </row>
     <row r="702">
@@ -14403,7 +14403,7 @@
         <v>172.995</v>
       </c>
       <c r="F702" t="n">
-        <v>0.3937366200000001</v>
+        <v>393.7366200000001</v>
       </c>
     </row>
     <row r="703">
@@ -14423,7 +14423,7 @@
         <v>173.145</v>
       </c>
       <c r="F703" t="n">
-        <v>0.39407802</v>
+        <v>394.07802</v>
       </c>
     </row>
     <row r="704">
@@ -14443,7 +14443,7 @@
         <v>173.295</v>
       </c>
       <c r="F704" t="n">
-        <v>0.39441942</v>
+        <v>394.41942</v>
       </c>
     </row>
     <row r="705">
@@ -14463,7 +14463,7 @@
         <v>173.565</v>
       </c>
       <c r="F705" t="n">
-        <v>0.39503394</v>
+        <v>395.03394</v>
       </c>
     </row>
     <row r="706">
@@ -14483,7 +14483,7 @@
         <v>173.835</v>
       </c>
       <c r="F706" t="n">
-        <v>0.39564846</v>
+        <v>395.64846</v>
       </c>
     </row>
     <row r="707">
@@ -14503,7 +14503,7 @@
         <v>173.955</v>
       </c>
       <c r="F707" t="n">
-        <v>0.39592158</v>
+        <v>395.92158</v>
       </c>
     </row>
     <row r="708">
@@ -14523,7 +14523,7 @@
         <v>174.045</v>
       </c>
       <c r="F708" t="n">
-        <v>0.39612642</v>
+        <v>396.12642</v>
       </c>
     </row>
     <row r="709">
@@ -14543,7 +14543,7 @@
         <v>174.165</v>
       </c>
       <c r="F709" t="n">
-        <v>0.39639954</v>
+        <v>396.39954</v>
       </c>
     </row>
     <row r="710">
@@ -14563,7 +14563,7 @@
         <v>174.285</v>
       </c>
       <c r="F710" t="n">
-        <v>0.39667266</v>
+        <v>396.67266</v>
       </c>
     </row>
     <row r="711">
@@ -14583,7 +14583,7 @@
         <v>174.48</v>
       </c>
       <c r="F711" t="n">
-        <v>0.39711648</v>
+        <v>397.11648</v>
       </c>
     </row>
     <row r="712">
@@ -14603,7 +14603,7 @@
         <v>174.57</v>
       </c>
       <c r="F712" t="n">
-        <v>0.39732132</v>
+        <v>397.32132</v>
       </c>
     </row>
     <row r="713">
@@ -14623,7 +14623,7 @@
         <v>174.765</v>
       </c>
       <c r="F713" t="n">
-        <v>0.39776514</v>
+        <v>397.76514</v>
       </c>
     </row>
     <row r="714">
@@ -14643,7 +14643,7 @@
         <v>174.99</v>
       </c>
       <c r="F714" t="n">
-        <v>0.39827724</v>
+        <v>398.2772399999999</v>
       </c>
     </row>
     <row r="715">
@@ -14663,7 +14663,7 @@
         <v>174.99</v>
       </c>
       <c r="F715" t="n">
-        <v>0.39827724</v>
+        <v>398.2772399999999</v>
       </c>
     </row>
     <row r="716">
@@ -14683,7 +14683,7 @@
         <v>175.05</v>
       </c>
       <c r="F716" t="n">
-        <v>0.3984138</v>
+        <v>398.4138</v>
       </c>
     </row>
     <row r="717">
@@ -14703,7 +14703,7 @@
         <v>175.2</v>
       </c>
       <c r="F717" t="n">
-        <v>0.399456</v>
+        <v>399.456</v>
       </c>
     </row>
     <row r="718">
@@ -14723,7 +14723,7 @@
         <v>175.335</v>
       </c>
       <c r="F718" t="n">
-        <v>0.3997638</v>
+        <v>399.7638</v>
       </c>
     </row>
     <row r="719">
@@ -14743,7 +14743,7 @@
         <v>175.515</v>
       </c>
       <c r="F719" t="n">
-        <v>0.4001742</v>
+        <v>400.1742</v>
       </c>
     </row>
     <row r="720">
@@ -14763,7 +14763,7 @@
         <v>175.62</v>
       </c>
       <c r="F720" t="n">
-        <v>0.4004136</v>
+        <v>400.4136</v>
       </c>
     </row>
     <row r="721">
@@ -14783,7 +14783,7 @@
         <v>175.695</v>
       </c>
       <c r="F721" t="n">
-        <v>0.39988182</v>
+        <v>399.88182</v>
       </c>
     </row>
     <row r="722">
@@ -14803,7 +14803,7 @@
         <v>175.725</v>
       </c>
       <c r="F722" t="n">
-        <v>0.400653</v>
+        <v>400.653</v>
       </c>
     </row>
     <row r="723">
@@ -14823,7 +14823,7 @@
         <v>175.8</v>
       </c>
       <c r="F723" t="n">
-        <v>0.400824</v>
+        <v>400.824</v>
       </c>
     </row>
     <row r="724">
@@ -14843,7 +14843,7 @@
         <v>175.845</v>
       </c>
       <c r="F724" t="n">
-        <v>0.4009266000000001</v>
+        <v>400.9266000000001</v>
       </c>
     </row>
     <row r="725">
@@ -14863,7 +14863,7 @@
         <v>175.86</v>
       </c>
       <c r="F725" t="n">
-        <v>0.4009608</v>
+        <v>400.9608</v>
       </c>
     </row>
     <row r="726">
@@ -14883,7 +14883,7 @@
         <v>176.31</v>
       </c>
       <c r="F726" t="n">
-        <v>0.4019868000000001</v>
+        <v>401.9868000000001</v>
       </c>
     </row>
     <row r="727">
@@ -14903,7 +14903,7 @@
         <v>176.775</v>
       </c>
       <c r="F727" t="n">
-        <v>0.4030470000000001</v>
+        <v>403.0470000000001</v>
       </c>
     </row>
     <row r="728">
@@ -14923,7 +14923,7 @@
         <v>177.12</v>
       </c>
       <c r="F728" t="n">
-        <v>0.4038336000000001</v>
+        <v>403.8336000000001</v>
       </c>
     </row>
     <row r="729">
@@ -14943,7 +14943,7 @@
         <v>177.12</v>
       </c>
       <c r="F729" t="n">
-        <v>0.4038336000000001</v>
+        <v>403.8336000000001</v>
       </c>
     </row>
     <row r="730">
@@ -14963,7 +14963,7 @@
         <v>177.06</v>
       </c>
       <c r="F730" t="n">
-        <v>0.4036968000000001</v>
+        <v>403.6968000000001</v>
       </c>
     </row>
     <row r="731">
@@ -14983,7 +14983,7 @@
         <v>177.075</v>
       </c>
       <c r="F731" t="n">
-        <v>0.403731</v>
+        <v>403.731</v>
       </c>
     </row>
     <row r="732">
@@ -15003,7 +15003,7 @@
         <v>177.165</v>
       </c>
       <c r="F732" t="n">
-        <v>0.4039362</v>
+        <v>403.9362</v>
       </c>
     </row>
     <row r="733">
@@ -15023,7 +15023,7 @@
         <v>177.3</v>
       </c>
       <c r="F733" t="n">
-        <v>0.404244</v>
+        <v>404.244</v>
       </c>
     </row>
     <row r="734">
@@ -15043,7 +15043,7 @@
         <v>177.285</v>
       </c>
       <c r="F734" t="n">
-        <v>0.4042098</v>
+        <v>404.2098</v>
       </c>
     </row>
     <row r="735">
@@ -15063,7 +15063,7 @@
         <v>177.375</v>
       </c>
       <c r="F735" t="n">
-        <v>0.4037055000000001</v>
+        <v>403.7055000000001</v>
       </c>
     </row>
     <row r="736">
@@ -15083,7 +15083,7 @@
         <v>177.735</v>
       </c>
       <c r="F736" t="n">
-        <v>0.4052358</v>
+        <v>405.2358</v>
       </c>
     </row>
     <row r="737">
@@ -15103,7 +15103,7 @@
         <v>178.065</v>
       </c>
       <c r="F737" t="n">
-        <v>0.4059882000000001</v>
+        <v>405.9882000000001</v>
       </c>
     </row>
     <row r="738">
@@ -15123,7 +15123,7 @@
         <v>178.32</v>
       </c>
       <c r="F738" t="n">
-        <v>0.4065696</v>
+        <v>406.5696</v>
       </c>
     </row>
     <row r="739">
@@ -15143,7 +15143,7 @@
         <v>178.68</v>
       </c>
       <c r="F739" t="n">
-        <v>0.4073904</v>
+        <v>407.3904</v>
       </c>
     </row>
     <row r="740">
@@ -15163,7 +15163,7 @@
         <v>179.25</v>
       </c>
       <c r="F740" t="n">
-        <v>0.4086900000000001</v>
+        <v>408.6900000000001</v>
       </c>
     </row>
     <row r="741">
@@ -15183,7 +15183,7 @@
         <v>179.76</v>
       </c>
       <c r="F741" t="n">
-        <v>0.41057184</v>
+        <v>410.57184</v>
       </c>
     </row>
     <row r="742">
@@ -15203,7 +15203,7 @@
         <v>180.135</v>
       </c>
       <c r="F742" t="n">
-        <v>0.4114283400000001</v>
+        <v>411.4283400000001</v>
       </c>
     </row>
     <row r="743">
@@ -15223,7 +15223,7 @@
         <v>180.495</v>
       </c>
       <c r="F743" t="n">
-        <v>0.4122505800000001</v>
+        <v>412.2505800000001</v>
       </c>
     </row>
     <row r="744">
@@ -15243,7 +15243,7 @@
         <v>180.99</v>
       </c>
       <c r="F744" t="n">
-        <v>0.4126572</v>
+        <v>412.6572</v>
       </c>
     </row>
     <row r="745">
@@ -15263,7 +15263,7 @@
         <v>181.485</v>
       </c>
       <c r="F745" t="n">
-        <v>0.41451174</v>
+        <v>414.51174</v>
       </c>
     </row>
     <row r="746">
@@ -15283,7 +15283,7 @@
         <v>182.04</v>
       </c>
       <c r="F746" t="n">
-        <v>0.41577936</v>
+        <v>415.77936</v>
       </c>
     </row>
     <row r="747">
@@ -15303,7 +15303,7 @@
         <v>182.925</v>
       </c>
       <c r="F747" t="n">
-        <v>0.417069</v>
+        <v>417.069</v>
       </c>
     </row>
     <row r="748">
@@ -15323,7 +15323,7 @@
         <v>184.02</v>
       </c>
       <c r="F748" t="n">
-        <v>0.4195656</v>
+        <v>419.5656</v>
       </c>
     </row>
     <row r="749">
@@ -15343,7 +15343,7 @@
         <v>184.8</v>
       </c>
       <c r="F749" t="n">
-        <v>0.4220832</v>
+        <v>422.0832</v>
       </c>
     </row>
     <row r="750">
@@ -15363,7 +15363,7 @@
         <v>185.445</v>
       </c>
       <c r="F750" t="n">
-        <v>0.4235563800000001</v>
+        <v>423.5563800000001</v>
       </c>
     </row>
     <row r="751">
@@ -15383,7 +15383,7 @@
         <v>186.12</v>
       </c>
       <c r="F751" t="n">
-        <v>0.42509808</v>
+        <v>425.09808</v>
       </c>
     </row>
     <row r="752">
@@ -15403,7 +15403,7 @@
         <v>188.265</v>
       </c>
       <c r="F752" t="n">
-        <v>0.43075032</v>
+        <v>430.75032</v>
       </c>
     </row>
     <row r="753">
@@ -15423,7 +15423,7 @@
         <v>190.95</v>
       </c>
       <c r="F753" t="n">
-        <v>0.4361298000000001</v>
+        <v>436.1298000000001</v>
       </c>
     </row>
     <row r="754">
@@ -15443,7 +15443,7 @@
         <v>185.865</v>
       </c>
       <c r="F754" t="n">
-        <v>0.42525912</v>
+        <v>425.25912</v>
       </c>
     </row>
     <row r="755">
@@ -15463,7 +15463,7 @@
         <v>190.44</v>
       </c>
       <c r="F755" t="n">
-        <v>0.4357267200000001</v>
+        <v>435.7267200000001</v>
       </c>
     </row>
     <row r="756">
@@ -15483,7 +15483,7 @@
         <v>192.015</v>
       </c>
       <c r="F756" t="n">
-        <v>0.4393303200000001</v>
+        <v>439.3303200000001</v>
       </c>
     </row>
     <row r="757">
@@ -15503,7 +15503,7 @@
         <v>74.355</v>
       </c>
       <c r="F757" t="n">
-        <v>0.16417584</v>
+        <v>164.17584</v>
       </c>
     </row>
     <row r="758">
@@ -15523,7 +15523,7 @@
         <v>36.48</v>
       </c>
       <c r="F758" t="n">
-        <v>0.07996415999999999</v>
+        <v>79.96415999999999</v>
       </c>
     </row>
     <row r="759">
@@ -15543,7 +15543,7 @@
         <v>159.105</v>
       </c>
       <c r="F759" t="n">
-        <v>0.36148656</v>
+        <v>361.48656</v>
       </c>
     </row>
     <row r="760">
@@ -15563,7 +15563,7 @@
         <v>187.29</v>
       </c>
       <c r="F760" t="n">
-        <v>0.42777036</v>
+        <v>427.77036</v>
       </c>
     </row>
     <row r="761">
@@ -15583,7 +15583,7 @@
         <v>185.415</v>
       </c>
       <c r="F761" t="n">
-        <v>0.42348786</v>
+        <v>423.48786</v>
       </c>
     </row>
     <row r="762">
@@ -15603,7 +15603,7 @@
         <v>182.1</v>
       </c>
       <c r="F762" t="n">
-        <v>0.4159164</v>
+        <v>415.9164</v>
       </c>
     </row>
     <row r="763">
@@ -15623,7 +15623,7 @@
         <v>180.855</v>
       </c>
       <c r="F763" t="n">
-        <v>0.4123494</v>
+        <v>412.3494</v>
       </c>
     </row>
     <row r="764">
@@ -15643,7 +15643,7 @@
         <v>180.375</v>
       </c>
       <c r="F764" t="n">
-        <v>0.411255</v>
+        <v>411.255</v>
       </c>
     </row>
     <row r="765">
@@ -15663,7 +15663,7 @@
         <v>179.715</v>
       </c>
       <c r="F765" t="n">
-        <v>0.4097502000000001</v>
+        <v>409.7502000000001</v>
       </c>
     </row>
     <row r="766">
@@ -15683,7 +15683,7 @@
         <v>179.73</v>
       </c>
       <c r="F766" t="n">
-        <v>0.4097844</v>
+        <v>409.7844</v>
       </c>
     </row>
     <row r="767">
@@ -15703,7 +15703,7 @@
         <v>180.885</v>
       </c>
       <c r="F767" t="n">
-        <v>0.41314134</v>
+        <v>413.14134</v>
       </c>
     </row>
     <row r="768">
@@ -15723,7 +15723,7 @@
         <v>182.94</v>
       </c>
       <c r="F768" t="n">
-        <v>0.4171032</v>
+        <v>417.1032</v>
       </c>
     </row>
     <row r="769">
@@ -15743,7 +15743,7 @@
         <v>171.33</v>
       </c>
       <c r="F769" t="n">
-        <v>0.3906324</v>
+        <v>390.6324</v>
       </c>
     </row>
     <row r="770">
@@ -15763,7 +15763,7 @@
         <v>81.78</v>
       </c>
       <c r="F770" t="n">
-        <v>0.18089736</v>
+        <v>180.89736</v>
       </c>
     </row>
     <row r="771">
@@ -15783,7 +15783,7 @@
         <v>78.375</v>
       </c>
       <c r="F771" t="n">
-        <v>0.173052</v>
+        <v>173.052</v>
       </c>
     </row>
     <row r="772">
@@ -15803,7 +15803,7 @@
         <v>163.995</v>
       </c>
       <c r="F772" t="n">
-        <v>0.37194066</v>
+        <v>371.94066</v>
       </c>
     </row>
     <row r="773">
@@ -15823,7 +15823,7 @@
         <v>161.67</v>
       </c>
       <c r="F773" t="n">
-        <v>0.36731424</v>
+        <v>367.31424</v>
       </c>
     </row>
     <row r="774">
@@ -15843,7 +15843,7 @@
         <v>181.605</v>
       </c>
       <c r="F774" t="n">
-        <v>0.4140594</v>
+        <v>414.0594</v>
       </c>
     </row>
     <row r="775">
@@ -15863,7 +15863,7 @@
         <v>177.45</v>
       </c>
       <c r="F775" t="n">
-        <v>0.404586</v>
+        <v>404.586</v>
       </c>
     </row>
     <row r="776">
@@ -15883,7 +15883,7 @@
         <v>175.29</v>
       </c>
       <c r="F776" t="n">
-        <v>0.3989600400000001</v>
+        <v>398.9600400000001</v>
       </c>
     </row>
     <row r="777">
@@ -15903,7 +15903,7 @@
         <v>174.6</v>
       </c>
       <c r="F777" t="n">
-        <v>0.3973896</v>
+        <v>397.3896</v>
       </c>
     </row>
     <row r="778">
@@ -15923,7 +15923,7 @@
         <v>174.09</v>
       </c>
       <c r="F778" t="n">
-        <v>0.39622884</v>
+        <v>396.22884</v>
       </c>
     </row>
     <row r="779">
@@ -15943,7 +15943,7 @@
         <v>173.595</v>
       </c>
       <c r="F779" t="n">
-        <v>0.3951022200000001</v>
+        <v>395.1022200000001</v>
       </c>
     </row>
     <row r="780">
@@ -15963,7 +15963,7 @@
         <v>174.18</v>
       </c>
       <c r="F780" t="n">
-        <v>0.39643368</v>
+        <v>396.43368</v>
       </c>
     </row>
     <row r="781">
@@ -15983,7 +15983,7 @@
         <v>175.56</v>
       </c>
       <c r="F781" t="n">
-        <v>0.3995745600000001</v>
+        <v>399.5745600000001</v>
       </c>
     </row>
     <row r="782">
@@ -16003,7 +16003,7 @@
         <v>169.62</v>
       </c>
       <c r="F782" t="n">
-        <v>0.38605512</v>
+        <v>386.05512</v>
       </c>
     </row>
     <row r="783">
@@ -16023,7 +16023,7 @@
         <v>147.855</v>
       </c>
       <c r="F783" t="n">
-        <v>0.33356088</v>
+        <v>333.56088</v>
       </c>
     </row>
     <row r="784">
@@ -16043,7 +16043,7 @@
         <v>54.51</v>
       </c>
       <c r="F784" t="n">
-        <v>0.12035808</v>
+        <v>120.35808</v>
       </c>
     </row>
     <row r="785">
@@ -16063,7 +16063,7 @@
         <v>96.91499999999999</v>
       </c>
       <c r="F785" t="n">
-        <v>0.21592662</v>
+        <v>215.92662</v>
       </c>
     </row>
     <row r="786">
@@ -16083,7 +16083,7 @@
         <v>178.77</v>
       </c>
       <c r="F786" t="n">
-        <v>0.4075956</v>
+        <v>407.5956</v>
       </c>
     </row>
     <row r="787">
@@ -16103,7 +16103,7 @@
         <v>69.69</v>
       </c>
       <c r="F787" t="n">
-        <v>0.15387552</v>
+        <v>153.87552</v>
       </c>
     </row>
     <row r="788">
@@ -16123,7 +16123,7 @@
         <v>98.145</v>
       </c>
       <c r="F788" t="n">
-        <v>0.21866706</v>
+        <v>218.66706</v>
       </c>
     </row>
     <row r="789">
@@ -16143,7 +16143,7 @@
         <v>136.74</v>
       </c>
       <c r="F789" t="n">
-        <v>0.30793848</v>
+        <v>307.93848</v>
       </c>
     </row>
     <row r="790">
@@ -16163,7 +16163,7 @@
         <v>183.735</v>
       </c>
       <c r="F790" t="n">
-        <v>0.41965074</v>
+        <v>419.65074</v>
       </c>
     </row>
     <row r="791">
@@ -16183,7 +16183,7 @@
         <v>41.34</v>
       </c>
       <c r="F791" t="n">
-        <v>0.09078264</v>
+        <v>90.78264</v>
       </c>
     </row>
     <row r="792">
@@ -16203,7 +16203,7 @@
         <v>125.265</v>
       </c>
       <c r="F792" t="n">
-        <v>0.2810946600000001</v>
+        <v>281.0946600000001</v>
       </c>
     </row>
     <row r="793">
@@ -16223,7 +16223,7 @@
         <v>74.7</v>
       </c>
       <c r="F793" t="n">
-        <v>0.165834</v>
+        <v>165.834</v>
       </c>
     </row>
     <row r="794">
@@ -16243,7 +16243,7 @@
         <v>41.67</v>
       </c>
       <c r="F794" t="n">
-        <v>0.09134064</v>
+        <v>91.34064000000001</v>
       </c>
     </row>
     <row r="795">
@@ -16263,7 +16263,7 @@
         <v>37.725</v>
       </c>
       <c r="F795" t="n">
-        <v>0.082995</v>
+        <v>82.995</v>
       </c>
     </row>
     <row r="796">
@@ -16283,7 +16283,7 @@
         <v>35.67</v>
       </c>
       <c r="F796" t="n">
-        <v>0.07776060000000001</v>
+        <v>77.76060000000001</v>
       </c>
     </row>
     <row r="797">
@@ -16303,7 +16303,7 @@
         <v>105.75</v>
       </c>
       <c r="F797" t="n">
-        <v>0.236034</v>
+        <v>236.034</v>
       </c>
     </row>
     <row r="798">
@@ -16323,7 +16323,7 @@
         <v>182.505</v>
       </c>
       <c r="F798" t="n">
-        <v>0.4161114000000001</v>
+        <v>416.1114000000001</v>
       </c>
     </row>
     <row r="799">
@@ -16343,7 +16343,7 @@
         <v>180.435</v>
       </c>
       <c r="F799" t="n">
-        <v>0.4113918</v>
+        <v>411.3918</v>
       </c>
     </row>
     <row r="800">
@@ -16363,7 +16363,7 @@
         <v>162.09</v>
       </c>
       <c r="F800" t="n">
-        <v>0.3676201200000001</v>
+        <v>367.6201200000001</v>
       </c>
     </row>
     <row r="801">
@@ -16383,7 +16383,7 @@
         <v>178.95</v>
       </c>
       <c r="F801" t="n">
-        <v>0.408006</v>
+        <v>408.006</v>
       </c>
     </row>
     <row r="802">
@@ -16403,7 +16403,7 @@
         <v>177.525</v>
       </c>
       <c r="F802" t="n">
-        <v>0.4040469</v>
+        <v>404.0469</v>
       </c>
     </row>
     <row r="803">
@@ -16423,7 +16423,7 @@
         <v>134.895</v>
       </c>
       <c r="F803" t="n">
-        <v>0.30324396</v>
+        <v>303.24396</v>
       </c>
     </row>
     <row r="804">
@@ -16443,7 +16443,7 @@
         <v>127.2</v>
       </c>
       <c r="F804" t="n">
-        <v>0.2864544</v>
+        <v>286.4544</v>
       </c>
     </row>
     <row r="805">
@@ -16463,7 +16463,7 @@
         <v>39.135</v>
       </c>
       <c r="F805" t="n">
-        <v>0.08547083999999999</v>
+        <v>85.47084</v>
       </c>
     </row>
     <row r="806">
@@ -16483,7 +16483,7 @@
         <v>51.69</v>
       </c>
       <c r="F806" t="n">
-        <v>0.11351124</v>
+        <v>113.51124</v>
       </c>
     </row>
     <row r="807">
@@ -16503,7 +16503,7 @@
         <v>123.36</v>
       </c>
       <c r="F807" t="n">
-        <v>0.27681984</v>
+        <v>276.81984</v>
       </c>
     </row>
     <row r="808">
@@ -16523,7 +16523,7 @@
         <v>169.695</v>
       </c>
       <c r="F808" t="n">
-        <v>0.3855470400000001</v>
+        <v>385.5470400000001</v>
       </c>
     </row>
     <row r="809">
@@ -16543,7 +16543,7 @@
         <v>104.79</v>
       </c>
       <c r="F809" t="n">
-        <v>0.2347296</v>
+        <v>234.7296</v>
       </c>
     </row>
     <row r="810">
@@ -16563,7 +16563,7 @@
         <v>98.985</v>
       </c>
       <c r="F810" t="n">
-        <v>0.22053858</v>
+        <v>220.53858</v>
       </c>
     </row>
     <row r="811">
@@ -16583,7 +16583,7 @@
         <v>147.165</v>
       </c>
       <c r="F811" t="n">
-        <v>0.3320042400000001</v>
+        <v>332.0042400000001</v>
       </c>
     </row>
     <row r="812">
@@ -16603,7 +16603,7 @@
         <v>116.505</v>
       </c>
       <c r="F812" t="n">
-        <v>0.2609712</v>
+        <v>260.9712</v>
       </c>
     </row>
     <row r="813">
@@ -16623,7 +16623,7 @@
         <v>36.195</v>
       </c>
       <c r="F813" t="n">
-        <v>0.07890510000000001</v>
+        <v>78.9051</v>
       </c>
     </row>
     <row r="814">
@@ -16643,7 +16643,7 @@
         <v>86.45999999999999</v>
       </c>
       <c r="F814" t="n">
-        <v>0.19228704</v>
+        <v>192.28704</v>
       </c>
     </row>
     <row r="815">
@@ -16663,7 +16663,7 @@
         <v>158.775</v>
       </c>
       <c r="F815" t="n">
-        <v>0.3594666</v>
+        <v>359.4666</v>
       </c>
     </row>
     <row r="816">
@@ -16683,7 +16683,7 @@
         <v>67.95</v>
       </c>
       <c r="F816" t="n">
-        <v>0.1503054</v>
+        <v>150.3054</v>
       </c>
     </row>
     <row r="817">
@@ -16703,7 +16703,7 @@
         <v>64.33499999999999</v>
       </c>
       <c r="F817" t="n">
-        <v>0.14179434</v>
+        <v>141.79434</v>
       </c>
     </row>
     <row r="818">
@@ -16723,7 +16723,7 @@
         <v>42.765</v>
       </c>
       <c r="F818" t="n">
-        <v>0.09374088</v>
+        <v>93.74088</v>
       </c>
     </row>
     <row r="819">
@@ -16743,7 +16743,7 @@
         <v>47.58</v>
       </c>
       <c r="F819" t="n">
-        <v>0.10429536</v>
+        <v>104.29536</v>
       </c>
     </row>
     <row r="820">
@@ -16763,7 +16763,7 @@
         <v>36.945</v>
       </c>
       <c r="F820" t="n">
-        <v>0.08083566</v>
+        <v>80.83566</v>
       </c>
     </row>
     <row r="821">
@@ -16783,7 +16783,7 @@
         <v>32.775</v>
       </c>
       <c r="F821" t="n">
-        <v>0.07158060000000001</v>
+        <v>71.5806</v>
       </c>
     </row>
     <row r="822">
@@ -16803,7 +16803,7 @@
         <v>30.105</v>
       </c>
       <c r="F822" t="n">
-        <v>0.06574932000000001</v>
+        <v>65.74932000000001</v>
       </c>
     </row>
     <row r="823">
@@ -16823,7 +16823,7 @@
         <v>29.58</v>
       </c>
       <c r="F823" t="n">
-        <v>0.06401112</v>
+        <v>64.01112000000001</v>
       </c>
     </row>
     <row r="824">
@@ -16843,7 +16843,7 @@
         <v>29.625</v>
       </c>
       <c r="F824" t="n">
-        <v>0.0652935</v>
+        <v>65.29350000000001</v>
       </c>
     </row>
     <row r="825">
@@ -16863,7 +16863,7 @@
         <v>29.625</v>
       </c>
       <c r="F825" t="n">
-        <v>0.06470100000000001</v>
+        <v>64.70100000000001</v>
       </c>
     </row>
     <row r="826">
@@ -16883,7 +16883,7 @@
         <v>30.36</v>
       </c>
       <c r="F826" t="n">
-        <v>0.06594192000000001</v>
+        <v>65.94192000000001</v>
       </c>
     </row>
     <row r="827">
@@ -16903,7 +16903,7 @@
         <v>31.5</v>
       </c>
       <c r="F827" t="n">
-        <v>0.06866999999999999</v>
+        <v>68.67</v>
       </c>
     </row>
     <row r="828">
@@ -16923,7 +16923,7 @@
         <v>33.405</v>
       </c>
       <c r="F828" t="n">
-        <v>0.07309014000000001</v>
+        <v>73.09014000000001</v>
       </c>
     </row>
     <row r="829">
@@ -16943,7 +16943,7 @@
         <v>34.905</v>
       </c>
       <c r="F829" t="n">
-        <v>0.07637214000000001</v>
+        <v>76.37214</v>
       </c>
     </row>
     <row r="830">
@@ -16963,7 +16963,7 @@
         <v>35.13</v>
       </c>
       <c r="F830" t="n">
-        <v>0.07700496</v>
+        <v>77.00496</v>
       </c>
     </row>
     <row r="831">
@@ -16983,7 +16983,7 @@
         <v>38.205</v>
       </c>
       <c r="F831" t="n">
-        <v>0.08359253999999999</v>
+        <v>83.59254</v>
       </c>
     </row>
     <row r="832">
@@ -17003,7 +17003,7 @@
         <v>34.11</v>
       </c>
       <c r="F832" t="n">
-        <v>0.07463268000000001</v>
+        <v>74.63268000000001</v>
       </c>
     </row>
     <row r="833">
@@ -17023,7 +17023,7 @@
         <v>32.385</v>
       </c>
       <c r="F833" t="n">
-        <v>0.07046975999999999</v>
+        <v>70.46975999999999</v>
       </c>
     </row>
     <row r="834">
@@ -17043,7 +17043,7 @@
         <v>32.58</v>
       </c>
       <c r="F834" t="n">
-        <v>0.0710244</v>
+        <v>71.0244</v>
       </c>
     </row>
     <row r="835">
@@ -17063,7 +17063,7 @@
         <v>32.67</v>
       </c>
       <c r="F835" t="n">
-        <v>0.07108992</v>
+        <v>71.08992000000001</v>
       </c>
     </row>
     <row r="836">
@@ -17083,7 +17083,7 @@
         <v>32.88</v>
       </c>
       <c r="F836" t="n">
-        <v>0.07207295999999999</v>
+        <v>72.07295999999999</v>
       </c>
     </row>
     <row r="837">
@@ -17103,7 +17103,7 @@
         <v>33</v>
       </c>
       <c r="F837" t="n">
-        <v>0.07180800000000001</v>
+        <v>71.80800000000001</v>
       </c>
     </row>
     <row r="838">
@@ -17123,7 +17123,7 @@
         <v>36.72</v>
       </c>
       <c r="F838" t="n">
-        <v>0.08063712000000001</v>
+        <v>80.63712000000001</v>
       </c>
     </row>
     <row r="839">
@@ -17143,7 +17143,7 @@
         <v>49.29</v>
       </c>
       <c r="F839" t="n">
-        <v>0.10804368</v>
+        <v>108.04368</v>
       </c>
     </row>
     <row r="840">
@@ -17163,7 +17163,7 @@
         <v>45.18</v>
       </c>
       <c r="F840" t="n">
-        <v>0.09921528</v>
+        <v>99.21528000000001</v>
       </c>
     </row>
     <row r="841">
@@ -17183,7 +17183,7 @@
         <v>85.05</v>
       </c>
       <c r="F841" t="n">
-        <v>0.188811</v>
+        <v>188.811</v>
       </c>
     </row>
     <row r="842">
@@ -17203,7 +17203,7 @@
         <v>45.645</v>
       </c>
       <c r="F842" t="n">
-        <v>0.100419</v>
+        <v>100.419</v>
       </c>
     </row>
     <row r="843">
@@ -17223,7 +17223,7 @@
         <v>33.99</v>
       </c>
       <c r="F843" t="n">
-        <v>0.07464204000000001</v>
+        <v>74.64204000000001</v>
       </c>
     </row>
     <row r="844">
@@ -17243,7 +17243,7 @@
         <v>30.915</v>
       </c>
       <c r="F844" t="n">
-        <v>0.06690006</v>
+        <v>66.90006</v>
       </c>
     </row>
     <row r="845">
@@ -17263,7 +17263,7 @@
         <v>30.12</v>
       </c>
       <c r="F845" t="n">
-        <v>0.06590256</v>
+        <v>65.90255999999999</v>
       </c>
     </row>
     <row r="846">
@@ -17283,7 +17283,7 @@
         <v>30.6</v>
       </c>
       <c r="F846" t="n">
-        <v>0.0668304</v>
+        <v>66.8304</v>
       </c>
     </row>
     <row r="847">
@@ -17303,7 +17303,7 @@
         <v>29.22</v>
       </c>
       <c r="F847" t="n">
-        <v>0.06405024000000001</v>
+        <v>64.05024</v>
       </c>
     </row>
     <row r="848">
@@ -17323,7 +17323,7 @@
         <v>29.73</v>
       </c>
       <c r="F848" t="n">
-        <v>0.06552492000000001</v>
+        <v>65.52492000000001</v>
       </c>
     </row>
     <row r="849">
@@ -17343,7 +17343,7 @@
         <v>30.885</v>
       </c>
       <c r="F849" t="n">
-        <v>0.06720576</v>
+        <v>67.20576</v>
       </c>
     </row>
     <row r="850">
@@ -17363,7 +17363,7 @@
         <v>34.755</v>
       </c>
       <c r="F850" t="n">
-        <v>0.07562687999999999</v>
+        <v>75.62688</v>
       </c>
     </row>
     <row r="851">
@@ -17383,7 +17383,7 @@
         <v>38.865</v>
       </c>
       <c r="F851" t="n">
-        <v>0.08503662000000001</v>
+        <v>85.03662000000001</v>
       </c>
     </row>
     <row r="852">
@@ -17403,7 +17403,7 @@
         <v>76.72499999999999</v>
       </c>
       <c r="F852" t="n">
-        <v>0.1697157</v>
+        <v>169.7157</v>
       </c>
     </row>
     <row r="853">
@@ -17423,7 +17423,7 @@
         <v>39.345</v>
       </c>
       <c r="F853" t="n">
-        <v>0.0857721</v>
+        <v>85.77210000000001</v>
       </c>
     </row>
     <row r="854">
@@ -17443,7 +17443,7 @@
         <v>33.225</v>
       </c>
       <c r="F854" t="n">
-        <v>0.07309500000000001</v>
+        <v>73.09500000000001</v>
       </c>
     </row>
     <row r="855">
@@ -17463,7 +17463,7 @@
         <v>31.185</v>
       </c>
       <c r="F855" t="n">
-        <v>0.06835752</v>
+        <v>68.35752000000001</v>
       </c>
     </row>
     <row r="856">
@@ -17483,7 +17483,7 @@
         <v>29.49</v>
       </c>
       <c r="F856" t="n">
-        <v>0.0636984</v>
+        <v>63.6984</v>
       </c>
     </row>
     <row r="857">
@@ -17503,7 +17503,7 @@
         <v>28.485</v>
       </c>
       <c r="F857" t="n">
-        <v>0.0620973</v>
+        <v>62.0973</v>
       </c>
     </row>
     <row r="858">
@@ -17523,7 +17523,7 @@
         <v>28.74</v>
       </c>
       <c r="F858" t="n">
-        <v>0.06311304</v>
+        <v>63.11304</v>
       </c>
     </row>
     <row r="859">
@@ -17543,7 +17543,7 @@
         <v>29.325</v>
       </c>
       <c r="F859" t="n">
-        <v>0.06357660000000001</v>
+        <v>63.57660000000001</v>
       </c>
     </row>
     <row r="860">
@@ -17563,7 +17563,7 @@
         <v>29.295</v>
       </c>
       <c r="F860" t="n">
-        <v>0.06409745999999999</v>
+        <v>64.09746</v>
       </c>
     </row>
     <row r="861">
@@ -17583,7 +17583,7 @@
         <v>28.32</v>
       </c>
       <c r="F861" t="n">
-        <v>0.06275712000000001</v>
+        <v>62.75712000000001</v>
       </c>
     </row>
     <row r="862">
@@ -17603,7 +17603,7 @@
         <v>28.455</v>
       </c>
       <c r="F862" t="n">
-        <v>0.06248718</v>
+        <v>62.48718</v>
       </c>
     </row>
     <row r="863">
@@ -17623,7 +17623,7 @@
         <v>27.645</v>
       </c>
       <c r="F863" t="n">
-        <v>0.06092958</v>
+        <v>60.92957999999999</v>
       </c>
     </row>
     <row r="864">
@@ -17643,7 +17643,7 @@
         <v>26.415</v>
       </c>
       <c r="F864" t="n">
-        <v>0.05737338</v>
+        <v>57.37338</v>
       </c>
     </row>
     <row r="865">
@@ -17663,7 +17663,7 @@
         <v>25.275</v>
       </c>
       <c r="F865" t="n">
-        <v>0.0546951</v>
+        <v>54.6951</v>
       </c>
     </row>
     <row r="866">
@@ -17683,7 +17683,7 @@
         <v>24.075</v>
       </c>
       <c r="F866" t="n">
-        <v>0.0528687</v>
+        <v>52.8687</v>
       </c>
     </row>
     <row r="867">
@@ -17703,7 +17703,7 @@
         <v>23.385</v>
       </c>
       <c r="F867" t="n">
-        <v>0.05135346</v>
+        <v>51.35346</v>
       </c>
     </row>
     <row r="868">
@@ -17723,7 +17723,7 @@
         <v>23.205</v>
       </c>
       <c r="F868" t="n">
-        <v>0.05067972</v>
+        <v>50.67972</v>
       </c>
     </row>
     <row r="869">
@@ -17743,7 +17743,7 @@
         <v>23.22</v>
       </c>
       <c r="F869" t="n">
-        <v>0.05071248</v>
+        <v>50.71248</v>
       </c>
     </row>
     <row r="870">
@@ -17763,7 +17763,7 @@
         <v>23.49</v>
       </c>
       <c r="F870" t="n">
-        <v>0.05167799999999999</v>
+        <v>51.67799999999999</v>
       </c>
     </row>
     <row r="871">
@@ -17783,7 +17783,7 @@
         <v>23.715</v>
       </c>
       <c r="F871" t="n">
-        <v>0.05093982</v>
+        <v>50.93982</v>
       </c>
     </row>
     <row r="872">
@@ -17803,7 +17803,7 @@
         <v>23.835</v>
       </c>
       <c r="F872" t="n">
-        <v>0.05224632000000001</v>
+        <v>52.24632000000001</v>
       </c>
     </row>
     <row r="873">
@@ -17823,7 +17823,7 @@
         <v>23.715</v>
       </c>
       <c r="F873" t="n">
-        <v>0.05179356000000001</v>
+        <v>51.79356000000001</v>
       </c>
     </row>
     <row r="874">
@@ -17843,7 +17843,7 @@
         <v>23.655</v>
       </c>
       <c r="F874" t="n">
-        <v>0.052041</v>
+        <v>52.041</v>
       </c>
     </row>
     <row r="875">
@@ -17863,7 +17863,7 @@
         <v>23.475</v>
       </c>
       <c r="F875" t="n">
-        <v>0.0514572</v>
+        <v>51.4572</v>
       </c>
     </row>
     <row r="876">
@@ -17883,7 +17883,7 @@
         <v>23.595</v>
       </c>
       <c r="F876" t="n">
-        <v>0.0514371</v>
+        <v>51.4371</v>
       </c>
     </row>
     <row r="877">
@@ -17903,7 +17903,7 @@
         <v>23.595</v>
       </c>
       <c r="F877" t="n">
-        <v>0.05105958000000001</v>
+        <v>51.05958</v>
       </c>
     </row>
     <row r="878">
@@ -17923,7 +17923,7 @@
         <v>23.76</v>
       </c>
       <c r="F878" t="n">
-        <v>0.05160672</v>
+        <v>51.60672</v>
       </c>
     </row>
     <row r="879">
@@ -17943,7 +17943,7 @@
         <v>24</v>
       </c>
       <c r="F879" t="n">
-        <v>0.05270400000000001</v>
+        <v>52.70400000000001</v>
       </c>
     </row>
     <row r="880">
@@ -17963,7 +17963,7 @@
         <v>24.06</v>
       </c>
       <c r="F880" t="n">
-        <v>0.05254704</v>
+        <v>52.54704</v>
       </c>
     </row>
     <row r="881">
@@ -17983,7 +17983,7 @@
         <v>24.255</v>
       </c>
       <c r="F881" t="n">
-        <v>0.05297292</v>
+        <v>52.97292</v>
       </c>
     </row>
     <row r="882">
@@ -18003,7 +18003,7 @@
         <v>24.42</v>
       </c>
       <c r="F882" t="n">
-        <v>0.05343096</v>
+        <v>53.43096</v>
       </c>
     </row>
     <row r="883">
@@ -18023,7 +18023,7 @@
         <v>24.435</v>
       </c>
       <c r="F883" t="n">
-        <v>0.05414796</v>
+        <v>54.14796</v>
       </c>
     </row>
     <row r="884">
@@ -18043,7 +18043,7 @@
         <v>24.48</v>
       </c>
       <c r="F884" t="n">
-        <v>0.05297472</v>
+        <v>52.97472</v>
       </c>
     </row>
     <row r="885">
@@ -18063,7 +18063,7 @@
         <v>24.63</v>
       </c>
       <c r="F885" t="n">
-        <v>0.0536934</v>
+        <v>53.6934</v>
       </c>
     </row>
     <row r="886">
@@ -18083,7 +18083,7 @@
         <v>24.06</v>
       </c>
       <c r="F886" t="n">
-        <v>0.05264328000000001</v>
+        <v>52.64328</v>
       </c>
     </row>
     <row r="887">
@@ -18103,7 +18103,7 @@
         <v>22.95</v>
       </c>
       <c r="F887" t="n">
-        <v>0.0501228</v>
+        <v>50.12280000000001</v>
       </c>
     </row>
     <row r="888">
@@ -18123,7 +18123,7 @@
         <v>21.93</v>
       </c>
       <c r="F888" t="n">
-        <v>0.04833372</v>
+        <v>48.33372</v>
       </c>
     </row>
     <row r="889">
@@ -18143,7 +18143,7 @@
         <v>21.255</v>
       </c>
       <c r="F889" t="n">
-        <v>0.04616586</v>
+        <v>46.16586</v>
       </c>
     </row>
     <row r="890">
@@ -18163,7 +18163,7 @@
         <v>20.91</v>
       </c>
       <c r="F890" t="n">
-        <v>0.04516560000000001</v>
+        <v>45.1656</v>
       </c>
     </row>
     <row r="891">
@@ -18183,7 +18183,7 @@
         <v>21.315</v>
       </c>
       <c r="F891" t="n">
-        <v>0.04646669999999999</v>
+        <v>46.4667</v>
       </c>
     </row>
     <row r="892">
@@ -18203,7 +18203,7 @@
         <v>22.485</v>
       </c>
       <c r="F892" t="n">
-        <v>0.04919718</v>
+        <v>49.19718</v>
       </c>
     </row>
     <row r="893">
@@ -18223,7 +18223,7 @@
         <v>23.535</v>
       </c>
       <c r="F893" t="n">
-        <v>0.05121216000000001</v>
+        <v>51.21216</v>
       </c>
     </row>
     <row r="894">
@@ -18243,7 +18243,7 @@
         <v>23.79</v>
       </c>
       <c r="F894" t="n">
-        <v>0.05157672</v>
+        <v>51.57672</v>
       </c>
     </row>
     <row r="895">
@@ -18263,7 +18263,7 @@
         <v>23.61</v>
       </c>
       <c r="F895" t="n">
-        <v>0.05090316</v>
+        <v>50.90316</v>
       </c>
     </row>
     <row r="896">
@@ -18283,7 +18283,7 @@
         <v>23.325</v>
       </c>
       <c r="F896" t="n">
-        <v>0.0509418</v>
+        <v>50.9418</v>
       </c>
     </row>
     <row r="897">
@@ -18303,7 +18303,7 @@
         <v>23.07</v>
       </c>
       <c r="F897" t="n">
-        <v>0.05020032000000001</v>
+        <v>50.20032</v>
       </c>
     </row>
     <row r="898">
@@ -18323,7 +18323,7 @@
         <v>22.92</v>
       </c>
       <c r="F898" t="n">
-        <v>0.0499656</v>
+        <v>49.9656</v>
       </c>
     </row>
     <row r="899">
@@ -18343,7 +18343,7 @@
         <v>22.89</v>
       </c>
       <c r="F899" t="n">
-        <v>0.05026644</v>
+        <v>50.26644</v>
       </c>
     </row>
     <row r="900">
@@ -18363,7 +18363,7 @@
         <v>23.01</v>
       </c>
       <c r="F900" t="n">
-        <v>0.05034588</v>
+        <v>50.34588</v>
       </c>
     </row>
     <row r="901">
@@ -18383,7 +18383,7 @@
         <v>23.1</v>
       </c>
       <c r="F901" t="n">
-        <v>0.05082</v>
+        <v>50.82</v>
       </c>
     </row>
     <row r="902">
@@ -18403,7 +18403,7 @@
         <v>22.71</v>
       </c>
       <c r="F902" t="n">
-        <v>0.04887192000000001</v>
+        <v>48.87192000000001</v>
       </c>
     </row>
     <row r="903">
@@ -18423,7 +18423,7 @@
         <v>21.99</v>
       </c>
       <c r="F903" t="n">
-        <v>0.04802616</v>
+        <v>48.02616</v>
       </c>
     </row>
     <row r="904">
@@ -18443,7 +18443,7 @@
         <v>21.24</v>
       </c>
       <c r="F904" t="n">
-        <v>0.04570848</v>
+        <v>45.70848</v>
       </c>
     </row>
     <row r="905">
@@ -18463,7 +18463,7 @@
         <v>20.55</v>
       </c>
       <c r="F905" t="n">
-        <v>0.0441414</v>
+        <v>44.1414</v>
       </c>
     </row>
     <row r="906">
@@ -18483,7 +18483,7 @@
         <v>19.935</v>
       </c>
       <c r="F906" t="n">
-        <v>0.04361778</v>
+        <v>43.61778</v>
       </c>
     </row>
     <row r="907">
@@ -18503,7 +18503,7 @@
         <v>19.41</v>
       </c>
       <c r="F907" t="n">
-        <v>0.042702</v>
+        <v>42.702</v>
       </c>
     </row>
     <row r="908">
@@ -18523,7 +18523,7 @@
         <v>19.08</v>
       </c>
       <c r="F908" t="n">
-        <v>0.0412128</v>
+        <v>41.2128</v>
       </c>
     </row>
     <row r="909">
@@ -18543,7 +18543,7 @@
         <v>19.38</v>
       </c>
       <c r="F909" t="n">
-        <v>0.04286856</v>
+        <v>42.86856</v>
       </c>
     </row>
     <row r="910">
@@ -18563,7 +18563,7 @@
         <v>20.1</v>
       </c>
       <c r="F910" t="n">
-        <v>0.0433356</v>
+        <v>43.3356</v>
       </c>
     </row>
     <row r="911">
@@ -18583,7 +18583,7 @@
         <v>20.67</v>
       </c>
       <c r="F911" t="n">
-        <v>0.04522596</v>
+        <v>45.22596</v>
       </c>
     </row>
     <row r="912">
@@ -18603,7 +18603,7 @@
         <v>21.045</v>
       </c>
       <c r="F912" t="n">
-        <v>0.0458781</v>
+        <v>45.8781</v>
       </c>
     </row>
     <row r="913">
@@ -18623,7 +18623,7 @@
         <v>21.225</v>
       </c>
       <c r="F913" t="n">
-        <v>0.04610069999999999</v>
+        <v>46.10069999999999</v>
       </c>
     </row>
     <row r="914">
@@ -18643,7 +18643,7 @@
         <v>21.225</v>
       </c>
       <c r="F914" t="n">
-        <v>0.0464403</v>
+        <v>46.44029999999999</v>
       </c>
     </row>
     <row r="915">
@@ -18663,7 +18663,7 @@
         <v>21.33</v>
       </c>
       <c r="F915" t="n">
-        <v>0.04624344</v>
+        <v>46.24344</v>
       </c>
     </row>
     <row r="916">
@@ -18683,7 +18683,7 @@
         <v>21.405</v>
       </c>
       <c r="F916" t="n">
-        <v>0.04589232</v>
+        <v>45.89232</v>
       </c>
     </row>
     <row r="917">
@@ -18703,7 +18703,7 @@
         <v>21.39</v>
       </c>
       <c r="F917" t="n">
-        <v>0.04577460000000001</v>
+        <v>45.77460000000001</v>
       </c>
     </row>
     <row r="918">
@@ -18723,7 +18723,7 @@
         <v>21.165</v>
       </c>
       <c r="F918" t="n">
-        <v>0.04588572</v>
+        <v>45.88572</v>
       </c>
     </row>
     <row r="919">
@@ -18743,7 +18743,7 @@
         <v>20.85</v>
       </c>
       <c r="F919" t="n">
-        <v>0.0455364</v>
+        <v>45.5364</v>
       </c>
     </row>
     <row r="920">
@@ -18763,7 +18763,7 @@
         <v>20.475</v>
       </c>
       <c r="F920" t="n">
-        <v>0.0447174</v>
+        <v>44.7174</v>
       </c>
     </row>
     <row r="921">
@@ -18783,7 +18783,7 @@
         <v>20.16</v>
       </c>
       <c r="F921" t="n">
-        <v>0.0439488</v>
+        <v>43.94880000000001</v>
       </c>
     </row>
     <row r="922">
@@ -18803,7 +18803,7 @@
         <v>20.16</v>
       </c>
       <c r="F922" t="n">
-        <v>0.04338432</v>
+        <v>43.38432</v>
       </c>
     </row>
     <row r="923">
@@ -18823,7 +18823,7 @@
         <v>20.97</v>
       </c>
       <c r="F923" t="n">
-        <v>0.04579848</v>
+        <v>45.79848</v>
       </c>
     </row>
     <row r="924">
@@ -18843,7 +18843,7 @@
         <v>21.06</v>
       </c>
       <c r="F924" t="n">
-        <v>0.04624776</v>
+        <v>46.24776</v>
       </c>
     </row>
     <row r="925">
@@ -18863,7 +18863,7 @@
         <v>20.865</v>
       </c>
       <c r="F925" t="n">
-        <v>0.04573608</v>
+        <v>45.73608</v>
       </c>
     </row>
     <row r="926">
@@ -18883,7 +18883,7 @@
         <v>20.64</v>
       </c>
       <c r="F926" t="n">
-        <v>0.04532544000000001</v>
+        <v>45.32544000000001</v>
       </c>
     </row>
     <row r="927">
@@ -18903,7 +18903,7 @@
         <v>20.43</v>
       </c>
       <c r="F927" t="n">
-        <v>0.04494600000000001</v>
+        <v>44.94600000000001</v>
       </c>
     </row>
     <row r="928">
@@ -18923,7 +18923,7 @@
         <v>20.16</v>
       </c>
       <c r="F928" t="n">
-        <v>0.04378752</v>
+        <v>43.78752</v>
       </c>
     </row>
     <row r="929">
@@ -18943,7 +18943,7 @@
         <v>19.92</v>
       </c>
       <c r="F929" t="n">
-        <v>0.0430272</v>
+        <v>43.0272</v>
       </c>
     </row>
     <row r="930">
@@ -18963,7 +18963,7 @@
         <v>19.68</v>
       </c>
       <c r="F930" t="n">
-        <v>0.0429024</v>
+        <v>42.9024</v>
       </c>
     </row>
     <row r="931">
@@ -18983,7 +18983,7 @@
         <v>19.125</v>
       </c>
       <c r="F931" t="n">
-        <v>0.042228</v>
+        <v>42.228</v>
       </c>
     </row>
     <row r="932">
@@ -19003,7 +19003,7 @@
         <v>18.195</v>
       </c>
       <c r="F932" t="n">
-        <v>0.0389373</v>
+        <v>38.9373</v>
       </c>
     </row>
     <row r="933">
@@ -19023,7 +19023,7 @@
         <v>17.16</v>
       </c>
       <c r="F933" t="n">
-        <v>0.03754608</v>
+        <v>37.54608</v>
       </c>
     </row>
     <row r="934">
@@ -19043,7 +19043,7 @@
         <v>16.23</v>
       </c>
       <c r="F934" t="n">
-        <v>0.03564108000000001</v>
+        <v>35.64108000000001</v>
       </c>
     </row>
     <row r="935">
@@ -19063,7 +19063,7 @@
         <v>15.48</v>
       </c>
       <c r="F935" t="n">
-        <v>0.03349872</v>
+        <v>33.49872000000001</v>
       </c>
     </row>
     <row r="936">
@@ -19083,7 +19083,7 @@
         <v>14.955</v>
       </c>
       <c r="F936" t="n">
-        <v>0.03314028</v>
+        <v>33.14028</v>
       </c>
     </row>
     <row r="937">
@@ -19103,7 +19103,7 @@
         <v>14.445</v>
       </c>
       <c r="F937" t="n">
-        <v>0.03172122</v>
+        <v>31.72122</v>
       </c>
     </row>
     <row r="938">
@@ -19123,7 +19123,7 @@
         <v>14.025</v>
       </c>
       <c r="F938" t="n">
-        <v>0.0311916</v>
+        <v>31.1916</v>
       </c>
     </row>
     <row r="939">
@@ -19143,7 +19143,7 @@
         <v>13.695</v>
       </c>
       <c r="F939" t="n">
-        <v>0.02941686</v>
+        <v>29.41686</v>
       </c>
     </row>
     <row r="940">
@@ -19163,7 +19163,7 @@
         <v>13.5</v>
       </c>
       <c r="F940" t="n">
-        <v>0.028998</v>
+        <v>28.998</v>
       </c>
     </row>
     <row r="941">
@@ -19183,7 +19183,7 @@
         <v>13.47</v>
       </c>
       <c r="F941" t="n">
-        <v>0.02941848</v>
+        <v>29.41848</v>
       </c>
     </row>
     <row r="942">
@@ -19203,7 +19203,7 @@
         <v>13.635</v>
       </c>
       <c r="F942" t="n">
-        <v>0.02977884</v>
+        <v>29.77884</v>
       </c>
     </row>
     <row r="943">
@@ -19223,7 +19223,7 @@
         <v>14.01</v>
       </c>
       <c r="F943" t="n">
-        <v>0.03020556</v>
+        <v>30.20556</v>
       </c>
     </row>
     <row r="944">
@@ -19243,7 +19243,7 @@
         <v>14.625</v>
       </c>
       <c r="F944" t="n">
-        <v>0.0323505</v>
+        <v>32.3505</v>
       </c>
     </row>
     <row r="945">
@@ -19263,7 +19263,7 @@
         <v>15.345</v>
       </c>
       <c r="F945" t="n">
-        <v>0.03326796</v>
+        <v>33.26796</v>
       </c>
     </row>
     <row r="946">
@@ -19283,7 +19283,7 @@
         <v>16.05</v>
       </c>
       <c r="F946" t="n">
-        <v>0.03511740000000001</v>
+        <v>35.1174</v>
       </c>
     </row>
     <row r="947">
@@ -19303,7 +19303,7 @@
         <v>16.755</v>
       </c>
       <c r="F947" t="n">
-        <v>0.03632484</v>
+        <v>36.32483999999999</v>
       </c>
     </row>
     <row r="948">
@@ -19323,7 +19323,7 @@
         <v>17.295</v>
       </c>
       <c r="F948" t="n">
-        <v>0.03784146</v>
+        <v>37.84146</v>
       </c>
     </row>
     <row r="949">
@@ -19343,7 +19343,7 @@
         <v>17.745</v>
       </c>
       <c r="F949" t="n">
-        <v>0.03818724</v>
+        <v>38.18724</v>
       </c>
     </row>
     <row r="950">
@@ -19363,7 +19363,7 @@
         <v>18.33</v>
       </c>
       <c r="F950" t="n">
-        <v>0.04017936</v>
+        <v>40.17936</v>
       </c>
     </row>
     <row r="951">
@@ -19383,7 +19383,7 @@
         <v>18.99</v>
       </c>
       <c r="F951" t="n">
-        <v>0.04109436</v>
+        <v>41.09436</v>
       </c>
     </row>
     <row r="952">
@@ -19403,7 +19403,7 @@
         <v>19.665</v>
       </c>
       <c r="F952" t="n">
-        <v>0.043263</v>
+        <v>43.26300000000001</v>
       </c>
     </row>
     <row r="953">
@@ -19423,7 +19423,7 @@
         <v>20.385</v>
       </c>
       <c r="F953" t="n">
-        <v>0.04395006</v>
+        <v>43.95006</v>
       </c>
     </row>
     <row r="954">
@@ -19443,7 +19443,7 @@
         <v>21.165</v>
       </c>
       <c r="F954" t="n">
-        <v>0.04630902000000001</v>
+        <v>46.30902000000001</v>
       </c>
     </row>
     <row r="955">
@@ -19463,7 +19463,7 @@
         <v>21.96</v>
       </c>
       <c r="F955" t="n">
-        <v>0.04787280000000001</v>
+        <v>47.87280000000001</v>
       </c>
     </row>
     <row r="956">
@@ -19483,7 +19483,7 @@
         <v>22.65</v>
       </c>
       <c r="F956" t="n">
-        <v>0.05001120000000001</v>
+        <v>50.01120000000001</v>
       </c>
     </row>
     <row r="957">
@@ -19503,7 +19503,7 @@
         <v>23.085</v>
       </c>
       <c r="F957" t="n">
-        <v>0.05087934000000001</v>
+        <v>50.87934000000001</v>
       </c>
     </row>
     <row r="958">
@@ -19523,7 +19523,7 @@
         <v>23.295</v>
       </c>
       <c r="F958" t="n">
-        <v>0.05096946</v>
+        <v>50.96946</v>
       </c>
     </row>
     <row r="959">
@@ -19543,7 +19543,7 @@
         <v>23.205</v>
       </c>
       <c r="F959" t="n">
-        <v>0.05030844</v>
+        <v>50.30844</v>
       </c>
     </row>
     <row r="960">
@@ -19563,7 +19563,7 @@
         <v>22.86</v>
       </c>
       <c r="F960" t="n">
-        <v>0.0493776</v>
+        <v>49.3776</v>
       </c>
     </row>
     <row r="961">
@@ -19583,7 +19583,7 @@
         <v>22.29</v>
       </c>
       <c r="F961" t="n">
-        <v>0.04868136000000001</v>
+        <v>48.68136000000001</v>
       </c>
     </row>
     <row r="962">
@@ -19603,7 +19603,7 @@
         <v>21.69</v>
       </c>
       <c r="F962" t="n">
-        <v>0.04763124</v>
+        <v>47.63124</v>
       </c>
     </row>
     <row r="963">
@@ -19623,7 +19623,7 @@
         <v>21.42</v>
       </c>
       <c r="F963" t="n">
-        <v>0.0462672</v>
+        <v>46.2672</v>
       </c>
     </row>
     <row r="964">
@@ -19643,7 +19643,7 @@
         <v>21.66</v>
       </c>
       <c r="F964" t="n">
-        <v>0.04687224</v>
+        <v>46.87224000000001</v>
       </c>
     </row>
     <row r="965">
@@ -19663,7 +19663,7 @@
         <v>21.93</v>
       </c>
       <c r="F965" t="n">
-        <v>0.04728108</v>
+        <v>47.28108</v>
       </c>
     </row>
     <row r="966">
@@ -19683,7 +19683,7 @@
         <v>22.155</v>
       </c>
       <c r="F966" t="n">
-        <v>0.04856376</v>
+        <v>48.56375999999999</v>
       </c>
     </row>
     <row r="967">
@@ -19703,7 +19703,7 @@
         <v>22.41</v>
       </c>
       <c r="F967" t="n">
-        <v>0.04867452</v>
+        <v>48.67452</v>
       </c>
     </row>
     <row r="968">
@@ -19723,7 +19723,7 @@
         <v>22.65</v>
       </c>
       <c r="F968" t="n">
-        <v>0.0503736</v>
+        <v>50.3736</v>
       </c>
     </row>
     <row r="969">
@@ -19743,7 +19743,7 @@
         <v>22.455</v>
       </c>
       <c r="F969" t="n">
-        <v>0.0489519</v>
+        <v>48.9519</v>
       </c>
     </row>
     <row r="970">
@@ -19763,7 +19763,7 @@
         <v>21.615</v>
       </c>
       <c r="F970" t="n">
-        <v>0.04660194</v>
+        <v>46.60194</v>
       </c>
     </row>
     <row r="971">
@@ -19783,7 +19783,7 @@
         <v>20.475</v>
       </c>
       <c r="F971" t="n">
-        <v>0.0444717</v>
+        <v>44.47170000000001</v>
       </c>
     </row>
     <row r="972">
@@ -19803,7 +19803,7 @@
         <v>19.485</v>
       </c>
       <c r="F972" t="n">
-        <v>0.04200966</v>
+        <v>42.00966</v>
       </c>
     </row>
     <row r="973">
@@ -19823,7 +19823,7 @@
         <v>18.615</v>
       </c>
       <c r="F973" t="n">
-        <v>0.04005948</v>
+        <v>40.05948</v>
       </c>
     </row>
     <row r="974">
@@ -19843,7 +19843,7 @@
         <v>17.82</v>
       </c>
       <c r="F974" t="n">
-        <v>0.03877632</v>
+        <v>38.77632000000001</v>
       </c>
     </row>
     <row r="975">
@@ -19863,7 +19863,7 @@
         <v>16.815</v>
       </c>
       <c r="F975" t="n">
-        <v>0.03658943999999999</v>
+        <v>36.58943999999999</v>
       </c>
     </row>
     <row r="976">
@@ -19883,7 +19883,7 @@
         <v>15.75</v>
       </c>
       <c r="F976" t="n">
-        <v>0.034398</v>
+        <v>34.398</v>
       </c>
     </row>
     <row r="977">
@@ -19903,7 +19903,7 @@
         <v>15.12</v>
       </c>
       <c r="F977" t="n">
-        <v>0.03241728</v>
+        <v>32.41728</v>
       </c>
     </row>
     <row r="978">
@@ -19923,7 +19923,7 @@
         <v>14.61</v>
       </c>
       <c r="F978" t="n">
-        <v>0.0318498</v>
+        <v>31.8498</v>
       </c>
     </row>
     <row r="979">
@@ -19943,7 +19943,7 @@
         <v>14.025</v>
       </c>
       <c r="F979" t="n">
-        <v>0.0306306</v>
+        <v>30.6306</v>
       </c>
     </row>
     <row r="980">
@@ -19963,7 +19963,7 @@
         <v>13.68</v>
       </c>
       <c r="F980" t="n">
-        <v>0.03026016</v>
+        <v>30.26016</v>
       </c>
     </row>
     <row r="981">
@@ -19983,7 +19983,7 @@
         <v>13.305</v>
       </c>
       <c r="F981" t="n">
-        <v>0.02884524</v>
+        <v>28.84524</v>
       </c>
     </row>
     <row r="982">
@@ -20003,7 +20003,7 @@
         <v>13.035</v>
       </c>
       <c r="F982" t="n">
-        <v>0.02852058</v>
+        <v>28.52058</v>
       </c>
     </row>
     <row r="983">
@@ -20023,7 +20023,7 @@
         <v>12.825</v>
       </c>
       <c r="F983" t="n">
-        <v>0.0283176</v>
+        <v>28.3176</v>
       </c>
     </row>
     <row r="984">
@@ -20043,7 +20043,7 @@
         <v>12.615</v>
       </c>
       <c r="F984" t="n">
-        <v>0.02739978</v>
+        <v>27.39978</v>
       </c>
     </row>
     <row r="985">
@@ -20063,7 +20063,7 @@
         <v>12.42</v>
       </c>
       <c r="F985" t="n">
-        <v>0.02727432</v>
+        <v>27.27432</v>
       </c>
     </row>
     <row r="986">
@@ -20083,7 +20083,7 @@
         <v>12.24</v>
       </c>
       <c r="F986" t="n">
-        <v>0.02697696</v>
+        <v>26.97696</v>
       </c>
     </row>
     <row r="987">
@@ -20103,7 +20103,7 @@
         <v>12.12</v>
       </c>
       <c r="F987" t="n">
-        <v>0.02656704</v>
+        <v>26.56704</v>
       </c>
     </row>
     <row r="988">
@@ -20123,7 +20123,7 @@
         <v>12.12</v>
       </c>
       <c r="F988" t="n">
-        <v>0.02651856</v>
+        <v>26.51856</v>
       </c>
     </row>
     <row r="989">
@@ -20143,7 +20143,7 @@
         <v>12.21</v>
       </c>
       <c r="F989" t="n">
-        <v>0.02647128</v>
+        <v>26.47128</v>
       </c>
     </row>
     <row r="990">
@@ -20163,7 +20163,7 @@
         <v>12.255</v>
       </c>
       <c r="F990" t="n">
-        <v>0.02701002</v>
+        <v>27.01002</v>
       </c>
     </row>
     <row r="991">
@@ -20183,7 +20183,7 @@
         <v>12.405</v>
       </c>
       <c r="F991" t="n">
-        <v>0.02699328</v>
+        <v>26.99328</v>
       </c>
     </row>
     <row r="992">
@@ -20203,7 +20203,7 @@
         <v>12.75</v>
       </c>
       <c r="F992" t="n">
-        <v>0.027285</v>
+        <v>27.285</v>
       </c>
     </row>
     <row r="993">
@@ -20223,7 +20223,7 @@
         <v>13.035</v>
       </c>
       <c r="F993" t="n">
-        <v>0.028677</v>
+        <v>28.677</v>
       </c>
     </row>
     <row r="994">
@@ -20243,7 +20243,7 @@
         <v>13.08</v>
       </c>
       <c r="F994" t="n">
-        <v>0.0285144</v>
+        <v>28.5144</v>
       </c>
     </row>
     <row r="995">
@@ -20263,7 +20263,7 @@
         <v>12.99</v>
       </c>
       <c r="F995" t="n">
-        <v>0.02826624</v>
+        <v>28.26624</v>
       </c>
     </row>
     <row r="996">
@@ -20283,7 +20283,7 @@
         <v>12.765</v>
       </c>
       <c r="F996" t="n">
-        <v>0.02823618</v>
+        <v>28.23618</v>
       </c>
     </row>
     <row r="997">
@@ -20303,7 +20303,7 @@
         <v>12.555</v>
       </c>
       <c r="F997" t="n">
-        <v>0.02726946</v>
+        <v>27.26946</v>
       </c>
     </row>
     <row r="998">
@@ -20323,7 +20323,7 @@
         <v>12.285</v>
       </c>
       <c r="F998" t="n">
-        <v>0.02668302</v>
+        <v>26.68302</v>
       </c>
     </row>
     <row r="999">
@@ -20343,7 +20343,7 @@
         <v>11.955</v>
       </c>
       <c r="F999" t="n">
-        <v>0.0255837</v>
+        <v>25.5837</v>
       </c>
     </row>
     <row r="1000">
@@ -20363,7 +20363,7 @@
         <v>11.61</v>
       </c>
       <c r="F1000" t="n">
-        <v>0.0253098</v>
+        <v>25.3098</v>
       </c>
     </row>
     <row r="1001">
@@ -20383,7 +20383,7 @@
         <v>11.25</v>
       </c>
       <c r="F1001" t="n">
-        <v>0.024885</v>
+        <v>24.885</v>
       </c>
     </row>
     <row r="1002">
@@ -20403,7 +20403,7 @@
         <v>10.935</v>
       </c>
       <c r="F1002" t="n">
-        <v>0.02375082</v>
+        <v>23.75082</v>
       </c>
     </row>
     <row r="1003">
@@ -20423,7 +20423,7 @@
         <v>10.605</v>
       </c>
       <c r="F1003" t="n">
-        <v>0.023331</v>
+        <v>23.331</v>
       </c>
     </row>
     <row r="1004">
@@ -20443,7 +20443,7 @@
         <v>10.215</v>
       </c>
       <c r="F1004" t="n">
-        <v>0.02190096</v>
+        <v>21.90096</v>
       </c>
     </row>
     <row r="1005">
@@ -20463,7 +20463,7 @@
         <v>9.764999999999999</v>
       </c>
       <c r="F1005" t="n">
-        <v>0.02132676</v>
+        <v>21.32676</v>
       </c>
     </row>
     <row r="1006">
@@ -20483,7 +20483,7 @@
         <v>9.315</v>
       </c>
       <c r="F1006" t="n">
-        <v>0.0206793</v>
+        <v>20.6793</v>
       </c>
     </row>
     <row r="1007">
@@ -20503,7 +20503,7 @@
         <v>8.879999999999999</v>
       </c>
       <c r="F1007" t="n">
-        <v>0.01889664</v>
+        <v>18.89664</v>
       </c>
     </row>
     <row r="1008">
@@ -20523,7 +20523,7 @@
         <v>8.504999999999999</v>
       </c>
       <c r="F1008" t="n">
-        <v>0.01850688</v>
+        <v>18.50688</v>
       </c>
     </row>
     <row r="1009">
@@ -20543,7 +20543,7 @@
         <v>8.234999999999999</v>
       </c>
       <c r="F1009" t="n">
-        <v>0.01765584</v>
+        <v>17.65584</v>
       </c>
     </row>
     <row r="1010">
@@ -20563,7 +20563,7 @@
         <v>8.084999999999999</v>
       </c>
       <c r="F1010" t="n">
-        <v>0.01752828</v>
+        <v>17.52828</v>
       </c>
     </row>
     <row r="1011">
@@ -20583,7 +20583,7 @@
         <v>8.1</v>
       </c>
       <c r="F1011" t="n">
-        <v>0.0178524</v>
+        <v>17.8524</v>
       </c>
     </row>
     <row r="1012">
@@ -20603,7 +20603,7 @@
         <v>8.145</v>
       </c>
       <c r="F1012" t="n">
-        <v>0.01736514</v>
+        <v>17.36514</v>
       </c>
     </row>
     <row r="1013">
@@ -20623,7 +20623,7 @@
         <v>8.174999999999999</v>
       </c>
       <c r="F1013" t="n">
-        <v>0.0176253</v>
+        <v>17.6253</v>
       </c>
     </row>
     <row r="1014">
@@ -20643,7 +20643,7 @@
         <v>8.174999999999999</v>
       </c>
       <c r="F1014" t="n">
-        <v>0.0172983</v>
+        <v>17.2983</v>
       </c>
     </row>
     <row r="1015">
@@ -20663,7 +20663,7 @@
         <v>8.145</v>
       </c>
       <c r="F1015" t="n">
-        <v>0.01769094</v>
+        <v>17.69094</v>
       </c>
     </row>
     <row r="1016">
@@ -20683,7 +20683,7 @@
         <v>8.055</v>
       </c>
       <c r="F1016" t="n">
-        <v>0.01743102</v>
+        <v>17.43102</v>
       </c>
     </row>
     <row r="1017">
@@ -20703,7 +20703,7 @@
         <v>7.935</v>
       </c>
       <c r="F1017" t="n">
-        <v>0.0169809</v>
+        <v>16.9809</v>
       </c>
     </row>
     <row r="1018">
@@ -20723,7 +20723,7 @@
         <v>7.83</v>
       </c>
       <c r="F1018" t="n">
-        <v>0.01719468</v>
+        <v>17.19468</v>
       </c>
     </row>
     <row r="1019">
@@ -20743,7 +20743,7 @@
         <v>7.71</v>
       </c>
       <c r="F1019" t="n">
-        <v>0.0168078</v>
+        <v>16.8078</v>
       </c>
     </row>
     <row r="1020">
@@ -20763,7 +20763,7 @@
         <v>7.635</v>
       </c>
       <c r="F1020" t="n">
-        <v>0.01685808</v>
+        <v>16.85808</v>
       </c>
     </row>
     <row r="1021">
@@ -20783,7 +20783,7 @@
         <v>7.59</v>
       </c>
       <c r="F1021" t="n">
-        <v>0.01663728</v>
+        <v>16.63728</v>
       </c>
     </row>
     <row r="1022">
@@ -20803,7 +20803,7 @@
         <v>7.5</v>
       </c>
       <c r="F1022" t="n">
-        <v>0.01689</v>
+        <v>16.89</v>
       </c>
     </row>
     <row r="1023">
@@ -20823,7 +20823,7 @@
         <v>7.425</v>
       </c>
       <c r="F1023" t="n">
-        <v>0.0164835</v>
+        <v>16.4835</v>
       </c>
     </row>
     <row r="1024">
@@ -20843,7 +20843,7 @@
         <v>7.35</v>
       </c>
       <c r="F1024" t="n">
-        <v>0.0162876</v>
+        <v>16.2876</v>
       </c>
     </row>
     <row r="1025">
@@ -20863,7 +20863,7 @@
         <v>7.274999999999999</v>
       </c>
       <c r="F1025" t="n">
-        <v>0.0156849</v>
+        <v>15.6849</v>
       </c>
     </row>
     <row r="1026">
@@ -20883,7 +20883,7 @@
         <v>7.23</v>
       </c>
       <c r="F1026" t="n">
-        <v>0.01550112</v>
+        <v>15.50112</v>
       </c>
     </row>
     <row r="1027">
@@ -20903,7 +20903,7 @@
         <v>7.154999999999999</v>
       </c>
       <c r="F1027" t="n">
-        <v>0.01551204</v>
+        <v>15.51204</v>
       </c>
     </row>
     <row r="1028">
@@ -20923,7 +20923,7 @@
         <v>7.08</v>
       </c>
       <c r="F1028" t="n">
-        <v>0.0157176</v>
+        <v>15.7176</v>
       </c>
     </row>
     <row r="1029">
@@ -20943,7 +20943,7 @@
         <v>7.005</v>
       </c>
       <c r="F1029" t="n">
-        <v>0.01538298</v>
+        <v>15.38298</v>
       </c>
     </row>
     <row r="1030">
@@ -20963,7 +20963,7 @@
         <v>7.02</v>
       </c>
       <c r="F1030" t="n">
-        <v>0.01552824</v>
+        <v>15.52824</v>
       </c>
     </row>
     <row r="1031">
@@ -20983,7 +20983,7 @@
         <v>7.005</v>
       </c>
       <c r="F1031" t="n">
-        <v>0.01510278</v>
+        <v>15.10278</v>
       </c>
     </row>
     <row r="1032">
@@ -21003,7 +21003,7 @@
         <v>6.944999999999999</v>
       </c>
       <c r="F1032" t="n">
-        <v>0.01511232</v>
+        <v>15.11232</v>
       </c>
     </row>
     <row r="1033">
@@ -21023,7 +21023,7 @@
         <v>6.885</v>
       </c>
       <c r="F1033" t="n">
-        <v>0.0148716</v>
+        <v>14.8716</v>
       </c>
     </row>
     <row r="1034">
@@ -21043,7 +21043,7 @@
         <v>6.855</v>
       </c>
       <c r="F1034" t="n">
-        <v>0.01469712</v>
+        <v>14.69712</v>
       </c>
     </row>
     <row r="1035">
@@ -21063,7 +21063,7 @@
         <v>6.81</v>
       </c>
       <c r="F1035" t="n">
-        <v>0.01462788</v>
+        <v>14.62788</v>
       </c>
     </row>
     <row r="1036">
@@ -21083,7 +21083,7 @@
         <v>6.779999999999999</v>
       </c>
       <c r="F1036" t="n">
-        <v>0.01445496</v>
+        <v>14.45496</v>
       </c>
     </row>
     <row r="1037">
@@ -21103,7 +21103,7 @@
         <v>6.765</v>
       </c>
       <c r="F1037" t="n">
-        <v>0.0146124</v>
+        <v>14.6124</v>
       </c>
     </row>
     <row r="1038">
@@ -21123,7 +21123,7 @@
         <v>6.75</v>
       </c>
       <c r="F1038" t="n">
-        <v>0.014553</v>
+        <v>14.553</v>
       </c>
     </row>
     <row r="1039">
@@ -21143,7 +21143,7 @@
         <v>6.72</v>
       </c>
       <c r="F1039" t="n">
-        <v>0.01430016</v>
+        <v>14.30016</v>
       </c>
     </row>
     <row r="1040">
@@ -21163,7 +21163,7 @@
         <v>6.705</v>
       </c>
       <c r="F1040" t="n">
-        <v>0.01453644</v>
+        <v>14.53644</v>
       </c>
     </row>
     <row r="1041">
@@ -21183,7 +21183,7 @@
         <v>6.72</v>
       </c>
       <c r="F1041" t="n">
-        <v>0.0145152</v>
+        <v>14.5152</v>
       </c>
     </row>
     <row r="1042">
@@ -21203,7 +21203,7 @@
         <v>6.72</v>
       </c>
       <c r="F1042" t="n">
-        <v>0.01405824</v>
+        <v>14.05824</v>
       </c>
     </row>
     <row r="1043">
@@ -21223,7 +21223,7 @@
         <v>6.705</v>
       </c>
       <c r="F1043" t="n">
-        <v>0.0144828</v>
+        <v>14.4828</v>
       </c>
     </row>
     <row r="1044">
@@ -21243,7 +21243,7 @@
         <v>6.69</v>
       </c>
       <c r="F1044" t="n">
-        <v>0.01450392</v>
+        <v>14.50392</v>
       </c>
     </row>
     <row r="1045">
@@ -21263,7 +21263,7 @@
         <v>6.63</v>
       </c>
       <c r="F1045" t="n">
-        <v>0.01408212</v>
+        <v>14.08212</v>
       </c>
     </row>
     <row r="1046">
@@ -21283,7 +21283,7 @@
         <v>6.54</v>
       </c>
       <c r="F1046" t="n">
-        <v>0.0142572</v>
+        <v>14.2572</v>
       </c>
     </row>
     <row r="1047">
@@ -21303,7 +21303,7 @@
         <v>6.42</v>
       </c>
       <c r="F1047" t="n">
-        <v>0.01404696</v>
+        <v>14.04696</v>
       </c>
     </row>
     <row r="1048">
@@ -21323,7 +21323,7 @@
         <v>6.255</v>
       </c>
       <c r="F1048" t="n">
-        <v>0.01368594</v>
+        <v>13.68594</v>
       </c>
     </row>
     <row r="1049">
@@ -21343,7 +21343,7 @@
         <v>6.105</v>
       </c>
       <c r="F1049" t="n">
-        <v>0.01347984</v>
+        <v>13.47984</v>
       </c>
     </row>
     <row r="1050">
@@ -21363,7 +21363,7 @@
         <v>5.984999999999999</v>
       </c>
       <c r="F1050" t="n">
-        <v>0.01321488</v>
+        <v>13.21488</v>
       </c>
     </row>
     <row r="1051">
@@ -21383,7 +21383,7 @@
         <v>5.88</v>
       </c>
       <c r="F1051" t="n">
-        <v>0.01284192</v>
+        <v>12.84192</v>
       </c>
     </row>
     <row r="1052">
@@ -21403,7 +21403,7 @@
         <v>5.819999999999999</v>
       </c>
       <c r="F1052" t="n">
-        <v>0.01266432</v>
+        <v>12.66432</v>
       </c>
     </row>
     <row r="1053">
@@ -21423,7 +21423,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="F1053" t="n">
-        <v>0.0130977</v>
+        <v>13.0977</v>
       </c>
     </row>
     <row r="1054">
@@ -21443,7 +21443,7 @@
         <v>5.79</v>
       </c>
       <c r="F1054" t="n">
-        <v>0.01211268</v>
+        <v>12.11268</v>
       </c>
     </row>
     <row r="1055">
@@ -21463,7 +21463,7 @@
         <v>5.85</v>
       </c>
       <c r="F1055" t="n">
-        <v>0.0127296</v>
+        <v>12.7296</v>
       </c>
     </row>
     <row r="1056">
@@ -21483,7 +21483,7 @@
         <v>5.895</v>
       </c>
       <c r="F1056" t="n">
-        <v>0.0127332</v>
+        <v>12.7332</v>
       </c>
     </row>
     <row r="1057">
@@ -21503,7 +21503,7 @@
         <v>5.94</v>
       </c>
       <c r="F1057" t="n">
-        <v>0.01280664</v>
+        <v>12.80664</v>
       </c>
     </row>
     <row r="1058">
@@ -21523,7 +21523,7 @@
         <v>5.984999999999999</v>
       </c>
       <c r="F1058" t="n">
-        <v>0.01295154</v>
+        <v>12.95154</v>
       </c>
     </row>
     <row r="1059">
@@ -21543,7 +21543,7 @@
         <v>6.029999999999999</v>
       </c>
       <c r="F1059" t="n">
-        <v>0.01297656</v>
+        <v>12.97656</v>
       </c>
     </row>
     <row r="1060">
@@ -21563,7 +21563,7 @@
         <v>6</v>
       </c>
       <c r="F1060" t="n">
-        <v>0.012936</v>
+        <v>12.936</v>
       </c>
     </row>
     <row r="1061">
@@ -21583,7 +21583,7 @@
         <v>5.97</v>
       </c>
       <c r="F1061" t="n">
-        <v>0.01270416</v>
+        <v>12.70416</v>
       </c>
     </row>
     <row r="1062">
@@ -21603,7 +21603,7 @@
         <v>5.91</v>
       </c>
       <c r="F1062" t="n">
-        <v>0.0126474</v>
+        <v>12.6474</v>
       </c>
     </row>
     <row r="1063">
@@ -21623,7 +21623,7 @@
         <v>5.865</v>
       </c>
       <c r="F1063" t="n">
-        <v>0.01276224</v>
+        <v>12.76224</v>
       </c>
     </row>
     <row r="1064">
@@ -21643,7 +21643,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="F1064" t="n">
-        <v>0.012474</v>
+        <v>12.474</v>
       </c>
     </row>
     <row r="1065">
@@ -21663,7 +21663,7 @@
         <v>5.7</v>
       </c>
       <c r="F1065" t="n">
-        <v>0.0122664</v>
+        <v>12.2664</v>
       </c>
     </row>
     <row r="1066">
@@ -21683,7 +21683,7 @@
         <v>5.64</v>
       </c>
       <c r="F1066" t="n">
-        <v>0.01213728</v>
+        <v>12.13728</v>
       </c>
     </row>
     <row r="1067">
@@ -21703,7 +21703,7 @@
         <v>5.565</v>
       </c>
       <c r="F1067" t="n">
-        <v>0.01197588</v>
+        <v>11.97588</v>
       </c>
     </row>
     <row r="1068">
@@ -21723,7 +21723,7 @@
         <v>5.52</v>
       </c>
       <c r="F1068" t="n">
-        <v>0.01227648</v>
+        <v>12.27648</v>
       </c>
     </row>
     <row r="1069">
@@ -21743,7 +21743,7 @@
         <v>5.475</v>
       </c>
       <c r="F1069" t="n">
-        <v>0.0119136</v>
+        <v>11.9136</v>
       </c>
     </row>
     <row r="1070">
@@ -21763,7 +21763,7 @@
         <v>5.46</v>
       </c>
       <c r="F1070" t="n">
-        <v>0.01164072</v>
+        <v>11.64072</v>
       </c>
     </row>
     <row r="1071">
@@ -21783,7 +21783,7 @@
         <v>5.444999999999999</v>
       </c>
       <c r="F1071" t="n">
-        <v>0.01184832</v>
+        <v>11.84832</v>
       </c>
     </row>
     <row r="1072">
@@ -21803,7 +21803,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="F1072" t="n">
-        <v>0.0114048</v>
+        <v>11.4048</v>
       </c>
     </row>
     <row r="1073">
@@ -21823,7 +21823,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F1073" t="n">
-        <v>0.0115104</v>
+        <v>11.5104</v>
       </c>
     </row>
     <row r="1074">
@@ -21843,7 +21843,7 @@
         <v>5.175</v>
       </c>
       <c r="F1074" t="n">
-        <v>0.0111573</v>
+        <v>11.1573</v>
       </c>
     </row>
     <row r="1075">
@@ -21863,7 +21863,7 @@
         <v>5.01</v>
       </c>
       <c r="F1075" t="n">
-        <v>0.01086168</v>
+        <v>10.86168</v>
       </c>
     </row>
     <row r="1076">
@@ -21883,7 +21883,7 @@
         <v>4.845</v>
       </c>
       <c r="F1076" t="n">
-        <v>0.01067838</v>
+        <v>10.67838</v>
       </c>
     </row>
     <row r="1077">
@@ -21903,7 +21903,7 @@
         <v>4.68</v>
       </c>
       <c r="F1077" t="n">
-        <v>0.01033344</v>
+        <v>10.33344</v>
       </c>
     </row>
     <row r="1078">
@@ -21923,7 +21923,7 @@
         <v>4.56</v>
       </c>
       <c r="F1078" t="n">
-        <v>0.0099408</v>
+        <v>9.940799999999999</v>
       </c>
     </row>
     <row r="1079">
@@ -21943,7 +21943,7 @@
         <v>4.455</v>
       </c>
       <c r="F1079" t="n">
-        <v>0.009711900000000002</v>
+        <v>9.711900000000002</v>
       </c>
     </row>
     <row r="1080">
@@ -21963,7 +21963,7 @@
         <v>4.38</v>
       </c>
       <c r="F1080" t="n">
-        <v>0.009723600000000001</v>
+        <v>9.723600000000001</v>
       </c>
     </row>
     <row r="1081">
@@ -21983,7 +21983,7 @@
         <v>4.35</v>
       </c>
       <c r="F1081" t="n">
-        <v>0.009343799999999999</v>
+        <v>9.3438</v>
       </c>
     </row>
     <row r="1082">
@@ -22003,7 +22003,7 @@
         <v>4.335</v>
       </c>
       <c r="F1082" t="n">
-        <v>0.009328920000000001</v>
+        <v>9.32892</v>
       </c>
     </row>
     <row r="1083">
@@ -22023,7 +22023,7 @@
         <v>4.35</v>
       </c>
       <c r="F1083" t="n">
-        <v>0.009343799999999999</v>
+        <v>9.3438</v>
       </c>
     </row>
     <row r="1084">
@@ -22043,7 +22043,7 @@
         <v>4.335</v>
       </c>
       <c r="F1084" t="n">
-        <v>0.009519659999999999</v>
+        <v>9.51966</v>
       </c>
     </row>
     <row r="1085">
@@ -22063,7 +22063,7 @@
         <v>4.335</v>
       </c>
       <c r="F1085" t="n">
-        <v>0.009311580000000002</v>
+        <v>9.311580000000001</v>
       </c>
     </row>
     <row r="1086">
@@ -22083,7 +22083,7 @@
         <v>4.274999999999999</v>
       </c>
       <c r="F1086" t="n">
-        <v>0.0094392</v>
+        <v>9.4392</v>
       </c>
     </row>
     <row r="1087">
@@ -22103,7 +22103,7 @@
         <v>4.215</v>
       </c>
       <c r="F1087" t="n">
-        <v>0.009138120000000001</v>
+        <v>9.138120000000001</v>
       </c>
     </row>
     <row r="1088">
@@ -22123,7 +22123,7 @@
         <v>4.095</v>
       </c>
       <c r="F1088" t="n">
-        <v>0.008910719999999999</v>
+        <v>8.91072</v>
       </c>
     </row>
     <row r="1089">
@@ -22143,7 +22143,7 @@
         <v>4.005</v>
       </c>
       <c r="F1089" t="n">
-        <v>0.008442540000000002</v>
+        <v>8.442540000000001</v>
       </c>
     </row>
     <row r="1090">
@@ -22163,7 +22163,7 @@
         <v>3.87</v>
       </c>
       <c r="F1090" t="n">
-        <v>0.008529479999999999</v>
+        <v>8.52948</v>
       </c>
     </row>
     <row r="1091">
@@ -22183,7 +22183,7 @@
         <v>3.72</v>
       </c>
       <c r="F1091" t="n">
-        <v>0.00819888</v>
+        <v>8.198880000000001</v>
       </c>
     </row>
     <row r="1092">
@@ -22203,7 +22203,7 @@
         <v>3.585</v>
       </c>
       <c r="F1092" t="n">
-        <v>0.00762888</v>
+        <v>7.628880000000001</v>
       </c>
     </row>
     <row r="1093">
@@ -22223,7 +22223,7 @@
         <v>3.45</v>
       </c>
       <c r="F1093" t="n">
-        <v>0.0074106</v>
+        <v>7.4106</v>
       </c>
     </row>
     <row r="1094">
@@ -22243,7 +22243,7 @@
         <v>3.3</v>
       </c>
       <c r="F1094" t="n">
-        <v>0.0072996</v>
+        <v>7.2996</v>
       </c>
     </row>
     <row r="1095">
@@ -22263,7 +22263,7 @@
         <v>3.12</v>
       </c>
       <c r="F1095" t="n">
-        <v>0.00676416</v>
+        <v>6.76416</v>
       </c>
     </row>
     <row r="1096">
@@ -22283,7 +22283,7 @@
         <v>3.075</v>
       </c>
       <c r="F1096" t="n">
-        <v>0.0067281</v>
+        <v>6.7281</v>
       </c>
     </row>
     <row r="1097">
@@ -22303,7 +22303,7 @@
         <v>3.03</v>
       </c>
       <c r="F1097" t="n">
-        <v>0.0066054</v>
+        <v>6.6054</v>
       </c>
     </row>
     <row r="1098">
@@ -22323,7 +22323,7 @@
         <v>3</v>
       </c>
       <c r="F1098" t="n">
-        <v>0.006492000000000001</v>
+        <v>6.492000000000001</v>
       </c>
     </row>
     <row r="1099">
@@ -22343,7 +22343,7 @@
         <v>2.985</v>
       </c>
       <c r="F1099" t="n">
-        <v>0.006471480000000001</v>
+        <v>6.471480000000001</v>
       </c>
     </row>
     <row r="1100">
@@ -22363,7 +22363,7 @@
         <v>3.015</v>
       </c>
       <c r="F1100" t="n">
-        <v>0.00670536</v>
+        <v>6.70536</v>
       </c>
     </row>
     <row r="1101">
@@ -22383,7 +22383,7 @@
         <v>3.03</v>
       </c>
       <c r="F1101" t="n">
-        <v>0.00671448</v>
+        <v>6.71448</v>
       </c>
     </row>
     <row r="1102">
@@ -22403,7 +22403,7 @@
         <v>3.09</v>
       </c>
       <c r="F1102" t="n">
-        <v>0.00687216</v>
+        <v>6.87216</v>
       </c>
     </row>
     <row r="1103">
@@ -22423,7 +22423,7 @@
         <v>3.165</v>
       </c>
       <c r="F1103" t="n">
-        <v>0.00687438</v>
+        <v>6.87438</v>
       </c>
     </row>
     <row r="1104">
@@ -22443,7 +22443,7 @@
         <v>3.195</v>
       </c>
       <c r="F1104" t="n">
-        <v>0.006901200000000001</v>
+        <v>6.901200000000001</v>
       </c>
     </row>
     <row r="1105">
@@ -22463,7 +22463,7 @@
         <v>3.24</v>
       </c>
       <c r="F1105" t="n">
-        <v>0.00698544</v>
+        <v>6.98544</v>
       </c>
     </row>
     <row r="1106">
@@ -22483,7 +22483,7 @@
         <v>3.27</v>
       </c>
       <c r="F1106" t="n">
-        <v>0.007311720000000001</v>
+        <v>7.311720000000001</v>
       </c>
     </row>
     <row r="1107">
@@ -22503,7 +22503,7 @@
         <v>3.345</v>
       </c>
       <c r="F1107" t="n">
-        <v>0.00719844</v>
+        <v>7.198440000000001</v>
       </c>
     </row>
     <row r="1108">
@@ -22523,7 +22523,7 @@
         <v>3.39</v>
       </c>
       <c r="F1108" t="n">
-        <v>0.0075258</v>
+        <v>7.5258</v>
       </c>
     </row>
     <row r="1109">
@@ -22543,7 +22543,7 @@
         <v>3.48</v>
       </c>
       <c r="F1109" t="n">
-        <v>0.00761424</v>
+        <v>7.614240000000001</v>
       </c>
     </row>
     <row r="1110">
@@ -22563,7 +22563,7 @@
         <v>3.585</v>
       </c>
       <c r="F1110" t="n">
-        <v>0.00775794</v>
+        <v>7.75794</v>
       </c>
     </row>
     <row r="1111">
@@ -22583,7 +22583,7 @@
         <v>3.705</v>
       </c>
       <c r="F1111" t="n">
-        <v>0.00809172</v>
+        <v>8.09172</v>
       </c>
     </row>
     <row r="1112">
@@ -22603,7 +22603,7 @@
         <v>3.795</v>
       </c>
       <c r="F1112" t="n">
-        <v>0.008409720000000001</v>
+        <v>8.40972</v>
       </c>
     </row>
     <row r="1113">
@@ -22623,7 +22623,7 @@
         <v>3.9</v>
       </c>
       <c r="F1113" t="n">
-        <v>0.0087516</v>
+        <v>8.7516</v>
       </c>
     </row>
     <row r="1114">
@@ -22643,7 +22643,7 @@
         <v>4.02</v>
       </c>
       <c r="F1114" t="n">
-        <v>0.008683199999999999</v>
+        <v>8.683199999999999</v>
       </c>
     </row>
     <row r="1115">
@@ -22663,7 +22663,7 @@
         <v>4.125</v>
       </c>
       <c r="F1115" t="n">
-        <v>0.0089265</v>
+        <v>8.926500000000001</v>
       </c>
     </row>
     <row r="1116">
@@ -22683,7 +22683,7 @@
         <v>4.17</v>
       </c>
       <c r="F1116" t="n">
-        <v>0.009073920000000001</v>
+        <v>9.073920000000001</v>
       </c>
     </row>
     <row r="1117">
@@ -22703,7 +22703,7 @@
         <v>4.245</v>
       </c>
       <c r="F1117" t="n">
-        <v>0.009271080000000001</v>
+        <v>9.271080000000001</v>
       </c>
     </row>
     <row r="1118">
@@ -22723,7 +22723,7 @@
         <v>4.32</v>
       </c>
       <c r="F1118" t="n">
-        <v>0.00938304</v>
+        <v>9.383040000000001</v>
       </c>
     </row>
     <row r="1119">
@@ -22743,7 +22743,7 @@
         <v>4.365</v>
       </c>
       <c r="F1119" t="n">
-        <v>0.009410940000000001</v>
+        <v>9.410940000000002</v>
       </c>
     </row>
     <row r="1120">
@@ -22763,7 +22763,7 @@
         <v>4.395</v>
       </c>
       <c r="F1120" t="n">
-        <v>0.009633839999999999</v>
+        <v>9.633839999999999</v>
       </c>
     </row>
     <row r="1121">
@@ -22783,7 +22783,7 @@
         <v>4.47</v>
       </c>
       <c r="F1121" t="n">
-        <v>0.00970884</v>
+        <v>9.70884</v>
       </c>
     </row>
     <row r="1122">
@@ -22803,7 +22803,7 @@
         <v>4.515</v>
       </c>
       <c r="F1122" t="n">
-        <v>0.01007748</v>
+        <v>10.07748</v>
       </c>
     </row>
     <row r="1123">
@@ -22823,7 +22823,7 @@
         <v>4.605</v>
       </c>
       <c r="F1123" t="n">
-        <v>0.00996522</v>
+        <v>9.96522</v>
       </c>
     </row>
     <row r="1124">
@@ -22843,7 +22843,7 @@
         <v>4.694999999999999</v>
       </c>
       <c r="F1124" t="n">
-        <v>0.010329</v>
+        <v>10.329</v>
       </c>
     </row>
     <row r="1125">
@@ -22863,7 +22863,7 @@
         <v>4.8</v>
       </c>
       <c r="F1125" t="n">
-        <v>0.0103872</v>
+        <v>10.3872</v>
       </c>
     </row>
     <row r="1126">
@@ -22883,7 +22883,7 @@
         <v>4.875</v>
       </c>
       <c r="F1126" t="n">
-        <v>0.0105885</v>
+        <v>10.5885</v>
       </c>
     </row>
     <row r="1127">
@@ -22903,7 +22903,7 @@
         <v>4.92</v>
       </c>
       <c r="F1127" t="n">
-        <v>0.01074528</v>
+        <v>10.74528</v>
       </c>
     </row>
     <row r="1128">
@@ -22923,7 +22923,7 @@
         <v>4.995</v>
       </c>
       <c r="F1128" t="n">
-        <v>0.01100898</v>
+        <v>11.00898</v>
       </c>
     </row>
     <row r="1129">
@@ -22943,7 +22943,7 @@
         <v>5.055</v>
       </c>
       <c r="F1129" t="n">
-        <v>0.01079748</v>
+        <v>10.79748</v>
       </c>
     </row>
     <row r="1130">
@@ -22963,7 +22963,7 @@
         <v>5.1</v>
       </c>
       <c r="F1130" t="n">
-        <v>0.0113424</v>
+        <v>11.3424</v>
       </c>
     </row>
     <row r="1131">
@@ -22983,7 +22983,7 @@
         <v>5.175</v>
       </c>
       <c r="F1131" t="n">
-        <v>0.0112401</v>
+        <v>11.2401</v>
       </c>
     </row>
     <row r="1132">
@@ -23003,7 +23003,7 @@
         <v>5.25</v>
       </c>
       <c r="F1132" t="n">
-        <v>0.011676</v>
+        <v>11.676</v>
       </c>
     </row>
     <row r="1133">
@@ -23023,7 +23023,7 @@
         <v>5.325</v>
       </c>
       <c r="F1133" t="n">
-        <v>0.0116937</v>
+        <v>11.6937</v>
       </c>
     </row>
     <row r="1134">
@@ -23043,7 +23043,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="F1134" t="n">
-        <v>0.0116208</v>
+        <v>11.6208</v>
       </c>
     </row>
     <row r="1135">
@@ -23063,7 +23063,7 @@
         <v>5.43</v>
       </c>
       <c r="F1135" t="n">
-        <v>0.01166364</v>
+        <v>11.66364</v>
       </c>
     </row>
     <row r="1136">
@@ -23083,7 +23083,7 @@
         <v>5.475</v>
       </c>
       <c r="F1136" t="n">
-        <v>0.0117165</v>
+        <v>11.7165</v>
       </c>
     </row>
     <row r="1137">
@@ -23103,7 +23103,7 @@
         <v>5.505</v>
       </c>
       <c r="F1137" t="n">
-        <v>0.0120009</v>
+        <v>12.0009</v>
       </c>
     </row>
     <row r="1138">
@@ -23123,7 +23123,7 @@
         <v>5.505</v>
       </c>
       <c r="F1138" t="n">
-        <v>0.01197888</v>
+        <v>11.97888</v>
       </c>
     </row>
     <row r="1139">
@@ -23143,7 +23143,7 @@
         <v>5.49</v>
       </c>
       <c r="F1139" t="n">
-        <v>0.01172664</v>
+        <v>11.72664</v>
       </c>
     </row>
     <row r="1140">
@@ -23163,7 +23163,7 @@
         <v>5.444999999999999</v>
       </c>
       <c r="F1140" t="n">
-        <v>0.0113256</v>
+        <v>11.3256</v>
       </c>
     </row>
     <row r="1141">
@@ -23183,7 +23183,7 @@
         <v>5.31</v>
       </c>
       <c r="F1141" t="n">
-        <v>0.01144836</v>
+        <v>11.44836</v>
       </c>
     </row>
     <row r="1142">
@@ -23203,7 +23203,7 @@
         <v>5.145</v>
       </c>
       <c r="F1142" t="n">
-        <v>0.01103088</v>
+        <v>11.03088</v>
       </c>
     </row>
     <row r="1143">
@@ -23223,7 +23223,7 @@
         <v>4.92</v>
       </c>
       <c r="F1143" t="n">
-        <v>0.0110208</v>
+        <v>11.0208</v>
       </c>
     </row>
     <row r="1144">
@@ -23243,7 +23243,7 @@
         <v>4.68</v>
       </c>
       <c r="F1144" t="n">
-        <v>0.01023984</v>
+        <v>10.23984</v>
       </c>
     </row>
     <row r="1145">
@@ -23263,7 +23263,7 @@
         <v>4.41</v>
       </c>
       <c r="F1145" t="n">
-        <v>0.009560880000000001</v>
+        <v>9.560880000000001</v>
       </c>
     </row>
     <row r="1146">
@@ -23283,7 +23283,7 @@
         <v>4.17</v>
       </c>
       <c r="F1146" t="n">
-        <v>0.009107280000000001</v>
+        <v>9.107280000000001</v>
       </c>
     </row>
     <row r="1147">
@@ -23303,7 +23303,7 @@
         <v>3.975</v>
       </c>
       <c r="F1147" t="n">
-        <v>0.0087609</v>
+        <v>8.760899999999999</v>
       </c>
     </row>
     <row r="1148">
@@ -23323,7 +23323,7 @@
         <v>3.735</v>
       </c>
       <c r="F1148" t="n">
-        <v>0.008276760000000001</v>
+        <v>8.276760000000001</v>
       </c>
     </row>
     <row r="1149">
@@ -23343,7 +23343,7 @@
         <v>3.555</v>
       </c>
       <c r="F1149" t="n">
-        <v>0.007849440000000001</v>
+        <v>7.849440000000001</v>
       </c>
     </row>
     <row r="1150">
@@ -23363,7 +23363,7 @@
         <v>3.405</v>
       </c>
       <c r="F1150" t="n">
-        <v>0.00730032</v>
+        <v>7.30032</v>
       </c>
     </row>
     <row r="1151">
@@ -23383,7 +23383,7 @@
         <v>3.225</v>
       </c>
       <c r="F1151" t="n">
-        <v>0.0070692</v>
+        <v>7.0692</v>
       </c>
     </row>
     <row r="1152">
@@ -23403,7 +23403,7 @@
         <v>3.135</v>
       </c>
       <c r="F1152" t="n">
-        <v>0.00665874</v>
+        <v>6.65874</v>
       </c>
     </row>
     <row r="1153">
@@ -23423,7 +23423,7 @@
         <v>3.06</v>
       </c>
       <c r="F1153" t="n">
-        <v>0.00651168</v>
+        <v>6.51168</v>
       </c>
     </row>
     <row r="1154">
@@ -23443,7 +23443,7 @@
         <v>2.985</v>
       </c>
       <c r="F1154" t="n">
-        <v>0.006483420000000001</v>
+        <v>6.483420000000001</v>
       </c>
     </row>
     <row r="1155">
@@ -23463,7 +23463,7 @@
         <v>2.97</v>
       </c>
       <c r="F1155" t="n">
-        <v>0.00645084</v>
+        <v>6.45084</v>
       </c>
     </row>
     <row r="1156">
@@ -23483,7 +23483,7 @@
         <v>2.955</v>
       </c>
       <c r="F1156" t="n">
-        <v>0.006548280000000001</v>
+        <v>6.548280000000001</v>
       </c>
     </row>
     <row r="1157">
@@ -23503,7 +23503,7 @@
         <v>2.97</v>
       </c>
       <c r="F1157" t="n">
-        <v>0.006379559999999999</v>
+        <v>6.37956</v>
       </c>
     </row>
     <row r="1158">
@@ -23523,7 +23523,7 @@
         <v>3.015</v>
       </c>
       <c r="F1158" t="n">
-        <v>0.00660888</v>
+        <v>6.60888</v>
       </c>
     </row>
     <row r="1159">
@@ -23543,7 +23543,7 @@
         <v>3.06</v>
       </c>
       <c r="F1159" t="n">
-        <v>0.006732000000000001</v>
+        <v>6.732000000000001</v>
       </c>
     </row>
     <row r="1160">
@@ -23563,7 +23563,7 @@
         <v>3.135</v>
       </c>
       <c r="F1160" t="n">
-        <v>0.00682176</v>
+        <v>6.821759999999999</v>
       </c>
     </row>
     <row r="1161">
@@ -23583,7 +23583,7 @@
         <v>3.24</v>
       </c>
       <c r="F1161" t="n">
-        <v>0.00724464</v>
+        <v>7.24464</v>
       </c>
     </row>
     <row r="1162">
@@ -23603,7 +23603,7 @@
         <v>3.345</v>
       </c>
       <c r="F1162" t="n">
-        <v>0.007345620000000001</v>
+        <v>7.34562</v>
       </c>
     </row>
     <row r="1163">
@@ -23623,7 +23623,7 @@
         <v>3.48</v>
       </c>
       <c r="F1163" t="n">
-        <v>0.00775344</v>
+        <v>7.75344</v>
       </c>
     </row>
     <row r="1164">
@@ -23643,7 +23643,7 @@
         <v>3.6</v>
       </c>
       <c r="F1164" t="n">
-        <v>0.0077328</v>
+        <v>7.7328</v>
       </c>
     </row>
     <row r="1165">
@@ -23663,7 +23663,7 @@
         <v>3.705</v>
       </c>
       <c r="F1165" t="n">
-        <v>0.00809172</v>
+        <v>8.09172</v>
       </c>
     </row>
     <row r="1166">
@@ -23683,7 +23683,7 @@
         <v>3.795</v>
       </c>
       <c r="F1166" t="n">
-        <v>0.008060579999999999</v>
+        <v>8.06058</v>
       </c>
     </row>
     <row r="1167">
@@ -23703,7 +23703,7 @@
         <v>3.78</v>
       </c>
       <c r="F1167" t="n">
-        <v>0.008316</v>
+        <v>8.316000000000001</v>
       </c>
     </row>
     <row r="1168">
@@ -23723,7 +23723,7 @@
         <v>3.72</v>
       </c>
       <c r="F1168" t="n">
-        <v>0.00812448</v>
+        <v>8.12448</v>
       </c>
     </row>
     <row r="1169">
@@ -23743,7 +23743,7 @@
         <v>3.585</v>
       </c>
       <c r="F1169" t="n">
-        <v>0.0080304</v>
+        <v>8.0304</v>
       </c>
     </row>
     <row r="1170">
@@ -23763,7 +23763,7 @@
         <v>3.405</v>
       </c>
       <c r="F1170" t="n">
-        <v>0.007422900000000001</v>
+        <v>7.422900000000001</v>
       </c>
     </row>
     <row r="1171">
@@ -23783,7 +23783,7 @@
         <v>3.21</v>
       </c>
       <c r="F1171" t="n">
-        <v>0.00688224</v>
+        <v>6.88224</v>
       </c>
     </row>
     <row r="1172">
@@ -23803,7 +23803,7 @@
         <v>3.045</v>
       </c>
       <c r="F1172" t="n">
-        <v>0.00650412</v>
+        <v>6.50412</v>
       </c>
     </row>
     <row r="1173">
@@ -23823,7 +23823,7 @@
         <v>2.94</v>
       </c>
       <c r="F1173" t="n">
-        <v>0.00619752</v>
+        <v>6.19752</v>
       </c>
     </row>
     <row r="1174">
@@ -23843,7 +23843,7 @@
         <v>2.865</v>
       </c>
       <c r="F1174" t="n">
-        <v>0.00633738</v>
+        <v>6.33738</v>
       </c>
     </row>
     <row r="1175">
@@ -23863,7 +23863,7 @@
         <v>2.85</v>
       </c>
       <c r="F1175" t="n">
-        <v>0.006167400000000001</v>
+        <v>6.167400000000001</v>
       </c>
     </row>
     <row r="1176">
@@ -23883,7 +23883,7 @@
         <v>2.85</v>
       </c>
       <c r="F1176" t="n">
-        <v>0.006304200000000001</v>
+        <v>6.304200000000001</v>
       </c>
     </row>
     <row r="1177">
@@ -23903,7 +23903,7 @@
         <v>2.94</v>
       </c>
       <c r="F1177" t="n">
-        <v>0.0062916</v>
+        <v>6.2916</v>
       </c>
     </row>
     <row r="1178">
@@ -23923,7 +23923,7 @@
         <v>2.985</v>
       </c>
       <c r="F1178" t="n">
-        <v>0.00653118</v>
+        <v>6.53118</v>
       </c>
     </row>
     <row r="1179">
@@ -23943,7 +23943,7 @@
         <v>3.015</v>
       </c>
       <c r="F1179" t="n">
-        <v>0.00656064</v>
+        <v>6.56064</v>
       </c>
     </row>
     <row r="1180">
@@ -23963,7 +23963,7 @@
         <v>3.06</v>
       </c>
       <c r="F1180" t="n">
-        <v>0.006719760000000001</v>
+        <v>6.719760000000001</v>
       </c>
     </row>
     <row r="1181">
@@ -23983,7 +23983,7 @@
         <v>3.09</v>
       </c>
       <c r="F1181" t="n">
-        <v>0.00678564</v>
+        <v>6.78564</v>
       </c>
     </row>
     <row r="1182">
@@ -24003,7 +24003,7 @@
         <v>3.075</v>
       </c>
       <c r="F1182" t="n">
-        <v>0.0065682</v>
+        <v>6.5682</v>
       </c>
     </row>
     <row r="1183">
@@ -24023,7 +24023,7 @@
         <v>3.045</v>
       </c>
       <c r="F1183" t="n">
-        <v>0.006431040000000001</v>
+        <v>6.43104</v>
       </c>
     </row>
     <row r="1184">
@@ -24043,7 +24043,7 @@
         <v>2.97</v>
       </c>
       <c r="F1184" t="n">
-        <v>0.0065934</v>
+        <v>6.5934</v>
       </c>
     </row>
     <row r="1185">
@@ -24063,7 +24063,7 @@
         <v>2.925</v>
       </c>
       <c r="F1185" t="n">
-        <v>0.0063063</v>
+        <v>6.3063</v>
       </c>
     </row>
     <row r="1186">
@@ -24083,7 +24083,7 @@
         <v>2.85</v>
       </c>
       <c r="F1186" t="n">
-        <v>0.00627</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="1187">
@@ -24103,7 +24103,7 @@
         <v>2.775</v>
       </c>
       <c r="F1187" t="n">
-        <v>0.006160500000000001</v>
+        <v>6.160500000000001</v>
       </c>
     </row>
     <row r="1188">
@@ -24123,7 +24123,7 @@
         <v>2.715</v>
       </c>
       <c r="F1188" t="n">
-        <v>0.00598386</v>
+        <v>5.98386</v>
       </c>
     </row>
     <row r="1189">
@@ -24143,7 +24143,7 @@
         <v>2.715</v>
       </c>
       <c r="F1189" t="n">
-        <v>0.00600558</v>
+        <v>6.00558</v>
       </c>
     </row>
     <row r="1190">
@@ -24163,7 +24163,7 @@
         <v>2.73</v>
       </c>
       <c r="F1190" t="n">
-        <v>0.00597324</v>
+        <v>5.973240000000001</v>
       </c>
     </row>
     <row r="1191">
@@ -24183,7 +24183,7 @@
         <v>2.775</v>
       </c>
       <c r="F1191" t="n">
-        <v>0.0061161</v>
+        <v>6.1161</v>
       </c>
     </row>
     <row r="1192">
@@ -24203,7 +24203,7 @@
         <v>2.835</v>
       </c>
       <c r="F1192" t="n">
-        <v>0.00627102</v>
+        <v>6.27102</v>
       </c>
     </row>
     <row r="1193">
@@ -24223,7 +24223,7 @@
         <v>2.865</v>
       </c>
       <c r="F1193" t="n">
-        <v>0.00606234</v>
+        <v>6.06234</v>
       </c>
     </row>
     <row r="1194">
@@ -24243,7 +24243,7 @@
         <v>2.865</v>
       </c>
       <c r="F1194" t="n">
-        <v>0.006211319999999999</v>
+        <v>6.21132</v>
       </c>
     </row>
     <row r="1195">
@@ -24263,7 +24263,7 @@
         <v>2.88</v>
       </c>
       <c r="F1195" t="n">
-        <v>0.00630144</v>
+        <v>6.30144</v>
       </c>
     </row>
     <row r="1196">
@@ -24283,7 +24283,7 @@
         <v>2.865</v>
       </c>
       <c r="F1196" t="n">
-        <v>0.00632592</v>
+        <v>6.32592</v>
       </c>
     </row>
     <row r="1197">
@@ -24303,7 +24303,7 @@
         <v>2.835</v>
       </c>
       <c r="F1197" t="n">
-        <v>0.00622566</v>
+        <v>6.22566</v>
       </c>
     </row>
     <row r="1198">
@@ -24323,7 +24323,7 @@
         <v>2.79</v>
       </c>
       <c r="F1198" t="n">
-        <v>0.006071040000000001</v>
+        <v>6.071040000000001</v>
       </c>
     </row>
     <row r="1199">
@@ -24343,7 +24343,7 @@
         <v>2.715</v>
       </c>
       <c r="F1199" t="n">
-        <v>0.005842679999999999</v>
+        <v>5.84268</v>
       </c>
     </row>
     <row r="1200">
@@ -24363,7 +24363,7 @@
         <v>2.655</v>
       </c>
       <c r="F1200" t="n">
-        <v>0.0058941</v>
+        <v>5.8941</v>
       </c>
     </row>
     <row r="1201">
@@ -24383,7 +24383,7 @@
         <v>2.64</v>
       </c>
       <c r="F1201" t="n">
-        <v>0.00568128</v>
+        <v>5.68128</v>
       </c>
     </row>
     <row r="1202">
@@ -24403,7 +24403,7 @@
         <v>2.595</v>
       </c>
       <c r="F1202" t="n">
-        <v>0.00580242</v>
+        <v>5.80242</v>
       </c>
     </row>
     <row r="1203">
@@ -24423,7 +24423,7 @@
         <v>2.61</v>
       </c>
       <c r="F1203" t="n">
-        <v>0.00572112</v>
+        <v>5.72112</v>
       </c>
     </row>
     <row r="1204">
@@ -24443,7 +24443,7 @@
         <v>2.64</v>
       </c>
       <c r="F1204" t="n">
-        <v>0.00561792</v>
+        <v>5.61792</v>
       </c>
     </row>
     <row r="1205">
@@ -24463,7 +24463,7 @@
         <v>2.685</v>
       </c>
       <c r="F1205" t="n">
-        <v>0.00571368</v>
+        <v>5.713679999999999</v>
       </c>
     </row>
     <row r="1206">
@@ -24483,7 +24483,7 @@
         <v>2.7</v>
       </c>
       <c r="F1206" t="n">
-        <v>0.0058752</v>
+        <v>5.8752</v>
       </c>
     </row>
     <row r="1207">
@@ -24503,7 +24503,7 @@
         <v>2.7</v>
       </c>
       <c r="F1207" t="n">
-        <v>0.0058968</v>
+        <v>5.8968</v>
       </c>
     </row>
     <row r="1208">
@@ -24523,7 +24523,7 @@
         <v>2.67</v>
       </c>
       <c r="F1208" t="n">
-        <v>0.0059274</v>
+        <v>5.9274</v>
       </c>
     </row>
     <row r="1209">
@@ -24543,7 +24543,7 @@
         <v>2.67</v>
       </c>
       <c r="F1209" t="n">
-        <v>0.005895360000000001</v>
+        <v>5.895360000000001</v>
       </c>
     </row>
     <row r="1210">
@@ -24563,7 +24563,7 @@
         <v>2.655</v>
       </c>
       <c r="F1210" t="n">
-        <v>0.00580914</v>
+        <v>5.80914</v>
       </c>
     </row>
     <row r="1211">
@@ -24583,7 +24583,7 @@
         <v>2.64</v>
       </c>
       <c r="F1211" t="n">
-        <v>0.005755199999999999</v>
+        <v>5.755199999999999</v>
       </c>
     </row>
     <row r="1212">
@@ -24603,7 +24603,7 @@
         <v>2.595</v>
       </c>
       <c r="F1212" t="n">
-        <v>0.00554292</v>
+        <v>5.54292</v>
       </c>
     </row>
     <row r="1213">
@@ -24623,7 +24623,7 @@
         <v>2.52</v>
       </c>
       <c r="F1213" t="n">
-        <v>0.005695200000000001</v>
+        <v>5.695200000000001</v>
       </c>
     </row>
     <row r="1214">
@@ -24643,7 +24643,7 @@
         <v>2.49</v>
       </c>
       <c r="F1214" t="n">
-        <v>0.00534852</v>
+        <v>5.34852</v>
       </c>
     </row>
     <row r="1215">
@@ -24663,7 +24663,7 @@
         <v>2.445</v>
       </c>
       <c r="F1215" t="n">
-        <v>0.00525186</v>
+        <v>5.25186</v>
       </c>
     </row>
     <row r="1216">
@@ -24683,7 +24683,7 @@
         <v>2.415</v>
       </c>
       <c r="F1216" t="n">
-        <v>0.005313000000000001</v>
+        <v>5.313000000000001</v>
       </c>
     </row>
     <row r="1217">
@@ -24703,7 +24703,7 @@
         <v>2.37</v>
       </c>
       <c r="F1217" t="n">
-        <v>0.00522348</v>
+        <v>5.22348</v>
       </c>
     </row>
     <row r="1218">
@@ -24723,7 +24723,7 @@
         <v>2.325</v>
       </c>
       <c r="F1218" t="n">
-        <v>0.005115000000000001</v>
+        <v>5.115</v>
       </c>
     </row>
     <row r="1219">
@@ -24743,7 +24743,7 @@
         <v>2.31</v>
       </c>
       <c r="F1219" t="n">
-        <v>0.00504504</v>
+        <v>5.04504</v>
       </c>
     </row>
     <row r="1220">
@@ -24763,7 +24763,7 @@
         <v>2.325</v>
       </c>
       <c r="F1220" t="n">
-        <v>0.0050499</v>
+        <v>5.0499</v>
       </c>
     </row>
     <row r="1221">
@@ -24783,7 +24783,7 @@
         <v>2.37</v>
       </c>
       <c r="F1221" t="n">
-        <v>0.00506232</v>
+        <v>5.062320000000001</v>
       </c>
     </row>
     <row r="1222">
@@ -24803,7 +24803,7 @@
         <v>2.445</v>
       </c>
       <c r="F1222" t="n">
-        <v>0.00545724</v>
+        <v>5.457240000000001</v>
       </c>
     </row>
     <row r="1223">
@@ -24823,7 +24823,7 @@
         <v>2.535</v>
       </c>
       <c r="F1223" t="n">
-        <v>0.005556719999999999</v>
+        <v>5.556719999999999</v>
       </c>
     </row>
     <row r="1224">
@@ -24843,7 +24843,7 @@
         <v>2.625</v>
       </c>
       <c r="F1224" t="n">
-        <v>0.0058485</v>
+        <v>5.8485</v>
       </c>
     </row>
     <row r="1225">
@@ -24863,7 +24863,7 @@
         <v>2.625</v>
       </c>
       <c r="F1225" t="n">
-        <v>0.005806500000000001</v>
+        <v>5.806500000000001</v>
       </c>
     </row>
     <row r="1226">
@@ -24883,7 +24883,7 @@
         <v>2.655</v>
       </c>
       <c r="F1226" t="n">
-        <v>0.005862239999999999</v>
+        <v>5.862239999999999</v>
       </c>
     </row>
     <row r="1227">
@@ -24903,7 +24903,7 @@
         <v>2.655</v>
       </c>
       <c r="F1227" t="n">
-        <v>0.00585162</v>
+        <v>5.85162</v>
       </c>
     </row>
     <row r="1228">
@@ -24923,7 +24923,7 @@
         <v>2.64</v>
       </c>
       <c r="F1228" t="n">
-        <v>0.00574464</v>
+        <v>5.74464</v>
       </c>
     </row>
     <row r="1229">
@@ -24943,7 +24943,7 @@
         <v>2.61</v>
       </c>
       <c r="F1229" t="n">
-        <v>0.00576288</v>
+        <v>5.76288</v>
       </c>
     </row>
     <row r="1230">
@@ -24963,7 +24963,7 @@
         <v>2.595</v>
       </c>
       <c r="F1230" t="n">
-        <v>0.00556368</v>
+        <v>5.56368</v>
       </c>
     </row>
     <row r="1231">
@@ -24983,7 +24983,7 @@
         <v>2.595</v>
       </c>
       <c r="F1231" t="n">
-        <v>0.00563634</v>
+        <v>5.63634</v>
       </c>
     </row>
     <row r="1232">
@@ -25003,7 +25003,7 @@
         <v>2.625</v>
       </c>
       <c r="F1232" t="n">
-        <v>0.0057015</v>
+        <v>5.7015</v>
       </c>
     </row>
     <row r="1233">
@@ -25023,7 +25023,7 @@
         <v>2.64</v>
       </c>
       <c r="F1233" t="n">
-        <v>0.00583968</v>
+        <v>5.83968</v>
       </c>
     </row>
     <row r="1234">
@@ -25043,7 +25043,7 @@
         <v>2.685</v>
       </c>
       <c r="F1234" t="n">
-        <v>0.006014400000000001</v>
+        <v>6.014400000000001</v>
       </c>
     </row>
     <row r="1235">
@@ -25063,7 +25063,7 @@
         <v>2.7</v>
       </c>
       <c r="F1235" t="n">
-        <v>0.0059184</v>
+        <v>5.9184</v>
       </c>
     </row>
     <row r="1236">
@@ -25083,7 +25083,7 @@
         <v>2.685</v>
       </c>
       <c r="F1236" t="n">
-        <v>0.00577812</v>
+        <v>5.77812</v>
       </c>
     </row>
     <row r="1237">
@@ -25103,7 +25103,7 @@
         <v>2.655</v>
       </c>
       <c r="F1237" t="n">
-        <v>0.005787899999999999</v>
+        <v>5.787899999999999</v>
       </c>
     </row>
     <row r="1238">
@@ -25123,7 +25123,7 @@
         <v>2.64</v>
       </c>
       <c r="F1238" t="n">
-        <v>0.0057024</v>
+        <v>5.7024</v>
       </c>
     </row>
     <row r="1239">
@@ -25143,7 +25143,7 @@
         <v>2.61</v>
       </c>
       <c r="F1239" t="n">
-        <v>0.005595839999999999</v>
+        <v>5.595839999999999</v>
       </c>
     </row>
     <row r="1240">
@@ -25163,7 +25163,7 @@
         <v>2.52</v>
       </c>
       <c r="F1240" t="n">
-        <v>0.005614560000000001</v>
+        <v>5.614560000000001</v>
       </c>
     </row>
     <row r="1241">
@@ -25183,7 +25183,7 @@
         <v>2.46</v>
       </c>
       <c r="F1241" t="n">
-        <v>0.00532344</v>
+        <v>5.32344</v>
       </c>
     </row>
     <row r="1242">
@@ -25203,7 +25203,7 @@
         <v>2.385</v>
       </c>
       <c r="F1242" t="n">
-        <v>0.005323319999999999</v>
+        <v>5.323319999999999</v>
       </c>
     </row>
     <row r="1243">
@@ -25223,7 +25223,7 @@
         <v>2.355</v>
       </c>
       <c r="F1243" t="n">
-        <v>0.0050868</v>
+        <v>5.0868</v>
       </c>
     </row>
     <row r="1244">
@@ -25243,7 +25243,7 @@
         <v>2.31</v>
       </c>
       <c r="F1244" t="n">
-        <v>0.005026560000000001</v>
+        <v>5.026560000000001</v>
       </c>
     </row>
     <row r="1245">
@@ -25263,7 +25263,7 @@
         <v>2.235</v>
       </c>
       <c r="F1245" t="n">
-        <v>0.00497064</v>
+        <v>4.97064</v>
       </c>
     </row>
     <row r="1246">
@@ -25283,7 +25283,7 @@
         <v>2.175</v>
       </c>
       <c r="F1246" t="n">
-        <v>0.0048111</v>
+        <v>4.8111</v>
       </c>
     </row>
     <row r="1247">
@@ -25303,7 +25303,7 @@
         <v>2.115</v>
       </c>
       <c r="F1247" t="n">
-        <v>0.00460224</v>
+        <v>4.602239999999999</v>
       </c>
     </row>
     <row r="1248">
@@ -25323,7 +25323,7 @@
         <v>2.04</v>
       </c>
       <c r="F1248" t="n">
-        <v>0.00456144</v>
+        <v>4.56144</v>
       </c>
     </row>
     <row r="1249">
@@ -25343,7 +25343,7 @@
         <v>1.995</v>
       </c>
       <c r="F1249" t="n">
-        <v>0.00449274</v>
+        <v>4.49274</v>
       </c>
     </row>
     <row r="1250">
@@ -25363,7 +25363,7 @@
         <v>1.95</v>
       </c>
       <c r="F1250" t="n">
-        <v>0.0044226</v>
+        <v>4.422599999999999</v>
       </c>
     </row>
     <row r="1251">
@@ -25383,7 +25383,7 @@
         <v>1.89</v>
       </c>
       <c r="F1251" t="n">
-        <v>0.00416556</v>
+        <v>4.165559999999999</v>
       </c>
     </row>
     <row r="1252">
@@ -25403,7 +25403,7 @@
         <v>1.815</v>
       </c>
       <c r="F1252" t="n">
-        <v>0.00394218</v>
+        <v>3.94218</v>
       </c>
     </row>
     <row r="1253">
@@ -25423,7 +25423,7 @@
         <v>1.71</v>
       </c>
       <c r="F1253" t="n">
-        <v>0.003762</v>
+        <v>3.762</v>
       </c>
     </row>
     <row r="1254">
@@ -25443,7 +25443,7 @@
         <v>1.56</v>
       </c>
       <c r="F1254" t="n">
-        <v>0.003444480000000001</v>
+        <v>3.444480000000001</v>
       </c>
     </row>
     <row r="1255">
@@ -25463,7 +25463,7 @@
         <v>1.44</v>
       </c>
       <c r="F1255" t="n">
-        <v>0.00332352</v>
+        <v>3.32352</v>
       </c>
     </row>
     <row r="1256">
@@ -25483,7 +25483,7 @@
         <v>1.335</v>
       </c>
       <c r="F1256" t="n">
-        <v>0.003001080000000001</v>
+        <v>3.001080000000001</v>
       </c>
     </row>
     <row r="1257">
@@ -25503,7 +25503,7 @@
         <v>1.26</v>
       </c>
       <c r="F1257" t="n">
-        <v>0.0027972</v>
+        <v>2.7972</v>
       </c>
     </row>
     <row r="1258">
@@ -25523,7 +25523,7 @@
         <v>1.23</v>
       </c>
       <c r="F1258" t="n">
-        <v>0.00269124</v>
+        <v>2.69124</v>
       </c>
     </row>
     <row r="1259">
@@ -25543,7 +25543,7 @@
         <v>1.2</v>
       </c>
       <c r="F1259" t="n">
-        <v>0.0026304</v>
+        <v>2.6304</v>
       </c>
     </row>
     <row r="1260">
@@ -25563,7 +25563,7 @@
         <v>1.14</v>
       </c>
       <c r="F1260" t="n">
-        <v>0.00259008</v>
+        <v>2.59008</v>
       </c>
     </row>
     <row r="1261">
@@ -25583,7 +25583,7 @@
         <v>1.125</v>
       </c>
       <c r="F1261" t="n">
-        <v>0.002475</v>
+        <v>2.475</v>
       </c>
     </row>
     <row r="1262">
@@ -25603,7 +25603,7 @@
         <v>1.065</v>
       </c>
       <c r="F1262" t="n">
-        <v>0.0023856</v>
+        <v>2.3856</v>
       </c>
     </row>
     <row r="1263">
@@ -25623,7 +25623,7 @@
         <v>1.005</v>
       </c>
       <c r="F1263" t="n">
-        <v>0.00224718</v>
+        <v>2.24718</v>
       </c>
     </row>
     <row r="1264">
@@ -25643,7 +25643,7 @@
         <v>0.96</v>
       </c>
       <c r="F1264" t="n">
-        <v>0.00218496</v>
+        <v>2.18496</v>
       </c>
     </row>
     <row r="1265">
@@ -25663,7 +25663,7 @@
         <v>0.885</v>
       </c>
       <c r="F1265" t="n">
-        <v>0.00196824</v>
+        <v>1.96824</v>
       </c>
     </row>
     <row r="1266">
@@ -25683,7 +25683,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="F1266" t="n">
-        <v>0.0017967</v>
+        <v>1.7967</v>
       </c>
     </row>
     <row r="1267">
@@ -25703,7 +25703,7 @@
         <v>0.735</v>
       </c>
       <c r="F1267" t="n">
-        <v>0.00160524</v>
+        <v>1.60524</v>
       </c>
     </row>
     <row r="1268">
@@ -25723,7 +25723,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F1268" t="n">
-        <v>0.0014877</v>
+        <v>1.4877</v>
       </c>
     </row>
     <row r="1269">
@@ -25743,7 +25743,7 @@
         <v>0.645</v>
       </c>
       <c r="F1269" t="n">
-        <v>0.00142416</v>
+        <v>1.42416</v>
       </c>
     </row>
     <row r="1270">
@@ -25763,7 +25763,7 @@
         <v>0.615</v>
       </c>
       <c r="F1270" t="n">
-        <v>0.00140466</v>
+        <v>1.40466</v>
       </c>
     </row>
     <row r="1271">
@@ -25783,7 +25783,7 @@
         <v>0.585</v>
       </c>
       <c r="F1271" t="n">
-        <v>0.00132678</v>
+        <v>1.32678</v>
       </c>
     </row>
     <row r="1272">
@@ -25803,7 +25803,7 @@
         <v>0.57</v>
       </c>
       <c r="F1272" t="n">
-        <v>0.00126768</v>
+        <v>1.26768</v>
       </c>
     </row>
     <row r="1273">
@@ -25823,7 +25823,7 @@
         <v>0.525</v>
       </c>
       <c r="F1273" t="n">
-        <v>0.0011865</v>
+        <v>1.1865</v>
       </c>
     </row>
     <row r="1274">
@@ -25843,7 +25843,7 @@
         <v>0.495</v>
       </c>
       <c r="F1274" t="n">
-        <v>0.0011088</v>
+        <v>1.1088</v>
       </c>
     </row>
     <row r="1275">
@@ -25863,7 +25863,7 @@
         <v>0.465</v>
       </c>
       <c r="F1275" t="n">
-        <v>0.00102672</v>
+        <v>1.02672</v>
       </c>
     </row>
     <row r="1276">
@@ -25883,7 +25883,7 @@
         <v>0.435</v>
       </c>
       <c r="F1276" t="n">
-        <v>0.0009674400000000001</v>
+        <v>0.9674400000000001</v>
       </c>
     </row>
     <row r="1277">
@@ -25903,7 +25903,7 @@
         <v>0.405</v>
       </c>
       <c r="F1277" t="n">
-        <v>0.0009007199999999999</v>
+        <v>0.90072</v>
       </c>
     </row>
     <row r="1278">
@@ -25923,7 +25923,7 @@
         <v>0.39</v>
       </c>
       <c r="F1278" t="n">
-        <v>0.0008595600000000001</v>
+        <v>0.8595600000000001</v>
       </c>
     </row>
     <row r="1279">
@@ -25943,7 +25943,7 @@
         <v>0.39</v>
       </c>
       <c r="F1279" t="n">
-        <v>0.0008517600000000001</v>
+        <v>0.8517600000000001</v>
       </c>
     </row>
     <row r="1280">
@@ -25963,7 +25963,7 @@
         <v>0.36</v>
       </c>
       <c r="F1280" t="n">
-        <v>0.0008150400000000001</v>
+        <v>0.8150400000000001</v>
       </c>
     </row>
     <row r="1281">
@@ -25983,7 +25983,7 @@
         <v>0.36</v>
       </c>
       <c r="F1281" t="n">
-        <v>0.00079056</v>
+        <v>0.79056</v>
       </c>
     </row>
     <row r="1282">
@@ -26003,7 +26003,7 @@
         <v>0.36</v>
       </c>
       <c r="F1282" t="n">
-        <v>0.00081072</v>
+        <v>0.81072</v>
       </c>
     </row>
     <row r="1283">
@@ -26023,7 +26023,7 @@
         <v>0.345</v>
       </c>
       <c r="F1283" t="n">
-        <v>0.00077004</v>
+        <v>0.7700400000000001</v>
       </c>
     </row>
     <row r="1284">
@@ -26043,7 +26043,7 @@
         <v>0.33</v>
       </c>
       <c r="F1284" t="n">
-        <v>0.0007286399999999999</v>
+        <v>0.72864</v>
       </c>
     </row>
     <row r="1285">
@@ -26063,7 +26063,7 @@
         <v>0.315</v>
       </c>
       <c r="F1285" t="n">
-        <v>0.0007245000000000001</v>
+        <v>0.7245000000000001</v>
       </c>
     </row>
     <row r="1286">
@@ -26083,7 +26083,7 @@
         <v>0.3</v>
       </c>
       <c r="F1286" t="n">
-        <v>0.0006672000000000001</v>
+        <v>0.6672</v>
       </c>
     </row>
     <row r="1287">
@@ -26103,7 +26103,7 @@
         <v>0.27</v>
       </c>
       <c r="F1287" t="n">
-        <v>0.0006037200000000002</v>
+        <v>0.6037200000000001</v>
       </c>
     </row>
     <row r="1288">
@@ -26123,7 +26123,7 @@
         <v>0.255</v>
       </c>
       <c r="F1288" t="n">
-        <v>0.0005773200000000001</v>
+        <v>0.5773200000000001</v>
       </c>
     </row>
     <row r="1289">
@@ -26143,7 +26143,7 @@
         <v>0.24</v>
       </c>
       <c r="F1289" t="n">
-        <v>0.00053472</v>
+        <v>0.5347200000000001</v>
       </c>
     </row>
     <row r="1290">
@@ -26163,7 +26163,7 @@
         <v>0.195</v>
       </c>
       <c r="F1290" t="n">
-        <v>0.00045474</v>
+        <v>0.45474</v>
       </c>
     </row>
     <row r="1291">
@@ -26183,7 +26183,7 @@
         <v>0.18</v>
       </c>
       <c r="F1291" t="n">
-        <v>0.00041328</v>
+        <v>0.41328</v>
       </c>
     </row>
     <row r="1292">
@@ -26203,7 +26203,7 @@
         <v>0.15</v>
       </c>
       <c r="F1292" t="n">
-        <v>0.0003528</v>
+        <v>0.3528</v>
       </c>
     </row>
     <row r="1293">
@@ -26223,7 +26223,7 @@
         <v>0.135</v>
       </c>
       <c r="F1293" t="n">
-        <v>0.00031374</v>
+        <v>0.31374</v>
       </c>
     </row>
     <row r="1294">
@@ -26243,7 +26243,7 @@
         <v>0.12</v>
       </c>
       <c r="F1294" t="n">
-        <v>0.0002736</v>
+        <v>0.2736</v>
       </c>
     </row>
     <row r="1295">
@@ -26263,7 +26263,7 @@
         <v>0.105</v>
       </c>
       <c r="F1295" t="n">
-        <v>0.00024822</v>
+        <v>0.24822</v>
       </c>
     </row>
     <row r="1296">
@@ -26283,7 +26283,7 @@
         <v>0.075</v>
       </c>
       <c r="F1296" t="n">
-        <v>0.0001833</v>
+        <v>0.1833</v>
       </c>
     </row>
     <row r="1297">
@@ -26303,7 +26303,7 @@
         <v>0.015</v>
       </c>
       <c r="F1297" t="n">
-        <v>3.912e-05</v>
+        <v>0.03912</v>
       </c>
     </row>
     <row r="1298">
@@ -26323,7 +26323,7 @@
         <v>0.045</v>
       </c>
       <c r="F1298" t="n">
-        <v>0.00011484</v>
+        <v>0.11484</v>
       </c>
     </row>
     <row r="1299">
@@ -26343,7 +26343,7 @@
         <v>0.03</v>
       </c>
       <c r="F1299" t="n">
-        <v>7.524e-05</v>
+        <v>0.07524</v>
       </c>
     </row>
     <row r="1300">
@@ -26363,7 +26363,7 @@
         <v>0.015</v>
       </c>
       <c r="F1300" t="n">
-        <v>3.714e-05</v>
+        <v>0.03714</v>
       </c>
     </row>
     <row r="1301">
@@ -26383,7 +26383,7 @@
         <v>0.015</v>
       </c>
       <c r="F1301" t="n">
-        <v>3.678e-05</v>
+        <v>0.03678</v>
       </c>
     </row>
     <row r="1302">
@@ -26403,7 +26403,7 @@
         <v>0.015</v>
       </c>
       <c r="F1302" t="n">
-        <v>3.666e-05</v>
+        <v>0.03666</v>
       </c>
     </row>
     <row r="1303">
@@ -26423,7 +26423,7 @@
         <v>0.015</v>
       </c>
       <c r="F1303" t="n">
-        <v>3.606e-05</v>
+        <v>0.03605999999999999</v>
       </c>
     </row>
     <row r="1304">
@@ -26443,7 +26443,7 @@
         <v>0.015</v>
       </c>
       <c r="F1304" t="n">
-        <v>3.528e-05</v>
+        <v>0.03528</v>
       </c>
     </row>
     <row r="1305">
@@ -26483,7 +26483,7 @@
         <v>0.015</v>
       </c>
       <c r="F1306" t="n">
-        <v>3.36e-05</v>
+        <v>0.0336</v>
       </c>
     </row>
     <row r="1307">
@@ -26503,7 +26503,7 @@
         <v>0.015</v>
       </c>
       <c r="F1307" t="n">
-        <v>3.222e-05</v>
+        <v>0.03222</v>
       </c>
     </row>
     <row r="1308">
@@ -26563,7 +26563,7 @@
         <v>0.03</v>
       </c>
       <c r="F1310" t="n">
-        <v>6.192e-05</v>
+        <v>0.06192</v>
       </c>
     </row>
     <row r="1311">
@@ -26583,7 +26583,7 @@
         <v>0.015</v>
       </c>
       <c r="F1311" t="n">
-        <v>3.06e-05</v>
+        <v>0.0306</v>
       </c>
     </row>
     <row r="1312">
@@ -26703,7 +26703,7 @@
         <v>0.015</v>
       </c>
       <c r="F1317" t="n">
-        <v>2.886e-05</v>
+        <v>0.02886</v>
       </c>
     </row>
     <row r="1318">
@@ -26763,7 +26763,7 @@
         <v>0.015</v>
       </c>
       <c r="F1320" t="n">
-        <v>2.856e-05</v>
+        <v>0.02856</v>
       </c>
     </row>
     <row r="1321">
@@ -26903,7 +26903,7 @@
         <v>0.015</v>
       </c>
       <c r="F1327" t="n">
-        <v>2.766e-05</v>
+        <v>0.02766</v>
       </c>
     </row>
     <row r="1328">
@@ -26943,7 +26943,7 @@
         <v>0.015</v>
       </c>
       <c r="F1329" t="n">
-        <v>2.658e-05</v>
+        <v>0.02658</v>
       </c>
     </row>
     <row r="1330">
@@ -26963,7 +26963,7 @@
         <v>0.015</v>
       </c>
       <c r="F1330" t="n">
-        <v>2.61e-05</v>
+        <v>0.0261</v>
       </c>
     </row>
     <row r="1331">
